--- a/JupyterNotebooks/AvgHW/CubeA-HW15.xlsx
+++ b/JupyterNotebooks/AvgHW/CubeA-HW15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,31 +82,31 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
     <t>[2, 2, 2]</t>
   </si>
   <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
     <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
   </si>
   <si>
     <t>[4, 2, 2]</t>
@@ -488,13 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +573,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +582,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -701,37 +653,37 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.962117379252132</v>
+        <v>1.014985683836183</v>
       </c>
       <c r="D3">
         <v>1.065827946491762</v>
       </c>
       <c r="E3">
+        <v>1.065827946491762</v>
+      </c>
+      <c r="F3">
         <v>1.009602472746511</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.962117379252132</v>
       </c>
-      <c r="G3">
-        <v>0.9967677103359613</v>
-      </c>
       <c r="H3">
-        <v>0.987940914844226</v>
+        <v>0.962117379252132</v>
       </c>
       <c r="I3">
         <v>0.962117379252132</v>
       </c>
       <c r="J3">
-        <v>1.065827946491762</v>
+        <v>0.987940914844226</v>
       </c>
       <c r="K3">
-        <v>1.014985683836183</v>
+        <v>0.9967677103359613</v>
       </c>
       <c r="L3">
         <v>0.974358009273244</v>
       </c>
       <c r="M3">
-        <v>1.029399450235129</v>
+        <v>1.029399450235128</v>
       </c>
       <c r="N3">
         <v>0.962117379252132</v>
@@ -764,7 +716,7 @@
         <v>1.005124945876894</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -772,31 +724,31 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9255728080078336</v>
+        <v>1.029011019519943</v>
       </c>
       <c r="D4">
         <v>1.124637345903445</v>
       </c>
       <c r="E4">
+        <v>1.124637345903445</v>
+      </c>
+      <c r="F4">
         <v>1.016948632859245</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.9255728080078336</v>
       </c>
-      <c r="G4">
-        <v>0.9953828218048593</v>
-      </c>
       <c r="H4">
-        <v>0.9761715699104521</v>
+        <v>0.9255728080078336</v>
       </c>
       <c r="I4">
         <v>0.9255728080078336</v>
       </c>
       <c r="J4">
-        <v>1.124637345903445</v>
+        <v>0.9761715699104521</v>
       </c>
       <c r="K4">
-        <v>1.029011019519943</v>
+        <v>0.9953828218048593</v>
       </c>
       <c r="L4">
         <v>0.9517635429038405</v>
@@ -835,7 +787,7 @@
         <v>1.009548747556736</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,31 +795,31 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.8609284373792924</v>
+        <v>1.054590512574045</v>
       </c>
       <c r="D5">
         <v>1.245389067378953</v>
       </c>
       <c r="E5">
+        <v>1.245389067378953</v>
+      </c>
+      <c r="F5">
         <v>1.033167963627783</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.8609284373792924</v>
       </c>
-      <c r="G5">
-        <v>0.9884467330275332</v>
-      </c>
       <c r="H5">
-        <v>0.9544722154065791</v>
+        <v>0.8609284373792924</v>
       </c>
       <c r="I5">
         <v>0.8609284373792924</v>
       </c>
       <c r="J5">
-        <v>1.245389067378953</v>
+        <v>0.9544722154065791</v>
       </c>
       <c r="K5">
-        <v>1.054590512574045</v>
+        <v>0.9884467330275332</v>
       </c>
       <c r="L5">
         <v>0.9068365786183493</v>
@@ -906,7 +858,7 @@
         <v>1.019079869250818</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -914,31 +866,31 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.8004175252874666</v>
+        <v>1.088432695533195</v>
       </c>
       <c r="D6">
         <v>1.365607561191533</v>
       </c>
       <c r="E6">
+        <v>1.365607561191533</v>
+      </c>
+      <c r="F6">
         <v>1.050228793294115</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.8004175252874666</v>
       </c>
-      <c r="G6">
-        <v>0.9761152752328862</v>
-      </c>
       <c r="H6">
-        <v>0.9247520142907056</v>
+        <v>0.8004175252874666</v>
       </c>
       <c r="I6">
         <v>0.8004175252874666</v>
       </c>
       <c r="J6">
-        <v>1.365607561191533</v>
+        <v>0.9247520142907054</v>
       </c>
       <c r="K6">
-        <v>1.088432695533195</v>
+        <v>0.9761152752328862</v>
       </c>
       <c r="L6">
         <v>0.8663869953499452</v>
@@ -977,7 +929,7 @@
         <v>1.028304565304532</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,49 +937,49 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9986796097736705</v>
+        <v>0.999794292693851</v>
       </c>
       <c r="D7">
         <v>1.007092976472072</v>
       </c>
       <c r="E7">
-        <v>0.998747685446681</v>
+        <v>1.007092976472072</v>
       </c>
       <c r="F7">
-        <v>0.9986796097736705</v>
+        <v>0.9987476854466814</v>
       </c>
       <c r="G7">
-        <v>1.000020793187544</v>
+        <v>0.9986796097736711</v>
       </c>
       <c r="H7">
-        <v>0.9987309918674963</v>
+        <v>0.9986796097736711</v>
       </c>
       <c r="I7">
-        <v>0.9986796097736705</v>
+        <v>0.9986796097736711</v>
       </c>
       <c r="J7">
-        <v>1.007092976472072</v>
+        <v>0.9987309918674967</v>
       </c>
       <c r="K7">
-        <v>0.9997942926938513</v>
+        <v>1.000020793187545</v>
       </c>
       <c r="L7">
-        <v>0.9989417828542221</v>
+        <v>0.9989417828542226</v>
       </c>
       <c r="M7">
         <v>1.002753796114977</v>
       </c>
       <c r="N7">
-        <v>0.9986796097736705</v>
+        <v>0.9986796097736711</v>
       </c>
       <c r="O7">
-        <v>0.998747685446681</v>
+        <v>0.9987476854466814</v>
       </c>
       <c r="P7">
         <v>1.002920330959377</v>
       </c>
       <c r="Q7">
-        <v>0.9993842393171125</v>
+        <v>0.9993842393171131</v>
       </c>
       <c r="R7">
         <v>1.001506757230808</v>
@@ -1045,10 +997,10 @@
         <v>1.000644134930728</v>
       </c>
       <c r="W7">
-        <v>1.000595241051314</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33">
+        <v>1.000595241051315</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1056,49 +1008,49 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9964693950126736</v>
+        <v>0.9996334939944445</v>
       </c>
       <c r="D8">
-        <v>1.018815606590321</v>
+        <v>1.018815606590322</v>
       </c>
       <c r="E8">
-        <v>0.9965898927611876</v>
+        <v>1.018815606590322</v>
       </c>
       <c r="F8">
-        <v>0.9964693950126736</v>
+        <v>0.9965898927611873</v>
       </c>
       <c r="G8">
+        <v>0.996469395012674</v>
+      </c>
+      <c r="H8">
+        <v>0.996469395012674</v>
+      </c>
+      <c r="I8">
+        <v>0.996469395012674</v>
+      </c>
+      <c r="J8">
+        <v>0.9964616683011934</v>
+      </c>
+      <c r="K8">
         <v>1.000195309570444</v>
       </c>
-      <c r="H8">
-        <v>0.9964616683011936</v>
-      </c>
-      <c r="I8">
-        <v>0.9964693950126736</v>
-      </c>
-      <c r="J8">
-        <v>1.018815606590321</v>
-      </c>
-      <c r="K8">
-        <v>0.9996334939944445</v>
-      </c>
       <c r="L8">
-        <v>0.9969778511557084</v>
+        <v>0.9969778511557071</v>
       </c>
       <c r="M8">
         <v>1.007579903983893</v>
       </c>
       <c r="N8">
-        <v>0.9964693950126736</v>
+        <v>0.996469395012674</v>
       </c>
       <c r="O8">
-        <v>0.9965898927611876</v>
+        <v>0.9965898927611873</v>
       </c>
       <c r="P8">
         <v>1.007702749675754</v>
       </c>
       <c r="Q8">
-        <v>0.9983926011658157</v>
+        <v>0.9983926011658155</v>
       </c>
       <c r="R8">
         <v>1.003958298121394</v>
@@ -1119,7 +1071,7 @@
         <v>1.001590390171233</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1127,31 +1079,31 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.994415129260653</v>
+        <v>0.9994368632669997</v>
       </c>
       <c r="D9">
         <v>1.026981319336468</v>
       </c>
       <c r="E9">
+        <v>1.026981319336468</v>
+      </c>
+      <c r="F9">
         <v>0.9948601068553018</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.994415129260653</v>
       </c>
-      <c r="G9">
-        <v>1.000465815342123</v>
-      </c>
       <c r="H9">
-        <v>0.994863397236607</v>
+        <v>0.994415129260653</v>
       </c>
       <c r="I9">
         <v>0.994415129260653</v>
       </c>
       <c r="J9">
-        <v>1.026981319336468</v>
+        <v>0.994863397236607</v>
       </c>
       <c r="K9">
-        <v>0.9994368632669993</v>
+        <v>1.000465815342123</v>
       </c>
       <c r="L9">
         <v>0.9958852422927293</v>
@@ -1181,7 +1133,7 @@
         <v>1.005418851817474</v>
       </c>
       <c r="U9">
-        <v>1.004180592698637</v>
+        <v>1.004180592698636</v>
       </c>
       <c r="V9">
         <v>1.00222750001104</v>
@@ -1190,7 +1142,7 @@
         <v>1.002236353088781</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1198,37 +1150,37 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9878605610049934</v>
+        <v>0.9986367491608099</v>
       </c>
       <c r="D10">
         <v>1.057822891664266</v>
       </c>
       <c r="E10">
+        <v>1.057822891664266</v>
+      </c>
+      <c r="F10">
         <v>0.9894240272956221</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.9878605610049934</v>
       </c>
-      <c r="G10">
-        <v>1.000952087079897</v>
-      </c>
       <c r="H10">
-        <v>0.9891991331731478</v>
+        <v>0.9878605610049934</v>
       </c>
       <c r="I10">
         <v>0.9878605610049934</v>
       </c>
       <c r="J10">
-        <v>1.057822891664266</v>
+        <v>0.9891991331731479</v>
       </c>
       <c r="K10">
-        <v>0.9986367491608101</v>
+        <v>1.000952087079897</v>
       </c>
       <c r="L10">
         <v>0.9913360892679089</v>
       </c>
       <c r="M10">
-        <v>1.023221529685865</v>
+        <v>1.023221529685866</v>
       </c>
       <c r="N10">
         <v>0.9878605610049934</v>
@@ -1261,7 +1213,7 @@
         <v>1.004806633541564</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1269,34 +1221,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9805415391893013</v>
+        <v>0.9976619660461805</v>
       </c>
       <c r="D11">
         <v>1.098598688978082</v>
       </c>
       <c r="E11">
-        <v>0.9817906618365264</v>
+        <v>1.098598688978082</v>
       </c>
       <c r="F11">
+        <v>0.9817906618365262</v>
+      </c>
+      <c r="G11">
         <v>0.9805415391893013</v>
       </c>
-      <c r="G11">
-        <v>1.001439193333725</v>
-      </c>
       <c r="H11">
-        <v>0.981439185210162</v>
+        <v>0.9805415391893013</v>
       </c>
       <c r="I11">
         <v>0.9805415391893013</v>
       </c>
       <c r="J11">
-        <v>1.098598688978082</v>
+        <v>0.9814391852101618</v>
       </c>
       <c r="K11">
-        <v>0.9976619660461805</v>
+        <v>1.001439193333725</v>
       </c>
       <c r="L11">
-        <v>0.9848699475337075</v>
+        <v>0.9848699475337077</v>
       </c>
       <c r="M11">
         <v>1.039844402862302</v>
@@ -1305,13 +1257,13 @@
         <v>0.9805415391893013</v>
       </c>
       <c r="O11">
-        <v>0.9817906618365264</v>
+        <v>0.9817906618365262</v>
       </c>
       <c r="P11">
         <v>1.040194675407304</v>
       </c>
       <c r="Q11">
-        <v>0.9916149275851256</v>
+        <v>0.9916149275851255</v>
       </c>
       <c r="R11">
         <v>1.02031029666797</v>
@@ -1332,7 +1284,7 @@
         <v>1.008273198123748</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1340,46 +1292,46 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>0.7906552528753793</v>
+      </c>
+      <c r="D12">
+        <v>0.3813712719179747</v>
+      </c>
+      <c r="E12">
+        <v>0.3813712719179747</v>
+      </c>
+      <c r="F12">
+        <v>0.7520861600358772</v>
+      </c>
+      <c r="G12">
         <v>1.604221700991157</v>
       </c>
-      <c r="D12">
-        <v>0.3813712719179751</v>
-      </c>
-      <c r="E12">
-        <v>0.7520861600358771</v>
-      </c>
-      <c r="F12">
+      <c r="H12">
         <v>1.604221700991157</v>
-      </c>
-      <c r="G12">
-        <v>1.022823215719612</v>
-      </c>
-      <c r="H12">
-        <v>1.086157487724175</v>
       </c>
       <c r="I12">
         <v>1.604221700991157</v>
       </c>
       <c r="J12">
-        <v>0.3813712719179751</v>
+        <v>1.086157487724175</v>
       </c>
       <c r="K12">
-        <v>0.7906552528753792</v>
+        <v>1.022823215719612</v>
       </c>
       <c r="L12">
         <v>1.320078409666073</v>
       </c>
       <c r="M12">
-        <v>0.6874346321174463</v>
+        <v>0.6874346321174459</v>
       </c>
       <c r="N12">
         <v>1.604221700991157</v>
       </c>
       <c r="O12">
-        <v>0.7520861600358771</v>
+        <v>0.7520861600358772</v>
       </c>
       <c r="P12">
-        <v>0.5667287159769261</v>
+        <v>0.566728715976926</v>
       </c>
       <c r="Q12">
         <v>0.8874546878777445</v>
@@ -1391,19 +1343,19 @@
         <v>0.7187602158911547</v>
       </c>
       <c r="T12">
-        <v>0.9125597109816698</v>
+        <v>0.9125597109816695</v>
       </c>
       <c r="U12">
-        <v>0.9401255871661552</v>
+        <v>0.9401255871661551</v>
       </c>
       <c r="V12">
-        <v>1.072944809931156</v>
+        <v>1.072944809931155</v>
       </c>
       <c r="W12">
         <v>0.9556035163809617</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1411,31 +1363,31 @@
         <v>11</v>
       </c>
       <c r="C13">
+        <v>1.014759350725453</v>
+      </c>
+      <c r="D13">
+        <v>0.9779470090928971</v>
+      </c>
+      <c r="E13">
+        <v>0.9779470090928971</v>
+      </c>
+      <c r="F13">
+        <v>1.299517487579263</v>
+      </c>
+      <c r="G13">
         <v>1.131824778943258</v>
       </c>
-      <c r="D13">
-        <v>0.9779470090928974</v>
-      </c>
-      <c r="E13">
-        <v>1.299517487579263</v>
-      </c>
-      <c r="F13">
+      <c r="H13">
         <v>1.131824778943258</v>
-      </c>
-      <c r="G13">
-        <v>0.787095813356969</v>
-      </c>
-      <c r="H13">
-        <v>1.146265573757279</v>
       </c>
       <c r="I13">
         <v>1.131824778943258</v>
       </c>
       <c r="J13">
-        <v>0.9779470090928974</v>
+        <v>1.146265573757279</v>
       </c>
       <c r="K13">
-        <v>1.014759350725453</v>
+        <v>0.787095813356969</v>
       </c>
       <c r="L13">
         <v>0.868430043618947</v>
@@ -1474,7 +1426,7 @@
         <v>1.011688641529282</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1482,40 +1434,40 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.4366272723675222</v>
+        <v>1.236674189962504</v>
       </c>
       <c r="D14">
-        <v>0.3862134170529798</v>
+        <v>0.3862134170529797</v>
       </c>
       <c r="E14">
+        <v>0.3862134170529797</v>
+      </c>
+      <c r="F14">
         <v>1.823256695440803</v>
       </c>
-      <c r="F14">
-        <v>0.4366272723675222</v>
-      </c>
       <c r="G14">
-        <v>0.8267191513022922</v>
+        <v>0.4366272723675221</v>
       </c>
       <c r="H14">
+        <v>0.4366272723675221</v>
+      </c>
+      <c r="I14">
+        <v>0.4366272723675221</v>
+      </c>
+      <c r="J14">
         <v>1.355492994251532</v>
       </c>
-      <c r="I14">
-        <v>0.4366272723675222</v>
-      </c>
-      <c r="J14">
-        <v>0.3862134170529798</v>
-      </c>
       <c r="K14">
-        <v>1.236674189962504</v>
+        <v>0.8267191513022921</v>
       </c>
       <c r="L14">
-        <v>0.7841456189156452</v>
+        <v>0.7841456189156453</v>
       </c>
       <c r="M14">
-        <v>0.6567729082941094</v>
+        <v>0.6567729082941093</v>
       </c>
       <c r="N14">
-        <v>0.4366272723675222</v>
+        <v>0.4366272723675221</v>
       </c>
       <c r="O14">
         <v>1.823256695440803</v>
@@ -1524,10 +1476,10 @@
         <v>1.104735056246891</v>
       </c>
       <c r="Q14">
-        <v>1.324987923371547</v>
+        <v>1.324987923371548</v>
       </c>
       <c r="R14">
-        <v>0.882032461620435</v>
+        <v>0.8820324616204349</v>
       </c>
       <c r="S14">
         <v>1.012063087932025</v>
@@ -1539,13 +1491,13 @@
         <v>0.8682041340408992</v>
       </c>
       <c r="V14">
-        <v>0.7818887617062239</v>
+        <v>0.7818887617062238</v>
       </c>
       <c r="W14">
         <v>0.9382377809484235</v>
       </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1553,34 +1505,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.283617992978144</v>
+        <v>0.8541392098058019</v>
       </c>
       <c r="D15">
         <v>1.039018288742479</v>
       </c>
       <c r="E15">
+        <v>1.039018288742479</v>
+      </c>
+      <c r="F15">
         <v>0.6535133014708883</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>1.283617992978144</v>
       </c>
-      <c r="G15">
-        <v>1.090925169322804</v>
-      </c>
       <c r="H15">
-        <v>0.9027953238081448</v>
+        <v>1.283617992978144</v>
       </c>
       <c r="I15">
         <v>1.283617992978144</v>
       </c>
       <c r="J15">
-        <v>1.039018288742479</v>
+        <v>0.9027953238081448</v>
       </c>
       <c r="K15">
-        <v>0.854139209805802</v>
+        <v>1.090925169322804</v>
       </c>
       <c r="L15">
-        <v>1.186105343260665</v>
+        <v>1.186105343260666</v>
       </c>
       <c r="M15">
         <v>1.034777544995982</v>
@@ -1595,13 +1547,13 @@
         <v>0.8462657951066834</v>
       </c>
       <c r="Q15">
-        <v>0.8722192353968461</v>
+        <v>0.872219235396846</v>
       </c>
       <c r="R15">
         <v>0.9920498610638372</v>
       </c>
       <c r="S15">
-        <v>0.9278189198453903</v>
+        <v>0.9278189198453902</v>
       </c>
       <c r="T15">
         <v>0.9920498610638372</v>
@@ -1616,7 +1568,7 @@
         <v>1.005611521798114</v>
       </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1576,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.00068550134009</v>
+        <v>1.275560895687968</v>
       </c>
       <c r="D16">
-        <v>1.0018436330389</v>
+        <v>2.247130201602894</v>
       </c>
       <c r="E16">
-        <v>0.9989069993924753</v>
+        <v>2.247130201602894</v>
       </c>
       <c r="F16">
-        <v>1.00068550134009</v>
+        <v>1.132043861678155</v>
       </c>
       <c r="G16">
-        <v>0.9999584014842345</v>
+        <v>0.2613963701400528</v>
       </c>
       <c r="H16">
-        <v>0.99974584379356</v>
+        <v>0.2613963701400528</v>
       </c>
       <c r="I16">
-        <v>1.00068550134009</v>
+        <v>0.2613963701400528</v>
       </c>
       <c r="J16">
-        <v>1.0018436330389</v>
+        <v>0.7512952108371878</v>
       </c>
       <c r="K16">
-        <v>0.9994051235964365</v>
+        <v>0.9775451169882042</v>
       </c>
       <c r="L16">
-        <v>1.000383895056545</v>
+        <v>0.5314451960225255</v>
       </c>
       <c r="M16">
-        <v>1.000232967002155</v>
+        <v>1.588287099511691</v>
       </c>
       <c r="N16">
-        <v>1.00068550134009</v>
+        <v>0.2613963701400528</v>
       </c>
       <c r="O16">
-        <v>0.9989069993924753</v>
+        <v>1.132043861678155</v>
       </c>
       <c r="P16">
-        <v>1.000375316215687</v>
+        <v>1.689587031640524</v>
       </c>
       <c r="Q16">
-        <v>0.999432700438355</v>
+        <v>1.05479448933318</v>
       </c>
       <c r="R16">
-        <v>1.000478711257155</v>
+        <v>1.213523477807034</v>
       </c>
       <c r="S16">
-        <v>1.000236344638537</v>
+        <v>1.452239726756418</v>
       </c>
       <c r="T16">
-        <v>1.000478711257155</v>
+        <v>1.213523477807034</v>
       </c>
       <c r="U16">
-        <v>1.000348633813925</v>
+        <v>1.154528887602327</v>
       </c>
       <c r="V16">
-        <v>1.000416007319158</v>
+        <v>0.9759023841098717</v>
       </c>
       <c r="W16">
-        <v>1.000145295588049</v>
+        <v>1.095587994058585</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1647,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9974922504345053</v>
+        <v>1.1896869703795</v>
       </c>
       <c r="D17">
-        <v>1.00693016190881</v>
+        <v>2.057457339578579</v>
       </c>
       <c r="E17">
-        <v>1.000025015734573</v>
+        <v>2.057457339578579</v>
       </c>
       <c r="F17">
-        <v>0.9974922504345053</v>
+        <v>1.03861369021612</v>
       </c>
       <c r="G17">
-        <v>0.9998558204311196</v>
+        <v>0.4428164079253079</v>
       </c>
       <c r="H17">
-        <v>0.9990840094100132</v>
+        <v>0.4428164079253079</v>
       </c>
       <c r="I17">
-        <v>0.9974922504345053</v>
+        <v>0.4428164079253079</v>
       </c>
       <c r="J17">
-        <v>1.00693016190881</v>
+        <v>0.7801267160167044</v>
       </c>
       <c r="K17">
-        <v>1.0000408271084</v>
+        <v>0.9994022947548873</v>
       </c>
       <c r="L17">
-        <v>0.9982650620352568</v>
+        <v>0.6479406660938121</v>
       </c>
       <c r="M17">
-        <v>1.003126942127246</v>
+        <v>1.498840236322301</v>
       </c>
       <c r="N17">
-        <v>0.9974922504345053</v>
+        <v>0.4428164079253079</v>
       </c>
       <c r="O17">
-        <v>1.000025015734573</v>
+        <v>1.03861369021612</v>
       </c>
       <c r="P17">
-        <v>1.003477588821691</v>
+        <v>1.548035514897349</v>
       </c>
       <c r="Q17">
-        <v>0.9999404180828462</v>
+        <v>1.019007992485504</v>
       </c>
       <c r="R17">
-        <v>1.001482476025963</v>
+        <v>1.179629145906669</v>
       </c>
       <c r="S17">
-        <v>1.002270332691501</v>
+        <v>1.365157774849862</v>
       </c>
       <c r="T17">
-        <v>1.001482476025963</v>
+        <v>1.179629145906669</v>
       </c>
       <c r="U17">
-        <v>1.001075812127252</v>
+        <v>1.134572433118723</v>
       </c>
       <c r="V17">
-        <v>1.000359099788703</v>
+        <v>0.9962212280800404</v>
       </c>
       <c r="W17">
-        <v>1.00060251114874</v>
+        <v>1.081860540160901</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1718,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9879863627530868</v>
+        <v>1.018716128815935</v>
       </c>
       <c r="D18">
-        <v>1.022745681225502</v>
+        <v>1.675430343191748</v>
       </c>
       <c r="E18">
-        <v>0.9993626636357725</v>
+        <v>1.675430343191748</v>
       </c>
       <c r="F18">
-        <v>0.9879863627530868</v>
+        <v>0.8530473042415694</v>
       </c>
       <c r="G18">
-        <v>0.9993481099725464</v>
+        <v>0.8050212397869266</v>
       </c>
       <c r="H18">
-        <v>0.9948639636180232</v>
+        <v>0.8050212397869266</v>
       </c>
       <c r="I18">
-        <v>0.9879863627530868</v>
+        <v>0.8050212397869266</v>
       </c>
       <c r="J18">
-        <v>1.022745681225502</v>
+        <v>0.8382305860433433</v>
       </c>
       <c r="K18">
-        <v>1.005146319347008</v>
+        <v>1.043022188667164</v>
       </c>
       <c r="L18">
-        <v>0.9939809623491633</v>
+        <v>0.8806907757910857</v>
       </c>
       <c r="M18">
-        <v>1.007958557028641</v>
+        <v>1.319120659893348</v>
       </c>
       <c r="N18">
-        <v>0.9879863627530868</v>
+        <v>0.8050212397869266</v>
       </c>
       <c r="O18">
-        <v>0.9993626636357725</v>
+        <v>0.8530473042415694</v>
       </c>
       <c r="P18">
-        <v>1.011054172430637</v>
+        <v>1.264238823716659</v>
       </c>
       <c r="Q18">
-        <v>0.9993553868041595</v>
+        <v>0.9480347464543666</v>
       </c>
       <c r="R18">
-        <v>1.00336490253812</v>
+        <v>1.111166295740081</v>
       </c>
       <c r="S18">
-        <v>1.007152151611274</v>
+        <v>1.190499945366827</v>
       </c>
       <c r="T18">
-        <v>1.00336490253812</v>
+        <v>1.111166295740081</v>
       </c>
       <c r="U18">
-        <v>1.002360704396727</v>
+        <v>1.094130268971852</v>
       </c>
       <c r="V18">
-        <v>0.9994858360679988</v>
+        <v>1.036308463134867</v>
       </c>
       <c r="W18">
-        <v>1.001424077491218</v>
+        <v>1.05415990330389</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,66 +1789,350 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.9916350637481743</v>
+      </c>
+      <c r="D19">
+        <v>1.847266900457879</v>
+      </c>
+      <c r="E19">
+        <v>1.847266900457879</v>
+      </c>
+      <c r="F19">
+        <v>0.8630218182116448</v>
+      </c>
+      <c r="G19">
+        <v>0.8373210484702464</v>
+      </c>
+      <c r="H19">
+        <v>0.8373210484702464</v>
+      </c>
+      <c r="I19">
+        <v>0.8373210484702464</v>
+      </c>
+      <c r="J19">
+        <v>0.8441048082036948</v>
+      </c>
+      <c r="K19">
+        <v>0.9988278536273359</v>
+      </c>
+      <c r="L19">
+        <v>0.8441058131815613</v>
+      </c>
+      <c r="M19">
+        <v>1.351865664788166</v>
+      </c>
+      <c r="N19">
+        <v>0.8373210484702464</v>
+      </c>
+      <c r="O19">
+        <v>0.8630218182116448</v>
+      </c>
+      <c r="P19">
+        <v>1.355144359334762</v>
+      </c>
+      <c r="Q19">
+        <v>0.9309248359194904</v>
+      </c>
+      <c r="R19">
+        <v>1.18253658904659</v>
+      </c>
+      <c r="S19">
+        <v>1.23637219076562</v>
+      </c>
+      <c r="T19">
+        <v>1.18253658904659</v>
+      </c>
+      <c r="U19">
+        <v>1.136609405191777</v>
+      </c>
+      <c r="V19">
+        <v>1.076751733847471</v>
+      </c>
+      <c r="W19">
+        <v>1.072268621336088</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9994051235964369</v>
+      </c>
+      <c r="D20">
+        <v>1.001843633038901</v>
+      </c>
+      <c r="E20">
+        <v>1.001843633038901</v>
+      </c>
+      <c r="F20">
+        <v>0.9989069993924753</v>
+      </c>
+      <c r="G20">
+        <v>1.00068550134009</v>
+      </c>
+      <c r="H20">
+        <v>1.00068550134009</v>
+      </c>
+      <c r="I20">
+        <v>1.00068550134009</v>
+      </c>
+      <c r="J20">
+        <v>0.9997458437935594</v>
+      </c>
+      <c r="K20">
+        <v>0.9999584014842345</v>
+      </c>
+      <c r="L20">
+        <v>1.000383895056545</v>
+      </c>
+      <c r="M20">
+        <v>1.000232967002155</v>
+      </c>
+      <c r="N20">
+        <v>1.00068550134009</v>
+      </c>
+      <c r="O20">
+        <v>0.9989069993924753</v>
+      </c>
+      <c r="P20">
+        <v>1.000375316215688</v>
+      </c>
+      <c r="Q20">
+        <v>0.999432700438355</v>
+      </c>
+      <c r="R20">
+        <v>1.000478711257155</v>
+      </c>
+      <c r="S20">
+        <v>1.000236344638537</v>
+      </c>
+      <c r="T20">
+        <v>1.000478711257155</v>
+      </c>
+      <c r="U20">
+        <v>1.000348633813925</v>
+      </c>
+      <c r="V20">
+        <v>1.000416007319158</v>
+      </c>
+      <c r="W20">
+        <v>1.00014529558805</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.0000408271084</v>
+      </c>
+      <c r="D21">
+        <v>1.00693016190881</v>
+      </c>
+      <c r="E21">
+        <v>1.00693016190881</v>
+      </c>
+      <c r="F21">
+        <v>1.000025015734572</v>
+      </c>
+      <c r="G21">
+        <v>0.9974922504345047</v>
+      </c>
+      <c r="H21">
+        <v>0.9974922504345047</v>
+      </c>
+      <c r="I21">
+        <v>0.9974922504345047</v>
+      </c>
+      <c r="J21">
+        <v>0.9990840094100132</v>
+      </c>
+      <c r="K21">
+        <v>0.9998558204311196</v>
+      </c>
+      <c r="L21">
+        <v>0.9982650620352568</v>
+      </c>
+      <c r="M21">
+        <v>1.003126942127246</v>
+      </c>
+      <c r="N21">
+        <v>0.9974922504345047</v>
+      </c>
+      <c r="O21">
+        <v>1.000025015734572</v>
+      </c>
+      <c r="P21">
+        <v>1.003477588821691</v>
+      </c>
+      <c r="Q21">
+        <v>0.9999404180828457</v>
+      </c>
+      <c r="R21">
+        <v>1.001482476025962</v>
+      </c>
+      <c r="S21">
+        <v>1.002270332691501</v>
+      </c>
+      <c r="T21">
+        <v>1.001482476025962</v>
+      </c>
+      <c r="U21">
+        <v>1.001075812127252</v>
+      </c>
+      <c r="V21">
+        <v>1.000359099788702</v>
+      </c>
+      <c r="W21">
+        <v>1.00060251114874</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.005146319347008</v>
+      </c>
+      <c r="D22">
+        <v>1.022745681225503</v>
+      </c>
+      <c r="E22">
+        <v>1.022745681225503</v>
+      </c>
+      <c r="F22">
+        <v>0.9993626636357725</v>
+      </c>
+      <c r="G22">
+        <v>0.9879863627530868</v>
+      </c>
+      <c r="H22">
+        <v>0.9879863627530868</v>
+      </c>
+      <c r="I22">
+        <v>0.9879863627530868</v>
+      </c>
+      <c r="J22">
+        <v>0.9948639636180233</v>
+      </c>
+      <c r="K22">
+        <v>0.9993481099725463</v>
+      </c>
+      <c r="L22">
+        <v>0.9939809623491619</v>
+      </c>
+      <c r="M22">
+        <v>1.007958557028642</v>
+      </c>
+      <c r="N22">
+        <v>0.9879863627530868</v>
+      </c>
+      <c r="O22">
+        <v>0.9993626636357725</v>
+      </c>
+      <c r="P22">
+        <v>1.011054172430638</v>
+      </c>
+      <c r="Q22">
+        <v>0.9993553868041594</v>
+      </c>
+      <c r="R22">
+        <v>1.003364902538121</v>
+      </c>
+      <c r="S22">
+        <v>1.007152151611274</v>
+      </c>
+      <c r="T22">
+        <v>1.003364902538121</v>
+      </c>
+      <c r="U22">
+        <v>1.002360704396727</v>
+      </c>
+      <c r="V22">
+        <v>0.999485836067999</v>
+      </c>
+      <c r="W22">
+        <v>1.001424077491218</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.011819678338782</v>
+      </c>
+      <c r="D23">
+        <v>1.047244447809101</v>
+      </c>
+      <c r="E23">
+        <v>1.047244447809101</v>
+      </c>
+      <c r="F23">
+        <v>1.005935758950775</v>
+      </c>
+      <c r="G23">
         <v>0.9704313585075202</v>
       </c>
-      <c r="D19">
-        <v>1.047244447809101</v>
-      </c>
-      <c r="E19">
+      <c r="H23">
+        <v>0.9704313585075202</v>
+      </c>
+      <c r="I23">
+        <v>0.9704313585075202</v>
+      </c>
+      <c r="J23">
+        <v>0.9906407366798027</v>
+      </c>
+      <c r="K23">
+        <v>0.9980641635879599</v>
+      </c>
+      <c r="L23">
+        <v>0.9827101929799996</v>
+      </c>
+      <c r="M23">
+        <v>1.020276308839699</v>
+      </c>
+      <c r="N23">
+        <v>0.9704313585075202</v>
+      </c>
+      <c r="O23">
         <v>1.005935758950775</v>
       </c>
-      <c r="F19">
-        <v>0.9704313585075202</v>
-      </c>
-      <c r="G19">
-        <v>0.9980641635879599</v>
-      </c>
-      <c r="H19">
-        <v>0.9906407366798027</v>
-      </c>
-      <c r="I19">
-        <v>0.9704313585075202</v>
-      </c>
-      <c r="J19">
-        <v>1.047244447809101</v>
-      </c>
-      <c r="K19">
-        <v>1.011819678338782</v>
-      </c>
-      <c r="L19">
-        <v>0.9827101929799996</v>
-      </c>
-      <c r="M19">
-        <v>1.020276308839699</v>
-      </c>
-      <c r="N19">
-        <v>0.9704313585075202</v>
-      </c>
-      <c r="O19">
-        <v>1.005935758950775</v>
-      </c>
-      <c r="P19">
+      <c r="P23">
         <v>1.026590103379938</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.001999961269367</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>1.007870521755799</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>1.017081456782612</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.007870521755799</v>
       </c>
-      <c r="U19">
+      <c r="U23">
         <v>1.005418932213839</v>
       </c>
-      <c r="V19">
+      <c r="V23">
         <v>0.9984214174725754</v>
       </c>
-      <c r="W19">
+      <c r="W23">
         <v>1.003390330711705</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/CubeA-HW15.xlsx
+++ b/JupyterNotebooks/AvgHW/CubeA-HW15.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[4, 2, 0]</t>
@@ -500,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,67 +639,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="W2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -653,67 +710,67 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.014985683836183</v>
+        <v>1.024319525240635</v>
       </c>
       <c r="D3">
-        <v>1.065827946491762</v>
+        <v>1.829059346992501</v>
       </c>
       <c r="E3">
-        <v>1.065827946491762</v>
+        <v>1.829059346992501</v>
       </c>
       <c r="F3">
-        <v>1.009602472746511</v>
+        <v>0.8453080953919297</v>
       </c>
       <c r="G3">
-        <v>0.962117379252132</v>
+        <v>0.7607409781398464</v>
       </c>
       <c r="H3">
-        <v>0.962117379252132</v>
+        <v>0.7607409781398464</v>
       </c>
       <c r="I3">
-        <v>0.962117379252132</v>
+        <v>0.7607409781398464</v>
       </c>
       <c r="J3">
-        <v>0.987940914844226</v>
+        <v>0.8141008487665685</v>
       </c>
       <c r="K3">
-        <v>0.9967677103359613</v>
+        <v>1.037995207701722</v>
       </c>
       <c r="L3">
-        <v>0.974358009273244</v>
+        <v>0.84679336428674</v>
       </c>
       <c r="M3">
-        <v>1.029399450235128</v>
+        <v>1.377267707412106</v>
       </c>
       <c r="N3">
-        <v>0.962117379252132</v>
+        <v>0.7607409781398464</v>
       </c>
       <c r="O3">
-        <v>1.009602472746511</v>
+        <v>0.8453080953919297</v>
       </c>
       <c r="P3">
-        <v>1.037715209619137</v>
+        <v>1.337183721192216</v>
       </c>
       <c r="Q3">
-        <v>1.003185091541236</v>
+        <v>0.9416516515468258</v>
       </c>
       <c r="R3">
-        <v>1.012515932830135</v>
+        <v>1.145036140174759</v>
       </c>
       <c r="S3">
-        <v>1.024066043191411</v>
+        <v>1.237454216695384</v>
       </c>
       <c r="T3">
-        <v>1.012515932830135</v>
+        <v>1.145036140174759</v>
       </c>
       <c r="U3">
-        <v>1.008578877206592</v>
+        <v>1.1182759070565</v>
       </c>
       <c r="V3">
-        <v>0.9992865776156998</v>
+        <v>1.046768921273169</v>
       </c>
       <c r="W3">
-        <v>1.005124945876894</v>
+        <v>1.066948134241506</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -724,67 +781,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.029011019519943</v>
+        <v>1.021190579183009</v>
       </c>
       <c r="D4">
-        <v>1.124637345903445</v>
+        <v>1.743219246792827</v>
       </c>
       <c r="E4">
-        <v>1.124637345903445</v>
+        <v>1.743219246792827</v>
       </c>
       <c r="F4">
-        <v>1.016948632859245</v>
+        <v>0.8496195911278477</v>
       </c>
       <c r="G4">
-        <v>0.9255728080078336</v>
+        <v>0.7854841586599631</v>
       </c>
       <c r="H4">
-        <v>0.9255728080078336</v>
+        <v>0.7854841586599631</v>
       </c>
       <c r="I4">
-        <v>0.9255728080078336</v>
+        <v>0.7854841586599631</v>
       </c>
       <c r="J4">
-        <v>0.9761715699104521</v>
+        <v>0.827575370711143</v>
       </c>
       <c r="K4">
-        <v>0.9953828218048593</v>
+        <v>1.040810256727546</v>
       </c>
       <c r="L4">
-        <v>0.9517635429038405</v>
+        <v>0.865735030846067</v>
       </c>
       <c r="M4">
-        <v>1.056902239544269</v>
+        <v>1.344785956875131</v>
       </c>
       <c r="N4">
-        <v>0.9255728080078336</v>
+        <v>0.7854841586599631</v>
       </c>
       <c r="O4">
-        <v>1.016948632859245</v>
+        <v>0.8496195911278477</v>
       </c>
       <c r="P4">
-        <v>1.070792989381345</v>
+        <v>1.296419418960337</v>
       </c>
       <c r="Q4">
-        <v>1.006165727332052</v>
+        <v>0.9452149239276967</v>
       </c>
       <c r="R4">
-        <v>1.022386262256841</v>
+        <v>1.126107665526879</v>
       </c>
       <c r="S4">
-        <v>1.04565626685585</v>
+        <v>1.21121636488274</v>
       </c>
       <c r="T4">
-        <v>1.022386262256841</v>
+        <v>1.126107665526879</v>
       </c>
       <c r="U4">
-        <v>1.015635402143846</v>
+        <v>1.104783313327046</v>
       </c>
       <c r="V4">
-        <v>0.9976228833166434</v>
+        <v>1.040923482393629</v>
       </c>
       <c r="W4">
-        <v>1.009548747556736</v>
+        <v>1.059802523865442</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -795,67 +852,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.054590512574045</v>
+        <v>1.029468759218327</v>
       </c>
       <c r="D5">
-        <v>1.245389067378953</v>
+        <v>1.994480169601082</v>
       </c>
       <c r="E5">
-        <v>1.245389067378953</v>
+        <v>1.994480169601082</v>
       </c>
       <c r="F5">
-        <v>1.033167963627783</v>
+        <v>0.8358513796064682</v>
       </c>
       <c r="G5">
-        <v>0.8609284373792924</v>
+        <v>0.7144722616719669</v>
       </c>
       <c r="H5">
-        <v>0.8609284373792924</v>
+        <v>0.7144722616719669</v>
       </c>
       <c r="I5">
-        <v>0.8609284373792924</v>
+        <v>0.7144722616719669</v>
       </c>
       <c r="J5">
-        <v>0.9544722154065791</v>
+        <v>0.788123838754717</v>
       </c>
       <c r="K5">
-        <v>0.9884467330275332</v>
+        <v>1.03274475722372</v>
       </c>
       <c r="L5">
-        <v>0.9068365786183493</v>
+        <v>0.8111235886522907</v>
       </c>
       <c r="M5">
-        <v>1.108807445994011</v>
+        <v>1.439665594857144</v>
       </c>
       <c r="N5">
-        <v>0.8609284373792924</v>
+        <v>0.7144722616719669</v>
       </c>
       <c r="O5">
-        <v>1.033167963627783</v>
+        <v>0.8358513796064682</v>
       </c>
       <c r="P5">
-        <v>1.139278515503368</v>
+        <v>1.415165774603775</v>
       </c>
       <c r="Q5">
-        <v>1.010807348327658</v>
+        <v>0.9342980684150942</v>
       </c>
       <c r="R5">
-        <v>1.046495156128676</v>
+        <v>1.181601270293172</v>
       </c>
       <c r="S5">
-        <v>1.08900125467809</v>
+        <v>1.287692102143757</v>
       </c>
       <c r="T5">
-        <v>1.046495156128676</v>
+        <v>1.181601270293172</v>
       </c>
       <c r="U5">
-        <v>1.03198305035339</v>
+        <v>1.144387142025809</v>
       </c>
       <c r="V5">
-        <v>0.9977721277585708</v>
+        <v>1.058404165955041</v>
       </c>
       <c r="W5">
-        <v>1.019079869250818</v>
+        <v>1.080741293698215</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -866,67 +923,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.088432695533195</v>
+        <v>1.033333573465909</v>
       </c>
       <c r="D6">
-        <v>1.365607561191533</v>
+        <v>2.151788530081816</v>
       </c>
       <c r="E6">
-        <v>1.365607561191533</v>
+        <v>2.151788530081816</v>
       </c>
       <c r="F6">
-        <v>1.050228793294115</v>
+        <v>0.8255129184999994</v>
       </c>
       <c r="G6">
-        <v>0.8004175252874666</v>
+        <v>0.6721290337369311</v>
       </c>
       <c r="H6">
-        <v>0.8004175252874666</v>
+        <v>0.6721290337369311</v>
       </c>
       <c r="I6">
-        <v>0.8004175252874666</v>
+        <v>0.6721290337369311</v>
       </c>
       <c r="J6">
-        <v>0.9247520142907054</v>
+        <v>0.7634084451022743</v>
       </c>
       <c r="K6">
-        <v>0.9761152752328862</v>
+        <v>1.027956154488635</v>
       </c>
       <c r="L6">
-        <v>0.8663869953499452</v>
+        <v>0.7781785601704546</v>
       </c>
       <c r="M6">
-        <v>1.154495662256409</v>
+        <v>1.498772434454545</v>
       </c>
       <c r="N6">
-        <v>0.8004175252874666</v>
+        <v>0.6721290337369311</v>
       </c>
       <c r="O6">
-        <v>1.050228793294115</v>
+        <v>0.8255129184999994</v>
       </c>
       <c r="P6">
-        <v>1.207918177242824</v>
+        <v>1.488650724290908</v>
       </c>
       <c r="Q6">
-        <v>1.013172034263501</v>
+        <v>0.9267345364943174</v>
       </c>
       <c r="R6">
-        <v>1.072084626591038</v>
+        <v>1.216476827439582</v>
       </c>
       <c r="S6">
-        <v>1.130650543239512</v>
+        <v>1.33508586769015</v>
       </c>
       <c r="T6">
-        <v>1.072084626591038</v>
+        <v>1.216476827439582</v>
       </c>
       <c r="U6">
-        <v>1.0480922887515</v>
+        <v>1.169346659201846</v>
       </c>
       <c r="V6">
-        <v>0.9985573360586935</v>
+        <v>1.069903134108863</v>
       </c>
       <c r="W6">
-        <v>1.028304565304532</v>
+        <v>1.093884956250071</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -937,67 +994,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.999794292693851</v>
+        <v>1.390060021057579</v>
       </c>
       <c r="D7">
-        <v>1.007092976472072</v>
+        <v>2.220510809590015</v>
       </c>
       <c r="E7">
-        <v>1.007092976472072</v>
+        <v>2.220510809590015</v>
       </c>
       <c r="F7">
-        <v>0.9987476854466814</v>
+        <v>1.288071552869027</v>
       </c>
       <c r="G7">
-        <v>0.9986796097736711</v>
+        <v>0.08358233568200189</v>
       </c>
       <c r="H7">
-        <v>0.9986796097736711</v>
+        <v>0.08358233568200189</v>
       </c>
       <c r="I7">
-        <v>0.9986796097736711</v>
+        <v>0.08358233568200189</v>
       </c>
       <c r="J7">
-        <v>0.9987309918674967</v>
+        <v>0.7590701186776071</v>
       </c>
       <c r="K7">
-        <v>1.000020793187545</v>
+        <v>0.95337505189591</v>
       </c>
       <c r="L7">
-        <v>0.9989417828542226</v>
+        <v>0.4278793792810909</v>
       </c>
       <c r="M7">
-        <v>1.002753796114977</v>
+        <v>1.600687589790275</v>
       </c>
       <c r="N7">
-        <v>0.9986796097736711</v>
+        <v>0.08358233568200189</v>
       </c>
       <c r="O7">
-        <v>0.9987476854466814</v>
+        <v>1.288071552869027</v>
       </c>
       <c r="P7">
-        <v>1.002920330959377</v>
+        <v>1.754291181229521</v>
       </c>
       <c r="Q7">
-        <v>0.9993842393171131</v>
+        <v>1.120723302382469</v>
       </c>
       <c r="R7">
-        <v>1.001506757230808</v>
+        <v>1.197388232713681</v>
       </c>
       <c r="S7">
-        <v>1.001953818368766</v>
+        <v>1.487319138118317</v>
       </c>
       <c r="T7">
-        <v>1.001506757230808</v>
+        <v>1.197388232713681</v>
       </c>
       <c r="U7">
-        <v>1.001135266219992</v>
+        <v>1.136384937509239</v>
       </c>
       <c r="V7">
-        <v>1.000644134930728</v>
+        <v>0.9258244171437913</v>
       </c>
       <c r="W7">
-        <v>1.000595241051315</v>
+        <v>1.090404607355438</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1008,67 +1065,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9996334939944445</v>
+        <v>1.386553364468734</v>
       </c>
       <c r="D8">
-        <v>1.018815606590322</v>
+        <v>2.246665001627707</v>
       </c>
       <c r="E8">
-        <v>1.018815606590322</v>
+        <v>2.246665001627707</v>
       </c>
       <c r="F8">
-        <v>0.9965898927611873</v>
+        <v>1.28104756183628</v>
       </c>
       <c r="G8">
-        <v>0.996469395012674</v>
+        <v>0.08312718855682144</v>
       </c>
       <c r="H8">
-        <v>0.996469395012674</v>
+        <v>0.08312718855682144</v>
       </c>
       <c r="I8">
-        <v>0.996469395012674</v>
+        <v>0.08312718855682144</v>
       </c>
       <c r="J8">
-        <v>0.9964616683011934</v>
+        <v>0.7549358053961759</v>
       </c>
       <c r="K8">
-        <v>1.000195309570444</v>
+        <v>0.9533909193456067</v>
       </c>
       <c r="L8">
-        <v>0.9969778511557071</v>
+        <v>0.426263912799465</v>
       </c>
       <c r="M8">
-        <v>1.007579903983893</v>
+        <v>1.609639936133455</v>
       </c>
       <c r="N8">
-        <v>0.996469395012674</v>
+        <v>0.08312718855682144</v>
       </c>
       <c r="O8">
-        <v>0.9965898927611873</v>
+        <v>1.28104756183628</v>
       </c>
       <c r="P8">
-        <v>1.007702749675754</v>
+        <v>1.763856281731993</v>
       </c>
       <c r="Q8">
-        <v>0.9983926011658155</v>
+        <v>1.117219240590943</v>
       </c>
       <c r="R8">
-        <v>1.003958298121394</v>
+        <v>1.203613250673603</v>
       </c>
       <c r="S8">
-        <v>1.005200269640651</v>
+        <v>1.493701160936531</v>
       </c>
       <c r="T8">
-        <v>1.003958298121394</v>
+        <v>1.203613250673603</v>
       </c>
       <c r="U8">
-        <v>1.003017550983657</v>
+        <v>1.141057667841604</v>
       </c>
       <c r="V8">
-        <v>1.00170791978946</v>
+        <v>0.9294715719846472</v>
       </c>
       <c r="W8">
-        <v>1.001590390171233</v>
+        <v>1.092702961270531</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1079,67 +1136,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9994368632669997</v>
+        <v>1.383723493019114</v>
       </c>
       <c r="D9">
-        <v>1.026981319336468</v>
+        <v>2.267044608672192</v>
       </c>
       <c r="E9">
-        <v>1.026981319336468</v>
+        <v>2.267044608672192</v>
       </c>
       <c r="F9">
-        <v>0.9948601068553018</v>
+        <v>1.27613723258396</v>
       </c>
       <c r="G9">
-        <v>0.994415129260653</v>
+        <v>0.08280666428764559</v>
       </c>
       <c r="H9">
-        <v>0.994415129260653</v>
+        <v>0.08280666428764559</v>
       </c>
       <c r="I9">
-        <v>0.994415129260653</v>
+        <v>0.08280666428764559</v>
       </c>
       <c r="J9">
-        <v>0.994863397236607</v>
+        <v>0.7520394833708099</v>
       </c>
       <c r="K9">
-        <v>1.000465815342123</v>
+        <v>0.9531234644139992</v>
       </c>
       <c r="L9">
-        <v>0.9958852422927293</v>
+        <v>0.4249761717593504</v>
       </c>
       <c r="M9">
-        <v>1.010982951119363</v>
+        <v>1.616224382703128</v>
       </c>
       <c r="N9">
-        <v>0.994415129260653</v>
+        <v>0.08280666428764559</v>
       </c>
       <c r="O9">
-        <v>0.9948601068553018</v>
+        <v>1.27613723258396</v>
       </c>
       <c r="P9">
-        <v>1.010920713095885</v>
+        <v>1.771590920628076</v>
       </c>
       <c r="Q9">
-        <v>0.9976629610987126</v>
+        <v>1.114630348498979</v>
       </c>
       <c r="R9">
-        <v>1.005418851817474</v>
+        <v>1.208662835181266</v>
       </c>
       <c r="S9">
-        <v>1.007435747177964</v>
+        <v>1.498768435223384</v>
       </c>
       <c r="T9">
-        <v>1.005418851817474</v>
+        <v>1.208662835181266</v>
       </c>
       <c r="U9">
-        <v>1.004180592698636</v>
+        <v>1.144777992489449</v>
       </c>
       <c r="V9">
-        <v>1.00222750001104</v>
+        <v>0.9323837268490884</v>
       </c>
       <c r="W9">
-        <v>1.002236353088781</v>
+        <v>1.094509437601275</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1150,67 +1207,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9986367491608099</v>
+        <v>1.373424927224468</v>
       </c>
       <c r="D10">
-        <v>1.057822891664266</v>
+        <v>2.342161879338624</v>
       </c>
       <c r="E10">
-        <v>1.057822891664266</v>
+        <v>2.342161879338624</v>
       </c>
       <c r="F10">
-        <v>0.9894240272956221</v>
+        <v>1.257689475945139</v>
       </c>
       <c r="G10">
-        <v>0.9878605610049934</v>
+        <v>0.08160537529201123</v>
       </c>
       <c r="H10">
-        <v>0.9878605610049934</v>
+        <v>0.08160537529201123</v>
       </c>
       <c r="I10">
-        <v>0.9878605610049934</v>
+        <v>0.08160537529201123</v>
       </c>
       <c r="J10">
-        <v>0.9891991331731479</v>
+        <v>0.741163450793292</v>
       </c>
       <c r="K10">
-        <v>1.000952087079897</v>
+        <v>0.9522731462174637</v>
       </c>
       <c r="L10">
-        <v>0.9913360892679089</v>
+        <v>0.4202696310737644</v>
       </c>
       <c r="M10">
-        <v>1.023221529685866</v>
+        <v>1.640608539655585</v>
       </c>
       <c r="N10">
-        <v>0.9878605610049934</v>
+        <v>0.08160537529201123</v>
       </c>
       <c r="O10">
-        <v>0.9894240272956221</v>
+        <v>1.257689475945139</v>
       </c>
       <c r="P10">
-        <v>1.023623459479944</v>
+        <v>1.799925677641882</v>
       </c>
       <c r="Q10">
-        <v>0.9951880571877594</v>
+        <v>1.104981311081302</v>
       </c>
       <c r="R10">
-        <v>1.011702493321627</v>
+        <v>1.227152243525258</v>
       </c>
       <c r="S10">
-        <v>1.016066335346595</v>
+        <v>1.517374833833742</v>
       </c>
       <c r="T10">
-        <v>1.011702493321627</v>
+        <v>1.227152243525258</v>
       </c>
       <c r="U10">
-        <v>1.009014891761195</v>
+        <v>1.15843246919831</v>
       </c>
       <c r="V10">
-        <v>1.004784025609955</v>
+        <v>0.94306705041705</v>
       </c>
       <c r="W10">
-        <v>1.004806633541564</v>
+        <v>1.101149553192544</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1221,67 +1278,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9976619660461805</v>
+        <v>1.017402286266812</v>
       </c>
       <c r="D11">
-        <v>1.098598688978082</v>
+        <v>1.070508679304044</v>
       </c>
       <c r="E11">
-        <v>1.098598688978082</v>
+        <v>1.070508679304044</v>
       </c>
       <c r="F11">
-        <v>0.9817906618365262</v>
+        <v>1.007928892386847</v>
       </c>
       <c r="G11">
-        <v>0.9805415391893013</v>
+        <v>0.9556411688672538</v>
       </c>
       <c r="H11">
-        <v>0.9805415391893013</v>
+        <v>0.9556411688672538</v>
       </c>
       <c r="I11">
-        <v>0.9805415391893013</v>
+        <v>0.9556411688672538</v>
       </c>
       <c r="J11">
-        <v>0.9814391852101618</v>
+        <v>0.9851139714954595</v>
       </c>
       <c r="K11">
-        <v>1.001439193333725</v>
+        <v>0.9991874972447402</v>
       </c>
       <c r="L11">
-        <v>0.9848699475337077</v>
+        <v>0.9721052784245563</v>
       </c>
       <c r="M11">
-        <v>1.039844402862302</v>
+        <v>1.034649911139624</v>
       </c>
       <c r="N11">
-        <v>0.9805415391893013</v>
+        <v>0.9556411688672538</v>
       </c>
       <c r="O11">
-        <v>0.9817906618365262</v>
+        <v>1.007928892386847</v>
       </c>
       <c r="P11">
-        <v>1.040194675407304</v>
+        <v>1.039218785845445</v>
       </c>
       <c r="Q11">
-        <v>0.9916149275851255</v>
+        <v>1.003558194815793</v>
       </c>
       <c r="R11">
-        <v>1.02031029666797</v>
+        <v>1.011359580186048</v>
       </c>
       <c r="S11">
-        <v>1.027276181382778</v>
+        <v>1.025875022978543</v>
       </c>
       <c r="T11">
-        <v>1.02031029666797</v>
+        <v>1.011359580186048</v>
       </c>
       <c r="U11">
-        <v>1.015592520834409</v>
+        <v>1.008316559450721</v>
       </c>
       <c r="V11">
-        <v>1.008582324505387</v>
+        <v>0.9977814813340276</v>
       </c>
       <c r="W11">
-        <v>1.008273198123748</v>
+        <v>1.005317210641167</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1292,67 +1349,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.7906552528753793</v>
+        <v>1.009095052319208</v>
       </c>
       <c r="D12">
-        <v>0.3813712719179747</v>
+        <v>1.039125185646794</v>
       </c>
       <c r="E12">
-        <v>0.3813712719179747</v>
+        <v>1.039125185646794</v>
       </c>
       <c r="F12">
-        <v>0.7520861600358772</v>
+        <v>1.006173631052975</v>
       </c>
       <c r="G12">
-        <v>1.604221700991157</v>
+        <v>0.9758739849929097</v>
       </c>
       <c r="H12">
-        <v>1.604221700991157</v>
+        <v>0.9758739849929097</v>
       </c>
       <c r="I12">
-        <v>1.604221700991157</v>
+        <v>0.9758739849929097</v>
       </c>
       <c r="J12">
-        <v>1.086157487724175</v>
+        <v>0.9928764238408064</v>
       </c>
       <c r="K12">
-        <v>1.022823215719612</v>
+        <v>0.9985338008610002</v>
       </c>
       <c r="L12">
-        <v>1.320078409666073</v>
+        <v>0.9845356969037212</v>
       </c>
       <c r="M12">
-        <v>0.6874346321174459</v>
+        <v>1.017923567093058</v>
       </c>
       <c r="N12">
-        <v>1.604221700991157</v>
+        <v>0.9758739849929097</v>
       </c>
       <c r="O12">
-        <v>0.7520861600358772</v>
+        <v>1.006173631052975</v>
       </c>
       <c r="P12">
-        <v>0.566728715976926</v>
+        <v>1.022649408349884</v>
       </c>
       <c r="Q12">
-        <v>0.8874546878777445</v>
+        <v>1.002353715956987</v>
       </c>
       <c r="R12">
-        <v>0.9125597109816695</v>
+        <v>1.007057600564226</v>
       </c>
       <c r="S12">
-        <v>0.7187602158911547</v>
+        <v>1.014610872520257</v>
       </c>
       <c r="T12">
-        <v>0.9125597109816695</v>
+        <v>1.007057600564226</v>
       </c>
       <c r="U12">
-        <v>0.9401255871661551</v>
+        <v>1.00492665063842</v>
       </c>
       <c r="V12">
-        <v>1.072944809931155</v>
+        <v>0.9991161175093175</v>
       </c>
       <c r="W12">
-        <v>0.9556035163809617</v>
+        <v>1.003017167838809</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1363,67 +1420,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.014759350725453</v>
+        <v>1.03165783452611</v>
       </c>
       <c r="D13">
-        <v>0.9779470090928971</v>
+        <v>1.137023603583516</v>
       </c>
       <c r="E13">
-        <v>0.9779470090928971</v>
+        <v>1.137023603583516</v>
       </c>
       <c r="F13">
-        <v>1.299517487579263</v>
+        <v>1.021765764110599</v>
       </c>
       <c r="G13">
-        <v>1.131824778943258</v>
+        <v>0.9170300667811373</v>
       </c>
       <c r="H13">
-        <v>1.131824778943258</v>
+        <v>0.9170300667811373</v>
       </c>
       <c r="I13">
-        <v>1.131824778943258</v>
+        <v>0.9170300667811373</v>
       </c>
       <c r="J13">
-        <v>1.146265573757279</v>
+        <v>0.9752307068372852</v>
       </c>
       <c r="K13">
-        <v>0.787095813356969</v>
+        <v>0.9943256508610061</v>
       </c>
       <c r="L13">
-        <v>0.868430043618947</v>
+        <v>0.9452717673992086</v>
       </c>
       <c r="M13">
-        <v>0.8676690751601859</v>
+        <v>1.063101279508401</v>
       </c>
       <c r="N13">
-        <v>1.131824778943258</v>
+        <v>0.9170300667811373</v>
       </c>
       <c r="O13">
-        <v>1.299517487579263</v>
+        <v>1.021765764110599</v>
       </c>
       <c r="P13">
-        <v>1.13873224833608</v>
+        <v>1.079394683847057</v>
       </c>
       <c r="Q13">
-        <v>1.043306650468116</v>
+        <v>1.008045707485802</v>
       </c>
       <c r="R13">
-        <v>1.136429758538473</v>
+        <v>1.025273144825084</v>
       </c>
       <c r="S13">
-        <v>1.021520103343043</v>
+        <v>1.051038339518373</v>
       </c>
       <c r="T13">
-        <v>1.136429758538473</v>
+        <v>1.025273144825084</v>
       </c>
       <c r="U13">
-        <v>1.049096272243097</v>
+        <v>1.017536271334064</v>
       </c>
       <c r="V13">
-        <v>1.065641973583129</v>
+        <v>0.9974350304234789</v>
       </c>
       <c r="W13">
-        <v>1.011688641529282</v>
+        <v>1.010675834200908</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1434,67 +1491,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.236674189962504</v>
+        <v>1.040234274903144</v>
       </c>
       <c r="D14">
-        <v>0.3862134170529797</v>
+        <v>1.18297115867126</v>
       </c>
       <c r="E14">
-        <v>0.3862134170529797</v>
+        <v>1.18297115867126</v>
       </c>
       <c r="F14">
-        <v>1.823256695440803</v>
+        <v>1.024597631700803</v>
       </c>
       <c r="G14">
-        <v>0.4366272723675221</v>
+        <v>0.8932231816216863</v>
       </c>
       <c r="H14">
-        <v>0.4366272723675221</v>
+        <v>0.8932231816216863</v>
       </c>
       <c r="I14">
-        <v>0.4366272723675221</v>
+        <v>0.8932231816216863</v>
       </c>
       <c r="J14">
-        <v>1.355492994251532</v>
+        <v>0.9661902847040222</v>
       </c>
       <c r="K14">
-        <v>0.8267191513022921</v>
+        <v>0.9930563372259423</v>
       </c>
       <c r="L14">
-        <v>0.7841456189156453</v>
+        <v>0.9301729633274429</v>
       </c>
       <c r="M14">
-        <v>0.6567729082941093</v>
+        <v>1.082969858403692</v>
       </c>
       <c r="N14">
-        <v>0.4366272723675221</v>
+        <v>0.8932231816216863</v>
       </c>
       <c r="O14">
-        <v>1.823256695440803</v>
+        <v>1.024597631700803</v>
       </c>
       <c r="P14">
-        <v>1.104735056246891</v>
+        <v>1.103784395186031</v>
       </c>
       <c r="Q14">
-        <v>1.324987923371548</v>
+        <v>1.008826984463372</v>
       </c>
       <c r="R14">
-        <v>0.8820324616204349</v>
+        <v>1.033597323997916</v>
       </c>
       <c r="S14">
-        <v>1.012063087932025</v>
+        <v>1.066875042532668</v>
       </c>
       <c r="T14">
-        <v>0.8820324616204349</v>
+        <v>1.033597323997916</v>
       </c>
       <c r="U14">
-        <v>0.8682041340408992</v>
+        <v>1.023462077304923</v>
       </c>
       <c r="V14">
-        <v>0.7818887617062238</v>
+        <v>0.9974142981682755</v>
       </c>
       <c r="W14">
-        <v>0.9382377809484235</v>
+        <v>1.014176961319749</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1505,67 +1562,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.8541392098058019</v>
+        <v>1.014985683836183</v>
       </c>
       <c r="D15">
-        <v>1.039018288742479</v>
+        <v>1.065827946491762</v>
       </c>
       <c r="E15">
-        <v>1.039018288742479</v>
+        <v>1.065827946491762</v>
       </c>
       <c r="F15">
-        <v>0.6535133014708883</v>
+        <v>1.009602472746511</v>
       </c>
       <c r="G15">
-        <v>1.283617992978144</v>
+        <v>0.962117379252132</v>
       </c>
       <c r="H15">
-        <v>1.283617992978144</v>
+        <v>0.962117379252132</v>
       </c>
       <c r="I15">
-        <v>1.283617992978144</v>
+        <v>0.962117379252132</v>
       </c>
       <c r="J15">
-        <v>0.9027953238081448</v>
+        <v>0.987940914844226</v>
       </c>
       <c r="K15">
-        <v>1.090925169322804</v>
+        <v>0.9967677103359613</v>
       </c>
       <c r="L15">
-        <v>1.186105343260666</v>
+        <v>0.974358009273244</v>
       </c>
       <c r="M15">
-        <v>1.034777544995982</v>
+        <v>1.029399450235128</v>
       </c>
       <c r="N15">
-        <v>1.283617992978144</v>
+        <v>0.962117379252132</v>
       </c>
       <c r="O15">
-        <v>0.6535133014708883</v>
+        <v>1.009602472746511</v>
       </c>
       <c r="P15">
-        <v>0.8462657951066834</v>
+        <v>1.037715209619137</v>
       </c>
       <c r="Q15">
-        <v>0.872219235396846</v>
+        <v>1.003185091541236</v>
       </c>
       <c r="R15">
-        <v>0.9920498610638372</v>
+        <v>1.012515932830135</v>
       </c>
       <c r="S15">
-        <v>0.9278189198453902</v>
+        <v>1.024066043191411</v>
       </c>
       <c r="T15">
-        <v>0.9920498610638372</v>
+        <v>1.012515932830135</v>
       </c>
       <c r="U15">
-        <v>1.016768688128579</v>
+        <v>1.008578877206592</v>
       </c>
       <c r="V15">
-        <v>1.070138549098492</v>
+        <v>0.9992865776156998</v>
       </c>
       <c r="W15">
-        <v>1.005611521798114</v>
+        <v>1.005124945876894</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1576,67 +1633,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.275560895687968</v>
+        <v>1.029011019519943</v>
       </c>
       <c r="D16">
-        <v>2.247130201602894</v>
+        <v>1.124637345903445</v>
       </c>
       <c r="E16">
-        <v>2.247130201602894</v>
+        <v>1.124637345903445</v>
       </c>
       <c r="F16">
-        <v>1.132043861678155</v>
+        <v>1.016948632859245</v>
       </c>
       <c r="G16">
-        <v>0.2613963701400528</v>
+        <v>0.9255728080078336</v>
       </c>
       <c r="H16">
-        <v>0.2613963701400528</v>
+        <v>0.9255728080078336</v>
       </c>
       <c r="I16">
-        <v>0.2613963701400528</v>
+        <v>0.9255728080078336</v>
       </c>
       <c r="J16">
-        <v>0.7512952108371878</v>
+        <v>0.9761715699104521</v>
       </c>
       <c r="K16">
-        <v>0.9775451169882042</v>
+        <v>0.9953828218048593</v>
       </c>
       <c r="L16">
-        <v>0.5314451960225255</v>
+        <v>0.9517635429038405</v>
       </c>
       <c r="M16">
-        <v>1.588287099511691</v>
+        <v>1.056902239544269</v>
       </c>
       <c r="N16">
-        <v>0.2613963701400528</v>
+        <v>0.9255728080078336</v>
       </c>
       <c r="O16">
-        <v>1.132043861678155</v>
+        <v>1.016948632859245</v>
       </c>
       <c r="P16">
-        <v>1.689587031640524</v>
+        <v>1.070792989381345</v>
       </c>
       <c r="Q16">
-        <v>1.05479448933318</v>
+        <v>1.006165727332052</v>
       </c>
       <c r="R16">
-        <v>1.213523477807034</v>
+        <v>1.022386262256841</v>
       </c>
       <c r="S16">
-        <v>1.452239726756418</v>
+        <v>1.04565626685585</v>
       </c>
       <c r="T16">
-        <v>1.213523477807034</v>
+        <v>1.022386262256841</v>
       </c>
       <c r="U16">
-        <v>1.154528887602327</v>
+        <v>1.015635402143846</v>
       </c>
       <c r="V16">
-        <v>0.9759023841098717</v>
+        <v>0.9976228833166434</v>
       </c>
       <c r="W16">
-        <v>1.095587994058585</v>
+        <v>1.009548747556736</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1647,67 +1704,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.1896869703795</v>
+        <v>1.054590512574045</v>
       </c>
       <c r="D17">
-        <v>2.057457339578579</v>
+        <v>1.245389067378953</v>
       </c>
       <c r="E17">
-        <v>2.057457339578579</v>
+        <v>1.245389067378953</v>
       </c>
       <c r="F17">
-        <v>1.03861369021612</v>
+        <v>1.033167963627783</v>
       </c>
       <c r="G17">
-        <v>0.4428164079253079</v>
+        <v>0.8609284373792924</v>
       </c>
       <c r="H17">
-        <v>0.4428164079253079</v>
+        <v>0.8609284373792924</v>
       </c>
       <c r="I17">
-        <v>0.4428164079253079</v>
+        <v>0.8609284373792924</v>
       </c>
       <c r="J17">
-        <v>0.7801267160167044</v>
+        <v>0.9544722154065791</v>
       </c>
       <c r="K17">
-        <v>0.9994022947548873</v>
+        <v>0.9884467330275332</v>
       </c>
       <c r="L17">
-        <v>0.6479406660938121</v>
+        <v>0.9068365786183493</v>
       </c>
       <c r="M17">
-        <v>1.498840236322301</v>
+        <v>1.108807445994011</v>
       </c>
       <c r="N17">
-        <v>0.4428164079253079</v>
+        <v>0.8609284373792924</v>
       </c>
       <c r="O17">
-        <v>1.03861369021612</v>
+        <v>1.033167963627783</v>
       </c>
       <c r="P17">
-        <v>1.548035514897349</v>
+        <v>1.139278515503368</v>
       </c>
       <c r="Q17">
-        <v>1.019007992485504</v>
+        <v>1.010807348327658</v>
       </c>
       <c r="R17">
-        <v>1.179629145906669</v>
+        <v>1.046495156128676</v>
       </c>
       <c r="S17">
-        <v>1.365157774849862</v>
+        <v>1.08900125467809</v>
       </c>
       <c r="T17">
-        <v>1.179629145906669</v>
+        <v>1.046495156128676</v>
       </c>
       <c r="U17">
-        <v>1.134572433118723</v>
+        <v>1.03198305035339</v>
       </c>
       <c r="V17">
-        <v>0.9962212280800404</v>
+        <v>0.9977721277585708</v>
       </c>
       <c r="W17">
-        <v>1.081860540160901</v>
+        <v>1.019079869250818</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1718,67 +1775,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.018716128815935</v>
+        <v>1.088432695533195</v>
       </c>
       <c r="D18">
-        <v>1.675430343191748</v>
+        <v>1.365607561191533</v>
       </c>
       <c r="E18">
-        <v>1.675430343191748</v>
+        <v>1.365607561191533</v>
       </c>
       <c r="F18">
-        <v>0.8530473042415694</v>
+        <v>1.050228793294115</v>
       </c>
       <c r="G18">
-        <v>0.8050212397869266</v>
+        <v>0.8004175252874666</v>
       </c>
       <c r="H18">
-        <v>0.8050212397869266</v>
+        <v>0.8004175252874666</v>
       </c>
       <c r="I18">
-        <v>0.8050212397869266</v>
+        <v>0.8004175252874666</v>
       </c>
       <c r="J18">
-        <v>0.8382305860433433</v>
+        <v>0.9247520142907054</v>
       </c>
       <c r="K18">
-        <v>1.043022188667164</v>
+        <v>0.9761152752328862</v>
       </c>
       <c r="L18">
-        <v>0.8806907757910857</v>
+        <v>0.8663869953499452</v>
       </c>
       <c r="M18">
-        <v>1.319120659893348</v>
+        <v>1.154495662256409</v>
       </c>
       <c r="N18">
-        <v>0.8050212397869266</v>
+        <v>0.8004175252874666</v>
       </c>
       <c r="O18">
-        <v>0.8530473042415694</v>
+        <v>1.050228793294115</v>
       </c>
       <c r="P18">
-        <v>1.264238823716659</v>
+        <v>1.207918177242824</v>
       </c>
       <c r="Q18">
-        <v>0.9480347464543666</v>
+        <v>1.013172034263501</v>
       </c>
       <c r="R18">
-        <v>1.111166295740081</v>
+        <v>1.072084626591038</v>
       </c>
       <c r="S18">
-        <v>1.190499945366827</v>
+        <v>1.130650543239512</v>
       </c>
       <c r="T18">
-        <v>1.111166295740081</v>
+        <v>1.072084626591038</v>
       </c>
       <c r="U18">
-        <v>1.094130268971852</v>
+        <v>1.0480922887515</v>
       </c>
       <c r="V18">
-        <v>1.036308463134867</v>
+        <v>0.9985573360586935</v>
       </c>
       <c r="W18">
-        <v>1.05415990330389</v>
+        <v>1.028304565304532</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1789,67 +1846,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9916350637481743</v>
+        <v>0.999794292693851</v>
       </c>
       <c r="D19">
-        <v>1.847266900457879</v>
+        <v>1.007092976472072</v>
       </c>
       <c r="E19">
-        <v>1.847266900457879</v>
+        <v>1.007092976472072</v>
       </c>
       <c r="F19">
-        <v>0.8630218182116448</v>
+        <v>0.9987476854466814</v>
       </c>
       <c r="G19">
-        <v>0.8373210484702464</v>
+        <v>0.9986796097736711</v>
       </c>
       <c r="H19">
-        <v>0.8373210484702464</v>
+        <v>0.9986796097736711</v>
       </c>
       <c r="I19">
-        <v>0.8373210484702464</v>
+        <v>0.9986796097736711</v>
       </c>
       <c r="J19">
-        <v>0.8441048082036948</v>
+        <v>0.9987309918674967</v>
       </c>
       <c r="K19">
-        <v>0.9988278536273359</v>
+        <v>1.000020793187545</v>
       </c>
       <c r="L19">
-        <v>0.8441058131815613</v>
+        <v>0.9989417828542226</v>
       </c>
       <c r="M19">
-        <v>1.351865664788166</v>
+        <v>1.002753796114977</v>
       </c>
       <c r="N19">
-        <v>0.8373210484702464</v>
+        <v>0.9986796097736711</v>
       </c>
       <c r="O19">
-        <v>0.8630218182116448</v>
+        <v>0.9987476854466814</v>
       </c>
       <c r="P19">
-        <v>1.355144359334762</v>
+        <v>1.002920330959377</v>
       </c>
       <c r="Q19">
-        <v>0.9309248359194904</v>
+        <v>0.9993842393171131</v>
       </c>
       <c r="R19">
-        <v>1.18253658904659</v>
+        <v>1.001506757230808</v>
       </c>
       <c r="S19">
-        <v>1.23637219076562</v>
+        <v>1.001953818368766</v>
       </c>
       <c r="T19">
-        <v>1.18253658904659</v>
+        <v>1.001506757230808</v>
       </c>
       <c r="U19">
-        <v>1.136609405191777</v>
+        <v>1.001135266219992</v>
       </c>
       <c r="V19">
-        <v>1.076751733847471</v>
+        <v>1.000644134930728</v>
       </c>
       <c r="W19">
-        <v>1.072268621336088</v>
+        <v>1.000595241051315</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1860,67 +1917,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9994051235964369</v>
+        <v>0.9996334939944445</v>
       </c>
       <c r="D20">
-        <v>1.001843633038901</v>
+        <v>1.018815606590322</v>
       </c>
       <c r="E20">
-        <v>1.001843633038901</v>
+        <v>1.018815606590322</v>
       </c>
       <c r="F20">
-        <v>0.9989069993924753</v>
+        <v>0.9965898927611873</v>
       </c>
       <c r="G20">
-        <v>1.00068550134009</v>
+        <v>0.996469395012674</v>
       </c>
       <c r="H20">
-        <v>1.00068550134009</v>
+        <v>0.996469395012674</v>
       </c>
       <c r="I20">
-        <v>1.00068550134009</v>
+        <v>0.996469395012674</v>
       </c>
       <c r="J20">
-        <v>0.9997458437935594</v>
+        <v>0.9964616683011934</v>
       </c>
       <c r="K20">
-        <v>0.9999584014842345</v>
+        <v>1.000195309570444</v>
       </c>
       <c r="L20">
-        <v>1.000383895056545</v>
+        <v>0.9969778511557071</v>
       </c>
       <c r="M20">
-        <v>1.000232967002155</v>
+        <v>1.007579903983893</v>
       </c>
       <c r="N20">
-        <v>1.00068550134009</v>
+        <v>0.996469395012674</v>
       </c>
       <c r="O20">
-        <v>0.9989069993924753</v>
+        <v>0.9965898927611873</v>
       </c>
       <c r="P20">
-        <v>1.000375316215688</v>
+        <v>1.007702749675754</v>
       </c>
       <c r="Q20">
-        <v>0.999432700438355</v>
+        <v>0.9983926011658155</v>
       </c>
       <c r="R20">
-        <v>1.000478711257155</v>
+        <v>1.003958298121394</v>
       </c>
       <c r="S20">
-        <v>1.000236344638537</v>
+        <v>1.005200269640651</v>
       </c>
       <c r="T20">
-        <v>1.000478711257155</v>
+        <v>1.003958298121394</v>
       </c>
       <c r="U20">
-        <v>1.000348633813925</v>
+        <v>1.003017550983657</v>
       </c>
       <c r="V20">
-        <v>1.000416007319158</v>
+        <v>1.00170791978946</v>
       </c>
       <c r="W20">
-        <v>1.00014529558805</v>
+        <v>1.001590390171233</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1931,67 +1988,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.0000408271084</v>
+        <v>0.9994368632669997</v>
       </c>
       <c r="D21">
-        <v>1.00693016190881</v>
+        <v>1.026981319336468</v>
       </c>
       <c r="E21">
-        <v>1.00693016190881</v>
+        <v>1.026981319336468</v>
       </c>
       <c r="F21">
-        <v>1.000025015734572</v>
+        <v>0.9948601068553018</v>
       </c>
       <c r="G21">
-        <v>0.9974922504345047</v>
+        <v>0.994415129260653</v>
       </c>
       <c r="H21">
-        <v>0.9974922504345047</v>
+        <v>0.994415129260653</v>
       </c>
       <c r="I21">
-        <v>0.9974922504345047</v>
+        <v>0.994415129260653</v>
       </c>
       <c r="J21">
-        <v>0.9990840094100132</v>
+        <v>0.994863397236607</v>
       </c>
       <c r="K21">
-        <v>0.9998558204311196</v>
+        <v>1.000465815342123</v>
       </c>
       <c r="L21">
-        <v>0.9982650620352568</v>
+        <v>0.9958852422927293</v>
       </c>
       <c r="M21">
-        <v>1.003126942127246</v>
+        <v>1.010982951119363</v>
       </c>
       <c r="N21">
-        <v>0.9974922504345047</v>
+        <v>0.994415129260653</v>
       </c>
       <c r="O21">
-        <v>1.000025015734572</v>
+        <v>0.9948601068553018</v>
       </c>
       <c r="P21">
-        <v>1.003477588821691</v>
+        <v>1.010920713095885</v>
       </c>
       <c r="Q21">
-        <v>0.9999404180828457</v>
+        <v>0.9976629610987126</v>
       </c>
       <c r="R21">
-        <v>1.001482476025962</v>
+        <v>1.005418851817474</v>
       </c>
       <c r="S21">
-        <v>1.002270332691501</v>
+        <v>1.007435747177964</v>
       </c>
       <c r="T21">
-        <v>1.001482476025962</v>
+        <v>1.005418851817474</v>
       </c>
       <c r="U21">
-        <v>1.001075812127252</v>
+        <v>1.004180592698636</v>
       </c>
       <c r="V21">
-        <v>1.000359099788702</v>
+        <v>1.00222750001104</v>
       </c>
       <c r="W21">
-        <v>1.00060251114874</v>
+        <v>1.002236353088781</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2002,67 +2059,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.005146319347008</v>
+        <v>0.9986367491608099</v>
       </c>
       <c r="D22">
-        <v>1.022745681225503</v>
+        <v>1.057822891664266</v>
       </c>
       <c r="E22">
-        <v>1.022745681225503</v>
+        <v>1.057822891664266</v>
       </c>
       <c r="F22">
-        <v>0.9993626636357725</v>
+        <v>0.9894240272956221</v>
       </c>
       <c r="G22">
-        <v>0.9879863627530868</v>
+        <v>0.9878605610049934</v>
       </c>
       <c r="H22">
-        <v>0.9879863627530868</v>
+        <v>0.9878605610049934</v>
       </c>
       <c r="I22">
-        <v>0.9879863627530868</v>
+        <v>0.9878605610049934</v>
       </c>
       <c r="J22">
-        <v>0.9948639636180233</v>
+        <v>0.9891991331731479</v>
       </c>
       <c r="K22">
-        <v>0.9993481099725463</v>
+        <v>1.000952087079897</v>
       </c>
       <c r="L22">
-        <v>0.9939809623491619</v>
+        <v>0.9913360892679089</v>
       </c>
       <c r="M22">
-        <v>1.007958557028642</v>
+        <v>1.023221529685866</v>
       </c>
       <c r="N22">
-        <v>0.9879863627530868</v>
+        <v>0.9878605610049934</v>
       </c>
       <c r="O22">
-        <v>0.9993626636357725</v>
+        <v>0.9894240272956221</v>
       </c>
       <c r="P22">
-        <v>1.011054172430638</v>
+        <v>1.023623459479944</v>
       </c>
       <c r="Q22">
-        <v>0.9993553868041594</v>
+        <v>0.9951880571877594</v>
       </c>
       <c r="R22">
-        <v>1.003364902538121</v>
+        <v>1.011702493321627</v>
       </c>
       <c r="S22">
-        <v>1.007152151611274</v>
+        <v>1.016066335346595</v>
       </c>
       <c r="T22">
-        <v>1.003364902538121</v>
+        <v>1.011702493321627</v>
       </c>
       <c r="U22">
-        <v>1.002360704396727</v>
+        <v>1.009014891761195</v>
       </c>
       <c r="V22">
-        <v>0.999485836067999</v>
+        <v>1.004784025609955</v>
       </c>
       <c r="W22">
-        <v>1.001424077491218</v>
+        <v>1.004806633541564</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2073,67 +2130,1416 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.9976619660461805</v>
+      </c>
+      <c r="D23">
+        <v>1.098598688978082</v>
+      </c>
+      <c r="E23">
+        <v>1.098598688978082</v>
+      </c>
+      <c r="F23">
+        <v>0.9817906618365262</v>
+      </c>
+      <c r="G23">
+        <v>0.9805415391893013</v>
+      </c>
+      <c r="H23">
+        <v>0.9805415391893013</v>
+      </c>
+      <c r="I23">
+        <v>0.9805415391893013</v>
+      </c>
+      <c r="J23">
+        <v>0.9814391852101618</v>
+      </c>
+      <c r="K23">
+        <v>1.001439193333725</v>
+      </c>
+      <c r="L23">
+        <v>0.9848699475337077</v>
+      </c>
+      <c r="M23">
+        <v>1.039844402862302</v>
+      </c>
+      <c r="N23">
+        <v>0.9805415391893013</v>
+      </c>
+      <c r="O23">
+        <v>0.9817906618365262</v>
+      </c>
+      <c r="P23">
+        <v>1.040194675407304</v>
+      </c>
+      <c r="Q23">
+        <v>0.9916149275851255</v>
+      </c>
+      <c r="R23">
+        <v>1.02031029666797</v>
+      </c>
+      <c r="S23">
+        <v>1.027276181382778</v>
+      </c>
+      <c r="T23">
+        <v>1.02031029666797</v>
+      </c>
+      <c r="U23">
+        <v>1.015592520834409</v>
+      </c>
+      <c r="V23">
+        <v>1.008582324505387</v>
+      </c>
+      <c r="W23">
+        <v>1.008273198123748</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.7906552528753793</v>
+      </c>
+      <c r="D24">
+        <v>0.3813712719179747</v>
+      </c>
+      <c r="E24">
+        <v>0.3813712719179747</v>
+      </c>
+      <c r="F24">
+        <v>0.7520861600358772</v>
+      </c>
+      <c r="G24">
+        <v>1.604221700991157</v>
+      </c>
+      <c r="H24">
+        <v>1.604221700991157</v>
+      </c>
+      <c r="I24">
+        <v>1.604221700991157</v>
+      </c>
+      <c r="J24">
+        <v>1.086157487724175</v>
+      </c>
+      <c r="K24">
+        <v>1.022823215719612</v>
+      </c>
+      <c r="L24">
+        <v>1.320078409666073</v>
+      </c>
+      <c r="M24">
+        <v>0.6874346321174459</v>
+      </c>
+      <c r="N24">
+        <v>1.604221700991157</v>
+      </c>
+      <c r="O24">
+        <v>0.7520861600358772</v>
+      </c>
+      <c r="P24">
+        <v>0.566728715976926</v>
+      </c>
+      <c r="Q24">
+        <v>0.8874546878777445</v>
+      </c>
+      <c r="R24">
+        <v>0.9125597109816695</v>
+      </c>
+      <c r="S24">
+        <v>0.7187602158911547</v>
+      </c>
+      <c r="T24">
+        <v>0.9125597109816695</v>
+      </c>
+      <c r="U24">
+        <v>0.9401255871661551</v>
+      </c>
+      <c r="V24">
+        <v>1.072944809931155</v>
+      </c>
+      <c r="W24">
+        <v>0.9556035163809617</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.014759350725453</v>
+      </c>
+      <c r="D25">
+        <v>0.9779470090928971</v>
+      </c>
+      <c r="E25">
+        <v>0.9779470090928971</v>
+      </c>
+      <c r="F25">
+        <v>1.299517487579263</v>
+      </c>
+      <c r="G25">
+        <v>1.131824778943258</v>
+      </c>
+      <c r="H25">
+        <v>1.131824778943258</v>
+      </c>
+      <c r="I25">
+        <v>1.131824778943258</v>
+      </c>
+      <c r="J25">
+        <v>1.146265573757279</v>
+      </c>
+      <c r="K25">
+        <v>0.787095813356969</v>
+      </c>
+      <c r="L25">
+        <v>0.868430043618947</v>
+      </c>
+      <c r="M25">
+        <v>0.8676690751601859</v>
+      </c>
+      <c r="N25">
+        <v>1.131824778943258</v>
+      </c>
+      <c r="O25">
+        <v>1.299517487579263</v>
+      </c>
+      <c r="P25">
+        <v>1.13873224833608</v>
+      </c>
+      <c r="Q25">
+        <v>1.043306650468116</v>
+      </c>
+      <c r="R25">
+        <v>1.136429758538473</v>
+      </c>
+      <c r="S25">
+        <v>1.021520103343043</v>
+      </c>
+      <c r="T25">
+        <v>1.136429758538473</v>
+      </c>
+      <c r="U25">
+        <v>1.049096272243097</v>
+      </c>
+      <c r="V25">
+        <v>1.065641973583129</v>
+      </c>
+      <c r="W25">
+        <v>1.011688641529282</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.236674189962504</v>
+      </c>
+      <c r="D26">
+        <v>0.3862134170529797</v>
+      </c>
+      <c r="E26">
+        <v>0.3862134170529797</v>
+      </c>
+      <c r="F26">
+        <v>1.823256695440803</v>
+      </c>
+      <c r="G26">
+        <v>0.4366272723675221</v>
+      </c>
+      <c r="H26">
+        <v>0.4366272723675221</v>
+      </c>
+      <c r="I26">
+        <v>0.4366272723675221</v>
+      </c>
+      <c r="J26">
+        <v>1.355492994251532</v>
+      </c>
+      <c r="K26">
+        <v>0.8267191513022921</v>
+      </c>
+      <c r="L26">
+        <v>0.7841456189156453</v>
+      </c>
+      <c r="M26">
+        <v>0.6567729082941093</v>
+      </c>
+      <c r="N26">
+        <v>0.4366272723675221</v>
+      </c>
+      <c r="O26">
+        <v>1.823256695440803</v>
+      </c>
+      <c r="P26">
+        <v>1.104735056246891</v>
+      </c>
+      <c r="Q26">
+        <v>1.324987923371548</v>
+      </c>
+      <c r="R26">
+        <v>0.8820324616204349</v>
+      </c>
+      <c r="S26">
+        <v>1.012063087932025</v>
+      </c>
+      <c r="T26">
+        <v>0.8820324616204349</v>
+      </c>
+      <c r="U26">
+        <v>0.8682041340408992</v>
+      </c>
+      <c r="V26">
+        <v>0.7818887617062238</v>
+      </c>
+      <c r="W26">
+        <v>0.9382377809484235</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.8541392098058019</v>
+      </c>
+      <c r="D27">
+        <v>1.039018288742479</v>
+      </c>
+      <c r="E27">
+        <v>1.039018288742479</v>
+      </c>
+      <c r="F27">
+        <v>0.6535133014708883</v>
+      </c>
+      <c r="G27">
+        <v>1.283617992978144</v>
+      </c>
+      <c r="H27">
+        <v>1.283617992978144</v>
+      </c>
+      <c r="I27">
+        <v>1.283617992978144</v>
+      </c>
+      <c r="J27">
+        <v>0.9027953238081448</v>
+      </c>
+      <c r="K27">
+        <v>1.090925169322804</v>
+      </c>
+      <c r="L27">
+        <v>1.186105343260666</v>
+      </c>
+      <c r="M27">
+        <v>1.034777544995982</v>
+      </c>
+      <c r="N27">
+        <v>1.283617992978144</v>
+      </c>
+      <c r="O27">
+        <v>0.6535133014708883</v>
+      </c>
+      <c r="P27">
+        <v>0.8462657951066834</v>
+      </c>
+      <c r="Q27">
+        <v>0.872219235396846</v>
+      </c>
+      <c r="R27">
+        <v>0.9920498610638372</v>
+      </c>
+      <c r="S27">
+        <v>0.9278189198453902</v>
+      </c>
+      <c r="T27">
+        <v>0.9920498610638372</v>
+      </c>
+      <c r="U27">
+        <v>1.016768688128579</v>
+      </c>
+      <c r="V27">
+        <v>1.070138549098492</v>
+      </c>
+      <c r="W27">
+        <v>1.005611521798114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.275560895687968</v>
+      </c>
+      <c r="D28">
+        <v>2.247130201602894</v>
+      </c>
+      <c r="E28">
+        <v>2.247130201602894</v>
+      </c>
+      <c r="F28">
+        <v>1.132043861678155</v>
+      </c>
+      <c r="G28">
+        <v>0.2613963701400528</v>
+      </c>
+      <c r="H28">
+        <v>0.2613963701400528</v>
+      </c>
+      <c r="I28">
+        <v>0.2613963701400528</v>
+      </c>
+      <c r="J28">
+        <v>0.7512952108371878</v>
+      </c>
+      <c r="K28">
+        <v>0.9775451169882042</v>
+      </c>
+      <c r="L28">
+        <v>0.5314451960225255</v>
+      </c>
+      <c r="M28">
+        <v>1.588287099511691</v>
+      </c>
+      <c r="N28">
+        <v>0.2613963701400528</v>
+      </c>
+      <c r="O28">
+        <v>1.132043861678155</v>
+      </c>
+      <c r="P28">
+        <v>1.689587031640524</v>
+      </c>
+      <c r="Q28">
+        <v>1.05479448933318</v>
+      </c>
+      <c r="R28">
+        <v>1.213523477807034</v>
+      </c>
+      <c r="S28">
+        <v>1.452239726756418</v>
+      </c>
+      <c r="T28">
+        <v>1.213523477807034</v>
+      </c>
+      <c r="U28">
+        <v>1.154528887602327</v>
+      </c>
+      <c r="V28">
+        <v>0.9759023841098717</v>
+      </c>
+      <c r="W28">
+        <v>1.095587994058585</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.1896869703795</v>
+      </c>
+      <c r="D29">
+        <v>2.057457339578579</v>
+      </c>
+      <c r="E29">
+        <v>2.057457339578579</v>
+      </c>
+      <c r="F29">
+        <v>1.03861369021612</v>
+      </c>
+      <c r="G29">
+        <v>0.4428164079253079</v>
+      </c>
+      <c r="H29">
+        <v>0.4428164079253079</v>
+      </c>
+      <c r="I29">
+        <v>0.4428164079253079</v>
+      </c>
+      <c r="J29">
+        <v>0.7801267160167044</v>
+      </c>
+      <c r="K29">
+        <v>0.9994022947548873</v>
+      </c>
+      <c r="L29">
+        <v>0.6479406660938121</v>
+      </c>
+      <c r="M29">
+        <v>1.498840236322301</v>
+      </c>
+      <c r="N29">
+        <v>0.4428164079253079</v>
+      </c>
+      <c r="O29">
+        <v>1.03861369021612</v>
+      </c>
+      <c r="P29">
+        <v>1.548035514897349</v>
+      </c>
+      <c r="Q29">
+        <v>1.019007992485504</v>
+      </c>
+      <c r="R29">
+        <v>1.179629145906669</v>
+      </c>
+      <c r="S29">
+        <v>1.365157774849862</v>
+      </c>
+      <c r="T29">
+        <v>1.179629145906669</v>
+      </c>
+      <c r="U29">
+        <v>1.134572433118723</v>
+      </c>
+      <c r="V29">
+        <v>0.9962212280800404</v>
+      </c>
+      <c r="W29">
+        <v>1.081860540160901</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.018716128815935</v>
+      </c>
+      <c r="D30">
+        <v>1.675430343191748</v>
+      </c>
+      <c r="E30">
+        <v>1.675430343191748</v>
+      </c>
+      <c r="F30">
+        <v>0.8530473042415694</v>
+      </c>
+      <c r="G30">
+        <v>0.8050212397869266</v>
+      </c>
+      <c r="H30">
+        <v>0.8050212397869266</v>
+      </c>
+      <c r="I30">
+        <v>0.8050212397869266</v>
+      </c>
+      <c r="J30">
+        <v>0.8382305860433433</v>
+      </c>
+      <c r="K30">
+        <v>1.043022188667164</v>
+      </c>
+      <c r="L30">
+        <v>0.8806907757910857</v>
+      </c>
+      <c r="M30">
+        <v>1.319120659893348</v>
+      </c>
+      <c r="N30">
+        <v>0.8050212397869266</v>
+      </c>
+      <c r="O30">
+        <v>0.8530473042415694</v>
+      </c>
+      <c r="P30">
+        <v>1.264238823716659</v>
+      </c>
+      <c r="Q30">
+        <v>0.9480347464543666</v>
+      </c>
+      <c r="R30">
+        <v>1.111166295740081</v>
+      </c>
+      <c r="S30">
+        <v>1.190499945366827</v>
+      </c>
+      <c r="T30">
+        <v>1.111166295740081</v>
+      </c>
+      <c r="U30">
+        <v>1.094130268971852</v>
+      </c>
+      <c r="V30">
+        <v>1.036308463134867</v>
+      </c>
+      <c r="W30">
+        <v>1.05415990330389</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.9916350637481743</v>
+      </c>
+      <c r="D31">
+        <v>1.847266900457879</v>
+      </c>
+      <c r="E31">
+        <v>1.847266900457879</v>
+      </c>
+      <c r="F31">
+        <v>0.8630218182116448</v>
+      </c>
+      <c r="G31">
+        <v>0.8373210484702464</v>
+      </c>
+      <c r="H31">
+        <v>0.8373210484702464</v>
+      </c>
+      <c r="I31">
+        <v>0.8373210484702464</v>
+      </c>
+      <c r="J31">
+        <v>0.8441048082036948</v>
+      </c>
+      <c r="K31">
+        <v>0.9988278536273359</v>
+      </c>
+      <c r="L31">
+        <v>0.8441058131815613</v>
+      </c>
+      <c r="M31">
+        <v>1.351865664788166</v>
+      </c>
+      <c r="N31">
+        <v>0.8373210484702464</v>
+      </c>
+      <c r="O31">
+        <v>0.8630218182116448</v>
+      </c>
+      <c r="P31">
+        <v>1.355144359334762</v>
+      </c>
+      <c r="Q31">
+        <v>0.9309248359194904</v>
+      </c>
+      <c r="R31">
+        <v>1.18253658904659</v>
+      </c>
+      <c r="S31">
+        <v>1.23637219076562</v>
+      </c>
+      <c r="T31">
+        <v>1.18253658904659</v>
+      </c>
+      <c r="U31">
+        <v>1.136609405191777</v>
+      </c>
+      <c r="V31">
+        <v>1.076751733847471</v>
+      </c>
+      <c r="W31">
+        <v>1.072268621336088</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.353124694383562</v>
+      </c>
+      <c r="D32">
+        <v>2.501592980931508</v>
+      </c>
+      <c r="E32">
+        <v>2.501592980931508</v>
+      </c>
+      <c r="F32">
+        <v>1.208304217260274</v>
+      </c>
+      <c r="G32">
+        <v>0.07843166245068492</v>
+      </c>
+      <c r="H32">
+        <v>0.07843166245068492</v>
+      </c>
+      <c r="I32">
+        <v>0.07843166245068492</v>
+      </c>
+      <c r="J32">
+        <v>0.7121660461095892</v>
+      </c>
+      <c r="K32">
+        <v>0.9556766579452053</v>
+      </c>
+      <c r="L32">
+        <v>0.4107413080821917</v>
+      </c>
+      <c r="M32">
+        <v>1.699861447123288</v>
+      </c>
+      <c r="N32">
+        <v>0.07843166245068492</v>
+      </c>
+      <c r="O32">
+        <v>1.208304217260274</v>
+      </c>
+      <c r="P32">
+        <v>1.854948599095891</v>
+      </c>
+      <c r="Q32">
+        <v>1.08199043760274</v>
+      </c>
+      <c r="R32">
+        <v>1.262776286880822</v>
+      </c>
+      <c r="S32">
+        <v>1.555191285378996</v>
+      </c>
+      <c r="T32">
+        <v>1.262776286880822</v>
+      </c>
+      <c r="U32">
+        <v>1.186001379646918</v>
+      </c>
+      <c r="V32">
+        <v>0.9644874362076713</v>
+      </c>
+      <c r="W32">
+        <v>1.114987376785788</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.330231073684211</v>
+      </c>
+      <c r="D33">
+        <v>2.674723384315788</v>
+      </c>
+      <c r="E33">
+        <v>2.674723384315788</v>
+      </c>
+      <c r="F33">
+        <v>1.161527764842105</v>
+      </c>
+      <c r="G33">
+        <v>0.07540670168947368</v>
+      </c>
+      <c r="H33">
+        <v>0.07540670168947368</v>
+      </c>
+      <c r="I33">
+        <v>0.07540670168947368</v>
+      </c>
+      <c r="J33">
+        <v>0.68464055</v>
+      </c>
+      <c r="K33">
+        <v>0.9557827968421051</v>
+      </c>
+      <c r="L33">
+        <v>0.4001451778947369</v>
+      </c>
+      <c r="M33">
+        <v>1.758837008421053</v>
+      </c>
+      <c r="N33">
+        <v>0.07540670168947368</v>
+      </c>
+      <c r="O33">
+        <v>1.161527764842105</v>
+      </c>
+      <c r="P33">
+        <v>1.918125574578947</v>
+      </c>
+      <c r="Q33">
+        <v>1.058655280842105</v>
+      </c>
+      <c r="R33">
+        <v>1.303885950282456</v>
+      </c>
+      <c r="S33">
+        <v>1.597344648666666</v>
+      </c>
+      <c r="T33">
+        <v>1.303885950282456</v>
+      </c>
+      <c r="U33">
+        <v>1.216860161922368</v>
+      </c>
+      <c r="V33">
+        <v>0.9885694698757892</v>
+      </c>
+      <c r="W33">
+        <v>1.130161807211184</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.330231073684211</v>
+      </c>
+      <c r="D34">
+        <v>2.674723384315788</v>
+      </c>
+      <c r="E34">
+        <v>2.674723384315788</v>
+      </c>
+      <c r="F34">
+        <v>1.161527764842105</v>
+      </c>
+      <c r="G34">
+        <v>0.07540670168947368</v>
+      </c>
+      <c r="H34">
+        <v>0.07540670168947368</v>
+      </c>
+      <c r="I34">
+        <v>0.07540670168947368</v>
+      </c>
+      <c r="J34">
+        <v>0.68464055</v>
+      </c>
+      <c r="K34">
+        <v>0.9557827968421051</v>
+      </c>
+      <c r="L34">
+        <v>0.4001451778947369</v>
+      </c>
+      <c r="M34">
+        <v>1.758837008421053</v>
+      </c>
+      <c r="N34">
+        <v>0.07540670168947368</v>
+      </c>
+      <c r="O34">
+        <v>1.161527764842105</v>
+      </c>
+      <c r="P34">
+        <v>1.918125574578947</v>
+      </c>
+      <c r="Q34">
+        <v>1.058655280842105</v>
+      </c>
+      <c r="R34">
+        <v>1.303885950282456</v>
+      </c>
+      <c r="S34">
+        <v>1.597344648666666</v>
+      </c>
+      <c r="T34">
+        <v>1.303885950282456</v>
+      </c>
+      <c r="U34">
+        <v>1.216860161922368</v>
+      </c>
+      <c r="V34">
+        <v>0.9885694698757892</v>
+      </c>
+      <c r="W34">
+        <v>1.130161807211184</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.8954225241908778</v>
+      </c>
+      <c r="D35">
+        <v>4.271414986509573</v>
+      </c>
+      <c r="E35">
+        <v>4.271414986509573</v>
+      </c>
+      <c r="F35">
+        <v>0.4384640646596528</v>
+      </c>
+      <c r="G35">
+        <v>0.406588171461148</v>
+      </c>
+      <c r="H35">
+        <v>0.406588171461148</v>
+      </c>
+      <c r="I35">
+        <v>0.406588171461148</v>
+      </c>
+      <c r="J35">
+        <v>0.4281093645249632</v>
+      </c>
+      <c r="K35">
+        <v>1.001055937602813</v>
+      </c>
+      <c r="L35">
+        <v>0.5138550667918603</v>
+      </c>
+      <c r="M35">
+        <v>2.252682790481943</v>
+      </c>
+      <c r="N35">
+        <v>0.406588171461148</v>
+      </c>
+      <c r="O35">
+        <v>0.4384640646596528</v>
+      </c>
+      <c r="P35">
+        <v>2.354939525584613</v>
+      </c>
+      <c r="Q35">
+        <v>0.7197600011312328</v>
+      </c>
+      <c r="R35">
+        <v>1.705489074210124</v>
+      </c>
+      <c r="S35">
+        <v>1.903644996257346</v>
+      </c>
+      <c r="T35">
+        <v>1.705489074210124</v>
+      </c>
+      <c r="U35">
+        <v>1.529380790058297</v>
+      </c>
+      <c r="V35">
+        <v>1.304822266338867</v>
+      </c>
+      <c r="W35">
+        <v>1.275949113277854</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9994051235964369</v>
+      </c>
+      <c r="D36">
+        <v>1.001843633038901</v>
+      </c>
+      <c r="E36">
+        <v>1.001843633038901</v>
+      </c>
+      <c r="F36">
+        <v>0.9989069993924753</v>
+      </c>
+      <c r="G36">
+        <v>1.00068550134009</v>
+      </c>
+      <c r="H36">
+        <v>1.00068550134009</v>
+      </c>
+      <c r="I36">
+        <v>1.00068550134009</v>
+      </c>
+      <c r="J36">
+        <v>0.9997458437935594</v>
+      </c>
+      <c r="K36">
+        <v>0.9999584014842345</v>
+      </c>
+      <c r="L36">
+        <v>1.000383895056545</v>
+      </c>
+      <c r="M36">
+        <v>1.000232967002155</v>
+      </c>
+      <c r="N36">
+        <v>1.00068550134009</v>
+      </c>
+      <c r="O36">
+        <v>0.9989069993924753</v>
+      </c>
+      <c r="P36">
+        <v>1.000375316215688</v>
+      </c>
+      <c r="Q36">
+        <v>0.999432700438355</v>
+      </c>
+      <c r="R36">
+        <v>1.000478711257155</v>
+      </c>
+      <c r="S36">
+        <v>1.000236344638537</v>
+      </c>
+      <c r="T36">
+        <v>1.000478711257155</v>
+      </c>
+      <c r="U36">
+        <v>1.000348633813925</v>
+      </c>
+      <c r="V36">
+        <v>1.000416007319158</v>
+      </c>
+      <c r="W36">
+        <v>1.00014529558805</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.0000408271084</v>
+      </c>
+      <c r="D37">
+        <v>1.00693016190881</v>
+      </c>
+      <c r="E37">
+        <v>1.00693016190881</v>
+      </c>
+      <c r="F37">
+        <v>1.000025015734572</v>
+      </c>
+      <c r="G37">
+        <v>0.9974922504345047</v>
+      </c>
+      <c r="H37">
+        <v>0.9974922504345047</v>
+      </c>
+      <c r="I37">
+        <v>0.9974922504345047</v>
+      </c>
+      <c r="J37">
+        <v>0.9990840094100132</v>
+      </c>
+      <c r="K37">
+        <v>0.9998558204311196</v>
+      </c>
+      <c r="L37">
+        <v>0.9982650620352568</v>
+      </c>
+      <c r="M37">
+        <v>1.003126942127246</v>
+      </c>
+      <c r="N37">
+        <v>0.9974922504345047</v>
+      </c>
+      <c r="O37">
+        <v>1.000025015734572</v>
+      </c>
+      <c r="P37">
+        <v>1.003477588821691</v>
+      </c>
+      <c r="Q37">
+        <v>0.9999404180828457</v>
+      </c>
+      <c r="R37">
+        <v>1.001482476025962</v>
+      </c>
+      <c r="S37">
+        <v>1.002270332691501</v>
+      </c>
+      <c r="T37">
+        <v>1.001482476025962</v>
+      </c>
+      <c r="U37">
+        <v>1.001075812127252</v>
+      </c>
+      <c r="V37">
+        <v>1.000359099788702</v>
+      </c>
+      <c r="W37">
+        <v>1.00060251114874</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.005146319347008</v>
+      </c>
+      <c r="D38">
+        <v>1.022745681225503</v>
+      </c>
+      <c r="E38">
+        <v>1.022745681225503</v>
+      </c>
+      <c r="F38">
+        <v>0.9993626636357725</v>
+      </c>
+      <c r="G38">
+        <v>0.9879863627530868</v>
+      </c>
+      <c r="H38">
+        <v>0.9879863627530868</v>
+      </c>
+      <c r="I38">
+        <v>0.9879863627530868</v>
+      </c>
+      <c r="J38">
+        <v>0.9948639636180233</v>
+      </c>
+      <c r="K38">
+        <v>0.9993481099725463</v>
+      </c>
+      <c r="L38">
+        <v>0.9939809623491619</v>
+      </c>
+      <c r="M38">
+        <v>1.007958557028642</v>
+      </c>
+      <c r="N38">
+        <v>0.9879863627530868</v>
+      </c>
+      <c r="O38">
+        <v>0.9993626636357725</v>
+      </c>
+      <c r="P38">
+        <v>1.011054172430638</v>
+      </c>
+      <c r="Q38">
+        <v>0.9993553868041594</v>
+      </c>
+      <c r="R38">
+        <v>1.003364902538121</v>
+      </c>
+      <c r="S38">
+        <v>1.007152151611274</v>
+      </c>
+      <c r="T38">
+        <v>1.003364902538121</v>
+      </c>
+      <c r="U38">
+        <v>1.002360704396727</v>
+      </c>
+      <c r="V38">
+        <v>0.999485836067999</v>
+      </c>
+      <c r="W38">
+        <v>1.001424077491218</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.011819678338782</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.047244447809101</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.047244447809101</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.005935758950775</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>0.9704313585075202</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.9704313585075202</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9704313585075202</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.9906407366798027</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.9980641635879599</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.9827101929799996</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.020276308839699</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.9704313585075202</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.005935758950775</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>1.026590103379938</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.001999961269367</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.007870521755799</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>1.017081456782612</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.007870521755799</v>
       </c>
-      <c r="U23">
+      <c r="U39">
         <v>1.005418932213839</v>
       </c>
-      <c r="V23">
+      <c r="V39">
         <v>0.9984214174725754</v>
       </c>
-      <c r="W23">
+      <c r="W39">
         <v>1.003390330711705</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.030796755464435</v>
+      </c>
+      <c r="D40">
+        <v>1.634129755512775</v>
+      </c>
+      <c r="E40">
+        <v>1.634129755512775</v>
+      </c>
+      <c r="F40">
+        <v>0.8662962979110247</v>
+      </c>
+      <c r="G40">
+        <v>0.794435137251811</v>
+      </c>
+      <c r="H40">
+        <v>0.794435137251811</v>
+      </c>
+      <c r="I40">
+        <v>0.794435137251811</v>
+      </c>
+      <c r="J40">
+        <v>0.8413621255558192</v>
+      </c>
+      <c r="K40">
+        <v>1.045703830660214</v>
+      </c>
+      <c r="L40">
+        <v>0.8778049674681087</v>
+      </c>
+      <c r="M40">
+        <v>1.311575045434492</v>
+      </c>
+      <c r="N40">
+        <v>0.794435137251811</v>
+      </c>
+      <c r="O40">
+        <v>0.8662962979110247</v>
+      </c>
+      <c r="P40">
+        <v>1.2502130267119</v>
+      </c>
+      <c r="Q40">
+        <v>0.9560000642856196</v>
+      </c>
+      <c r="R40">
+        <v>1.098287063558537</v>
+      </c>
+      <c r="S40">
+        <v>1.182043294694671</v>
+      </c>
+      <c r="T40">
+        <v>1.098287063558537</v>
+      </c>
+      <c r="U40">
+        <v>1.085141255333956</v>
+      </c>
+      <c r="V40">
+        <v>1.027000031717527</v>
+      </c>
+      <c r="W40">
+        <v>1.050262989407335</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9214634865518554</v>
+      </c>
+      <c r="D41">
+        <v>0.8216496495855181</v>
+      </c>
+      <c r="E41">
+        <v>0.8216496495855181</v>
+      </c>
+      <c r="F41">
+        <v>0.9874488826818368</v>
+      </c>
+      <c r="G41">
+        <v>1.239188056432797</v>
+      </c>
+      <c r="H41">
+        <v>1.239188056432797</v>
+      </c>
+      <c r="I41">
+        <v>1.239188056432797</v>
+      </c>
+      <c r="J41">
+        <v>1.061784373035784</v>
+      </c>
+      <c r="K41">
+        <v>0.9539652717701699</v>
+      </c>
+      <c r="L41">
+        <v>1.079349798151794</v>
+      </c>
+      <c r="M41">
+        <v>0.869674263121932</v>
+      </c>
+      <c r="N41">
+        <v>1.239188056432797</v>
+      </c>
+      <c r="O41">
+        <v>0.9874488826818368</v>
+      </c>
+      <c r="P41">
+        <v>0.9045492661336775</v>
+      </c>
+      <c r="Q41">
+        <v>0.9707070772260034</v>
+      </c>
+      <c r="R41">
+        <v>1.016095529566717</v>
+      </c>
+      <c r="S41">
+        <v>0.9210212680125083</v>
+      </c>
+      <c r="T41">
+        <v>1.016095529566717</v>
+      </c>
+      <c r="U41">
+        <v>1.00056296511758</v>
+      </c>
+      <c r="V41">
+        <v>1.048287983380624</v>
+      </c>
+      <c r="W41">
+        <v>0.9918154726664609</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.130654312563794</v>
+      </c>
+      <c r="D42">
+        <v>1.77090479844183</v>
+      </c>
+      <c r="E42">
+        <v>1.77090479844183</v>
+      </c>
+      <c r="F42">
+        <v>0.9033085620502727</v>
+      </c>
+      <c r="G42">
+        <v>0.5076339274833878</v>
+      </c>
+      <c r="H42">
+        <v>0.5076339274833878</v>
+      </c>
+      <c r="I42">
+        <v>0.5076339274833878</v>
+      </c>
+      <c r="J42">
+        <v>0.7892932533409811</v>
+      </c>
+      <c r="K42">
+        <v>1.093310696485548</v>
+      </c>
+      <c r="L42">
+        <v>0.7933162440062741</v>
+      </c>
+      <c r="M42">
+        <v>1.42782179020349</v>
+      </c>
+      <c r="N42">
+        <v>0.5076339274833878</v>
+      </c>
+      <c r="O42">
+        <v>0.9033085620502727</v>
+      </c>
+      <c r="P42">
+        <v>1.337106680246051</v>
+      </c>
+      <c r="Q42">
+        <v>0.9983096292679106</v>
+      </c>
+      <c r="R42">
+        <v>1.060615762658497</v>
+      </c>
+      <c r="S42">
+        <v>1.255841352325884</v>
+      </c>
+      <c r="T42">
+        <v>1.060615762658497</v>
+      </c>
+      <c r="U42">
+        <v>1.06878949611526</v>
+      </c>
+      <c r="V42">
+        <v>0.9565583823888855</v>
+      </c>
+      <c r="W42">
+        <v>1.052030448071947</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/CubeA-HW15.xlsx
+++ b/JupyterNotebooks/AvgHW/CubeA-HW15.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,49 +85,46 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
     <t>[2, 2, 2]</t>
   </si>
   <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
     <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
   </si>
   <si>
     <t>[4, 2, 2]</t>
@@ -488,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +591,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +600,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -701,70 +671,70 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.962117379252132</v>
+        <v>0.9996334939944445</v>
       </c>
       <c r="D3">
-        <v>1.065827946491762</v>
+        <v>1.018815606590322</v>
       </c>
       <c r="E3">
-        <v>1.009602472746511</v>
+        <v>1.018815606590322</v>
       </c>
       <c r="F3">
-        <v>0.962117379252132</v>
+        <v>0.9965898927611873</v>
       </c>
       <c r="G3">
-        <v>0.9967677103359613</v>
+        <v>0.996469395012674</v>
       </c>
       <c r="H3">
-        <v>0.987940914844226</v>
+        <v>0.996469395012674</v>
       </c>
       <c r="I3">
-        <v>0.962117379252132</v>
+        <v>0.996469395012674</v>
       </c>
       <c r="J3">
-        <v>1.065827946491762</v>
+        <v>0.9964616683011934</v>
       </c>
       <c r="K3">
-        <v>1.014985683836183</v>
+        <v>1.000195309570444</v>
       </c>
       <c r="L3">
-        <v>0.974358009273244</v>
+        <v>0.9969778511557071</v>
       </c>
       <c r="M3">
-        <v>1.029399450235129</v>
+        <v>1.007579903983893</v>
       </c>
       <c r="N3">
-        <v>0.962117379252132</v>
+        <v>0.996469395012674</v>
       </c>
       <c r="O3">
-        <v>1.009602472746511</v>
+        <v>0.9965898927611873</v>
       </c>
       <c r="P3">
-        <v>1.037715209619137</v>
+        <v>1.007702749675754</v>
       </c>
       <c r="Q3">
-        <v>1.003185091541236</v>
+        <v>0.9983926011658155</v>
       </c>
       <c r="R3">
-        <v>1.012515932830135</v>
+        <v>1.003958298121394</v>
       </c>
       <c r="S3">
-        <v>1.024066043191411</v>
+        <v>1.005200269640651</v>
       </c>
       <c r="T3">
-        <v>1.012515932830135</v>
+        <v>1.003958298121394</v>
       </c>
       <c r="U3">
-        <v>1.008578877206592</v>
+        <v>1.003017550983657</v>
       </c>
       <c r="V3">
-        <v>0.9992865776156998</v>
+        <v>1.00170791978946</v>
       </c>
       <c r="W3">
-        <v>1.005124945876894</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33">
+        <v>1.001590390171233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -772,70 +742,70 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9255728080078336</v>
+        <v>1.030796755464435</v>
       </c>
       <c r="D4">
-        <v>1.124637345903445</v>
+        <v>1.634129755512775</v>
       </c>
       <c r="E4">
-        <v>1.016948632859245</v>
+        <v>1.634129755512775</v>
       </c>
       <c r="F4">
-        <v>0.9255728080078336</v>
+        <v>0.8662962979110247</v>
       </c>
       <c r="G4">
-        <v>0.9953828218048593</v>
+        <v>0.794435137251811</v>
       </c>
       <c r="H4">
-        <v>0.9761715699104521</v>
+        <v>0.794435137251811</v>
       </c>
       <c r="I4">
-        <v>0.9255728080078336</v>
+        <v>0.794435137251811</v>
       </c>
       <c r="J4">
-        <v>1.124637345903445</v>
+        <v>0.8413621255558192</v>
       </c>
       <c r="K4">
-        <v>1.029011019519943</v>
+        <v>1.045703830660214</v>
       </c>
       <c r="L4">
-        <v>0.9517635429038405</v>
+        <v>0.8778049674681087</v>
       </c>
       <c r="M4">
-        <v>1.056902239544269</v>
+        <v>1.311575045434492</v>
       </c>
       <c r="N4">
-        <v>0.9255728080078336</v>
+        <v>0.794435137251811</v>
       </c>
       <c r="O4">
-        <v>1.016948632859245</v>
+        <v>0.8662962979110247</v>
       </c>
       <c r="P4">
-        <v>1.070792989381345</v>
+        <v>1.2502130267119</v>
       </c>
       <c r="Q4">
-        <v>1.006165727332052</v>
+        <v>0.9560000642856196</v>
       </c>
       <c r="R4">
-        <v>1.022386262256841</v>
+        <v>1.098287063558537</v>
       </c>
       <c r="S4">
-        <v>1.04565626685585</v>
+        <v>1.182043294694671</v>
       </c>
       <c r="T4">
-        <v>1.022386262256841</v>
+        <v>1.098287063558537</v>
       </c>
       <c r="U4">
-        <v>1.015635402143846</v>
+        <v>1.085141255333956</v>
       </c>
       <c r="V4">
-        <v>0.9976228833166434</v>
+        <v>1.027000031717527</v>
       </c>
       <c r="W4">
-        <v>1.009548747556736</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33">
+        <v>1.050262989407335</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,70 +813,70 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.8609284373792924</v>
+        <v>1.024319525240635</v>
       </c>
       <c r="D5">
-        <v>1.245389067378953</v>
+        <v>1.829059346992501</v>
       </c>
       <c r="E5">
-        <v>1.033167963627783</v>
+        <v>1.829059346992501</v>
       </c>
       <c r="F5">
-        <v>0.8609284373792924</v>
+        <v>0.8453080953919297</v>
       </c>
       <c r="G5">
-        <v>0.9884467330275332</v>
+        <v>0.7607409781398464</v>
       </c>
       <c r="H5">
-        <v>0.9544722154065791</v>
+        <v>0.7607409781398464</v>
       </c>
       <c r="I5">
-        <v>0.8609284373792924</v>
+        <v>0.7607409781398464</v>
       </c>
       <c r="J5">
-        <v>1.245389067378953</v>
+        <v>0.8141008487665685</v>
       </c>
       <c r="K5">
-        <v>1.054590512574045</v>
+        <v>1.037995207701722</v>
       </c>
       <c r="L5">
-        <v>0.9068365786183493</v>
+        <v>0.84679336428674</v>
       </c>
       <c r="M5">
-        <v>1.108807445994011</v>
+        <v>1.377267707412106</v>
       </c>
       <c r="N5">
-        <v>0.8609284373792924</v>
+        <v>0.7607409781398464</v>
       </c>
       <c r="O5">
-        <v>1.033167963627783</v>
+        <v>0.8453080953919297</v>
       </c>
       <c r="P5">
-        <v>1.139278515503368</v>
+        <v>1.337183721192216</v>
       </c>
       <c r="Q5">
-        <v>1.010807348327658</v>
+        <v>0.9416516515468258</v>
       </c>
       <c r="R5">
-        <v>1.046495156128676</v>
+        <v>1.145036140174759</v>
       </c>
       <c r="S5">
-        <v>1.08900125467809</v>
+        <v>1.237454216695384</v>
       </c>
       <c r="T5">
-        <v>1.046495156128676</v>
+        <v>1.145036140174759</v>
       </c>
       <c r="U5">
-        <v>1.03198305035339</v>
+        <v>1.1182759070565</v>
       </c>
       <c r="V5">
-        <v>0.9977721277585708</v>
+        <v>1.046768921273169</v>
       </c>
       <c r="W5">
-        <v>1.019079869250818</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33">
+        <v>1.066948134241506</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -914,70 +884,70 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.8004175252874666</v>
+        <v>0.8954225241908778</v>
       </c>
       <c r="D6">
-        <v>1.365607561191533</v>
+        <v>4.271414986509573</v>
       </c>
       <c r="E6">
-        <v>1.050228793294115</v>
+        <v>4.271414986509573</v>
       </c>
       <c r="F6">
-        <v>0.8004175252874666</v>
+        <v>0.4384640646596528</v>
       </c>
       <c r="G6">
-        <v>0.9761152752328862</v>
+        <v>0.406588171461148</v>
       </c>
       <c r="H6">
-        <v>0.9247520142907056</v>
+        <v>0.406588171461148</v>
       </c>
       <c r="I6">
-        <v>0.8004175252874666</v>
+        <v>0.406588171461148</v>
       </c>
       <c r="J6">
-        <v>1.365607561191533</v>
+        <v>0.4281093645249632</v>
       </c>
       <c r="K6">
-        <v>1.088432695533195</v>
+        <v>1.001055937602813</v>
       </c>
       <c r="L6">
-        <v>0.8663869953499452</v>
+        <v>0.5138550667918603</v>
       </c>
       <c r="M6">
-        <v>1.154495662256409</v>
+        <v>2.252682790481943</v>
       </c>
       <c r="N6">
-        <v>0.8004175252874666</v>
+        <v>0.406588171461148</v>
       </c>
       <c r="O6">
-        <v>1.050228793294115</v>
+        <v>0.4384640646596528</v>
       </c>
       <c r="P6">
-        <v>1.207918177242824</v>
+        <v>2.354939525584613</v>
       </c>
       <c r="Q6">
-        <v>1.013172034263501</v>
+        <v>0.7197600011312328</v>
       </c>
       <c r="R6">
-        <v>1.072084626591038</v>
+        <v>1.705489074210124</v>
       </c>
       <c r="S6">
-        <v>1.130650543239512</v>
+        <v>1.903644996257346</v>
       </c>
       <c r="T6">
-        <v>1.072084626591038</v>
+        <v>1.705489074210124</v>
       </c>
       <c r="U6">
-        <v>1.0480922887515</v>
+        <v>1.529380790058297</v>
       </c>
       <c r="V6">
-        <v>0.9985573360586935</v>
+        <v>1.304822266338867</v>
       </c>
       <c r="W6">
-        <v>1.028304565304532</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33">
+        <v>1.275949113277854</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,70 +955,70 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9986796097736705</v>
+        <v>1.017402286266812</v>
       </c>
       <c r="D7">
-        <v>1.007092976472072</v>
+        <v>1.070508679304044</v>
       </c>
       <c r="E7">
-        <v>0.998747685446681</v>
+        <v>1.070508679304044</v>
       </c>
       <c r="F7">
-        <v>0.9986796097736705</v>
+        <v>1.007928892386847</v>
       </c>
       <c r="G7">
-        <v>1.000020793187544</v>
+        <v>0.9556411688672538</v>
       </c>
       <c r="H7">
-        <v>0.9987309918674963</v>
+        <v>0.9556411688672538</v>
       </c>
       <c r="I7">
-        <v>0.9986796097736705</v>
+        <v>0.9556411688672538</v>
       </c>
       <c r="J7">
-        <v>1.007092976472072</v>
+        <v>0.9851139714954595</v>
       </c>
       <c r="K7">
-        <v>0.9997942926938513</v>
+        <v>0.9991874972447402</v>
       </c>
       <c r="L7">
-        <v>0.9989417828542221</v>
+        <v>0.9721052784245563</v>
       </c>
       <c r="M7">
-        <v>1.002753796114977</v>
+        <v>1.034649911139624</v>
       </c>
       <c r="N7">
-        <v>0.9986796097736705</v>
+        <v>0.9556411688672538</v>
       </c>
       <c r="O7">
-        <v>0.998747685446681</v>
+        <v>1.007928892386847</v>
       </c>
       <c r="P7">
-        <v>1.002920330959377</v>
+        <v>1.039218785845445</v>
       </c>
       <c r="Q7">
-        <v>0.9993842393171125</v>
+        <v>1.003558194815793</v>
       </c>
       <c r="R7">
-        <v>1.001506757230808</v>
+        <v>1.011359580186048</v>
       </c>
       <c r="S7">
-        <v>1.001953818368766</v>
+        <v>1.025875022978543</v>
       </c>
       <c r="T7">
-        <v>1.001506757230808</v>
+        <v>1.011359580186048</v>
       </c>
       <c r="U7">
-        <v>1.001135266219992</v>
+        <v>1.008316559450721</v>
       </c>
       <c r="V7">
-        <v>1.000644134930728</v>
+        <v>0.9977814813340276</v>
       </c>
       <c r="W7">
-        <v>1.000595241051314</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33">
+        <v>1.005317210641167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1056,70 +1026,70 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9964693950126736</v>
+        <v>1.0000408271084</v>
       </c>
       <c r="D8">
-        <v>1.018815606590321</v>
+        <v>1.00693016190881</v>
       </c>
       <c r="E8">
-        <v>0.9965898927611876</v>
+        <v>1.00693016190881</v>
       </c>
       <c r="F8">
-        <v>0.9964693950126736</v>
+        <v>1.000025015734572</v>
       </c>
       <c r="G8">
-        <v>1.000195309570444</v>
+        <v>0.9974922504345047</v>
       </c>
       <c r="H8">
-        <v>0.9964616683011936</v>
+        <v>0.9974922504345047</v>
       </c>
       <c r="I8">
-        <v>0.9964693950126736</v>
+        <v>0.9974922504345047</v>
       </c>
       <c r="J8">
-        <v>1.018815606590321</v>
+        <v>0.9990840094100132</v>
       </c>
       <c r="K8">
-        <v>0.9996334939944445</v>
+        <v>0.9998558204311196</v>
       </c>
       <c r="L8">
-        <v>0.9969778511557084</v>
+        <v>0.9982650620352568</v>
       </c>
       <c r="M8">
-        <v>1.007579903983893</v>
+        <v>1.003126942127246</v>
       </c>
       <c r="N8">
-        <v>0.9964693950126736</v>
+        <v>0.9974922504345047</v>
       </c>
       <c r="O8">
-        <v>0.9965898927611876</v>
+        <v>1.000025015734572</v>
       </c>
       <c r="P8">
-        <v>1.007702749675754</v>
+        <v>1.003477588821691</v>
       </c>
       <c r="Q8">
-        <v>0.9983926011658157</v>
+        <v>0.9999404180828457</v>
       </c>
       <c r="R8">
-        <v>1.003958298121394</v>
+        <v>1.001482476025962</v>
       </c>
       <c r="S8">
-        <v>1.005200269640651</v>
+        <v>1.002270332691501</v>
       </c>
       <c r="T8">
-        <v>1.003958298121394</v>
+        <v>1.001482476025962</v>
       </c>
       <c r="U8">
-        <v>1.003017550983657</v>
+        <v>1.001075812127252</v>
       </c>
       <c r="V8">
-        <v>1.00170791978946</v>
+        <v>1.000359099788702</v>
       </c>
       <c r="W8">
-        <v>1.001590390171233</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
+        <v>1.00060251114874</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1127,70 +1097,70 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.994415129260653</v>
+        <v>1.029011019519943</v>
       </c>
       <c r="D9">
-        <v>1.026981319336468</v>
+        <v>1.124637345903445</v>
       </c>
       <c r="E9">
-        <v>0.9948601068553018</v>
+        <v>1.124637345903445</v>
       </c>
       <c r="F9">
-        <v>0.994415129260653</v>
+        <v>1.016948632859245</v>
       </c>
       <c r="G9">
-        <v>1.000465815342123</v>
+        <v>0.9255728080078336</v>
       </c>
       <c r="H9">
-        <v>0.994863397236607</v>
+        <v>0.9255728080078336</v>
       </c>
       <c r="I9">
-        <v>0.994415129260653</v>
+        <v>0.9255728080078336</v>
       </c>
       <c r="J9">
-        <v>1.026981319336468</v>
+        <v>0.9761715699104521</v>
       </c>
       <c r="K9">
-        <v>0.9994368632669993</v>
+        <v>0.9953828218048593</v>
       </c>
       <c r="L9">
-        <v>0.9958852422927293</v>
+        <v>0.9517635429038405</v>
       </c>
       <c r="M9">
-        <v>1.010982951119363</v>
+        <v>1.056902239544269</v>
       </c>
       <c r="N9">
-        <v>0.994415129260653</v>
+        <v>0.9255728080078336</v>
       </c>
       <c r="O9">
-        <v>0.9948601068553018</v>
+        <v>1.016948632859245</v>
       </c>
       <c r="P9">
-        <v>1.010920713095885</v>
+        <v>1.070792989381345</v>
       </c>
       <c r="Q9">
-        <v>0.9976629610987126</v>
+        <v>1.006165727332052</v>
       </c>
       <c r="R9">
-        <v>1.005418851817474</v>
+        <v>1.022386262256841</v>
       </c>
       <c r="S9">
-        <v>1.007435747177964</v>
+        <v>1.04565626685585</v>
       </c>
       <c r="T9">
-        <v>1.005418851817474</v>
+        <v>1.022386262256841</v>
       </c>
       <c r="U9">
-        <v>1.004180592698637</v>
+        <v>1.015635402143846</v>
       </c>
       <c r="V9">
-        <v>1.00222750001104</v>
+        <v>0.9976228833166434</v>
       </c>
       <c r="W9">
-        <v>1.002236353088781</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33">
+        <v>1.009548747556736</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1198,70 +1168,70 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9878605610049934</v>
+        <v>0.882050976651139</v>
       </c>
       <c r="D10">
-        <v>1.057822891664266</v>
+        <v>4.365436990060756</v>
       </c>
       <c r="E10">
-        <v>0.9894240272956221</v>
+        <v>4.365436990060756</v>
       </c>
       <c r="F10">
-        <v>0.9878605610049934</v>
+        <v>0.4433721930565363</v>
       </c>
       <c r="G10">
-        <v>1.000952087079897</v>
+        <v>0.4191384526098863</v>
       </c>
       <c r="H10">
-        <v>0.9891991331731478</v>
+        <v>0.4191384526098863</v>
       </c>
       <c r="I10">
-        <v>0.9878605610049934</v>
+        <v>0.4191384526098863</v>
       </c>
       <c r="J10">
-        <v>1.057822891664266</v>
+        <v>0.4299124682335906</v>
       </c>
       <c r="K10">
-        <v>0.9986367491608101</v>
+        <v>0.9791577300431825</v>
       </c>
       <c r="L10">
-        <v>0.9913360892679089</v>
+        <v>0.493517537066579</v>
       </c>
       <c r="M10">
-        <v>1.023221529685865</v>
+        <v>2.272867511980373</v>
       </c>
       <c r="N10">
-        <v>0.9878605610049934</v>
+        <v>0.4191384526098863</v>
       </c>
       <c r="O10">
-        <v>0.9894240272956221</v>
+        <v>0.4433721930565363</v>
       </c>
       <c r="P10">
-        <v>1.023623459479944</v>
+        <v>2.404404591558646</v>
       </c>
       <c r="Q10">
-        <v>0.9951880571877594</v>
+        <v>0.7112649615498594</v>
       </c>
       <c r="R10">
-        <v>1.011702493321627</v>
+        <v>1.74264921190906</v>
       </c>
       <c r="S10">
-        <v>1.016066335346595</v>
+        <v>1.929322304386825</v>
       </c>
       <c r="T10">
-        <v>1.011702493321627</v>
+        <v>1.74264921190906</v>
       </c>
       <c r="U10">
-        <v>1.009014891761195</v>
+        <v>1.55177634144259</v>
       </c>
       <c r="V10">
-        <v>1.004784025609955</v>
+        <v>1.325248763676049</v>
       </c>
       <c r="W10">
-        <v>1.004806633541564</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33">
+        <v>1.285681732462755</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1269,70 +1239,70 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9805415391893013</v>
+        <v>0.9543021469124061</v>
       </c>
       <c r="D11">
-        <v>1.098598688978082</v>
+        <v>1.501514816175745</v>
       </c>
       <c r="E11">
-        <v>0.9817906618365264</v>
+        <v>1.501514816175745</v>
       </c>
       <c r="F11">
-        <v>0.9805415391893013</v>
+        <v>0.8195554121277169</v>
       </c>
       <c r="G11">
-        <v>1.001439193333725</v>
+        <v>1.002440205197953</v>
       </c>
       <c r="H11">
-        <v>0.981439185210162</v>
+        <v>1.002440205197953</v>
       </c>
       <c r="I11">
-        <v>0.9805415391893013</v>
+        <v>1.002440205197953</v>
       </c>
       <c r="J11">
-        <v>1.098598688978082</v>
+        <v>0.8775120294300615</v>
       </c>
       <c r="K11">
-        <v>0.9976619660461805</v>
+        <v>1.024653835161453</v>
       </c>
       <c r="L11">
-        <v>0.9848699475337075</v>
+        <v>0.9586548285652998</v>
       </c>
       <c r="M11">
-        <v>1.039844402862302</v>
+        <v>1.21893209525095</v>
       </c>
       <c r="N11">
-        <v>0.9805415391893013</v>
+        <v>1.002440205197953</v>
       </c>
       <c r="O11">
-        <v>0.9817906618365264</v>
+        <v>0.8195554121277169</v>
       </c>
       <c r="P11">
-        <v>1.040194675407304</v>
+        <v>1.160535114151731</v>
       </c>
       <c r="Q11">
-        <v>0.9916149275851256</v>
+        <v>0.9221046236445851</v>
       </c>
       <c r="R11">
-        <v>1.02031029666797</v>
+        <v>1.107836811167138</v>
       </c>
       <c r="S11">
-        <v>1.027276181382778</v>
+        <v>1.115241354488305</v>
       </c>
       <c r="T11">
-        <v>1.02031029666797</v>
+        <v>1.107836811167138</v>
       </c>
       <c r="U11">
-        <v>1.015592520834409</v>
+        <v>1.087041067165717</v>
       </c>
       <c r="V11">
-        <v>1.008582324505387</v>
+        <v>1.070120894772164</v>
       </c>
       <c r="W11">
-        <v>1.008273198123748</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33">
+        <v>1.044695671102698</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1340,70 +1310,70 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.604221700991157</v>
+        <v>0.9795022107410517</v>
       </c>
       <c r="D12">
-        <v>0.3813712719179751</v>
+        <v>1.977961501645889</v>
       </c>
       <c r="E12">
-        <v>0.7520861600358771</v>
+        <v>1.977961501645889</v>
       </c>
       <c r="F12">
-        <v>1.604221700991157</v>
+        <v>0.8397026026505284</v>
       </c>
       <c r="G12">
-        <v>1.022823215719612</v>
+        <v>0.8381446943928436</v>
       </c>
       <c r="H12">
-        <v>1.086157487724175</v>
+        <v>0.8381446943928436</v>
       </c>
       <c r="I12">
-        <v>1.604221700991157</v>
+        <v>0.8381446943928436</v>
       </c>
       <c r="J12">
-        <v>0.3813712719179751</v>
+        <v>0.8253020667063146</v>
       </c>
       <c r="K12">
-        <v>0.7906552528753792</v>
+        <v>0.9908106179999984</v>
       </c>
       <c r="L12">
-        <v>1.320078409666073</v>
+        <v>0.831240452915789</v>
       </c>
       <c r="M12">
-        <v>0.6874346321174463</v>
+        <v>1.389834543545267</v>
       </c>
       <c r="N12">
-        <v>1.604221700991157</v>
+        <v>0.8381446943928436</v>
       </c>
       <c r="O12">
-        <v>0.7520861600358771</v>
+        <v>0.8397026026505284</v>
       </c>
       <c r="P12">
-        <v>0.5667287159769261</v>
+        <v>1.408832052148209</v>
       </c>
       <c r="Q12">
-        <v>0.8874546878777445</v>
+        <v>0.9152566103252634</v>
       </c>
       <c r="R12">
-        <v>0.9125597109816695</v>
+        <v>1.21860293289642</v>
       </c>
       <c r="S12">
-        <v>0.7187602158911547</v>
+        <v>1.269491574098805</v>
       </c>
       <c r="T12">
-        <v>0.9125597109816698</v>
+        <v>1.21860293289642</v>
       </c>
       <c r="U12">
-        <v>0.9401255871661552</v>
+        <v>1.161654854172315</v>
       </c>
       <c r="V12">
-        <v>1.072944809931156</v>
+        <v>1.096952822216421</v>
       </c>
       <c r="W12">
-        <v>0.9556035163809617</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33">
+        <v>1.08406233632471</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1411,70 +1381,70 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.131824778943258</v>
+        <v>0.9210360183681268</v>
       </c>
       <c r="D13">
-        <v>0.9779470090928974</v>
+        <v>0.7005492021098065</v>
       </c>
       <c r="E13">
-        <v>1.299517487579263</v>
+        <v>0.7005492021098065</v>
       </c>
       <c r="F13">
-        <v>1.131824778943258</v>
+        <v>1.159672416934001</v>
       </c>
       <c r="G13">
-        <v>0.787095813356969</v>
+        <v>1.261769233970184</v>
       </c>
       <c r="H13">
-        <v>1.146265573757279</v>
+        <v>1.261769233970184</v>
       </c>
       <c r="I13">
-        <v>1.131824778943258</v>
+        <v>1.261769233970184</v>
       </c>
       <c r="J13">
-        <v>0.9779470090928974</v>
+        <v>1.169664362235142</v>
       </c>
       <c r="K13">
-        <v>1.014759350725453</v>
+        <v>0.8670037508302717</v>
       </c>
       <c r="L13">
-        <v>0.868430043618947</v>
+        <v>1.044840808234665</v>
       </c>
       <c r="M13">
-        <v>0.8676690751601859</v>
+        <v>0.7562594439224797</v>
       </c>
       <c r="N13">
-        <v>1.131824778943258</v>
+        <v>1.261769233970184</v>
       </c>
       <c r="O13">
-        <v>1.299517487579263</v>
+        <v>1.159672416934001</v>
       </c>
       <c r="P13">
-        <v>1.13873224833608</v>
+        <v>0.9301108095219038</v>
       </c>
       <c r="Q13">
-        <v>1.043306650468116</v>
+        <v>1.013338083882136</v>
       </c>
       <c r="R13">
-        <v>1.136429758538473</v>
+        <v>1.040663617671331</v>
       </c>
       <c r="S13">
-        <v>1.021520103343043</v>
+        <v>0.9090751232913599</v>
       </c>
       <c r="T13">
-        <v>1.136429758538473</v>
+        <v>1.040663617671331</v>
       </c>
       <c r="U13">
-        <v>1.049096272243097</v>
+        <v>0.997248650961066</v>
       </c>
       <c r="V13">
-        <v>1.065641973583129</v>
+        <v>1.05015276756289</v>
       </c>
       <c r="W13">
-        <v>1.011688641529282</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33">
+        <v>0.9850994045755845</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1482,70 +1452,70 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.4366272723675222</v>
+        <v>0.7731529699999997</v>
       </c>
       <c r="D14">
-        <v>0.3862134170529798</v>
+        <v>6.887563199999992</v>
       </c>
       <c r="E14">
-        <v>1.823256695440803</v>
+        <v>6.887563199999992</v>
       </c>
       <c r="F14">
-        <v>0.4366272723675222</v>
+        <v>0.02330075600000002</v>
       </c>
       <c r="G14">
-        <v>0.8267191513022922</v>
+        <v>0.001799323199999997</v>
       </c>
       <c r="H14">
-        <v>1.355492994251532</v>
+        <v>0.001799323199999997</v>
       </c>
       <c r="I14">
-        <v>0.4366272723675222</v>
+        <v>0.001799323199999997</v>
       </c>
       <c r="J14">
-        <v>0.3862134170529798</v>
+        <v>0.01485347800000001</v>
       </c>
       <c r="K14">
-        <v>1.236674189962504</v>
+        <v>0.9583655099999996</v>
       </c>
       <c r="L14">
-        <v>0.7841456189156452</v>
+        <v>0.1423060100000003</v>
       </c>
       <c r="M14">
-        <v>0.6567729082941094</v>
+        <v>3.193908999999997</v>
       </c>
       <c r="N14">
-        <v>0.4366272723675222</v>
+        <v>0.001799323199999997</v>
       </c>
       <c r="O14">
-        <v>1.823256695440803</v>
+        <v>0.02330075600000002</v>
       </c>
       <c r="P14">
-        <v>1.104735056246891</v>
+        <v>3.455431977999996</v>
       </c>
       <c r="Q14">
-        <v>1.324987923371547</v>
+        <v>0.4908331329999998</v>
       </c>
       <c r="R14">
-        <v>0.882032461620435</v>
+        <v>2.304221093066664</v>
       </c>
       <c r="S14">
-        <v>1.012063087932025</v>
+        <v>2.623076488666664</v>
       </c>
       <c r="T14">
-        <v>0.8820324616204349</v>
+        <v>2.304221093066664</v>
       </c>
       <c r="U14">
-        <v>0.8682041340408992</v>
+        <v>1.967757197299998</v>
       </c>
       <c r="V14">
-        <v>0.7818887617062239</v>
+        <v>1.574565622479998</v>
       </c>
       <c r="W14">
-        <v>0.9382377809484235</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33">
+        <v>1.499406280899999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1553,70 +1523,70 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.283617992978144</v>
+        <v>0.7731529700000001</v>
       </c>
       <c r="D15">
-        <v>1.039018288742479</v>
+        <v>6.8875632</v>
       </c>
       <c r="E15">
-        <v>0.6535133014708883</v>
+        <v>6.8875632</v>
       </c>
       <c r="F15">
-        <v>1.283617992978144</v>
+        <v>0.023300756</v>
       </c>
       <c r="G15">
-        <v>1.090925169322804</v>
+        <v>0.0017993233</v>
       </c>
       <c r="H15">
-        <v>0.9027953238081448</v>
+        <v>0.0017993233</v>
       </c>
       <c r="I15">
-        <v>1.283617992978144</v>
+        <v>0.0017993233</v>
       </c>
       <c r="J15">
-        <v>1.039018288742479</v>
+        <v>0.014853478</v>
       </c>
       <c r="K15">
-        <v>0.854139209805802</v>
+        <v>0.95836551</v>
       </c>
       <c r="L15">
-        <v>1.186105343260665</v>
+        <v>0.14230601</v>
       </c>
       <c r="M15">
-        <v>1.034777544995982</v>
+        <v>3.193909</v>
       </c>
       <c r="N15">
-        <v>1.283617992978144</v>
+        <v>0.0017993233</v>
       </c>
       <c r="O15">
-        <v>0.6535133014708883</v>
+        <v>0.023300756</v>
       </c>
       <c r="P15">
-        <v>0.8462657951066834</v>
+        <v>3.455431978</v>
       </c>
       <c r="Q15">
-        <v>0.8722192353968461</v>
+        <v>0.490833133</v>
       </c>
       <c r="R15">
-        <v>0.9920498610638372</v>
+        <v>2.3042210931</v>
       </c>
       <c r="S15">
-        <v>0.9278189198453903</v>
+        <v>2.623076488666667</v>
       </c>
       <c r="T15">
-        <v>0.9920498610638372</v>
+        <v>2.3042210931</v>
       </c>
       <c r="U15">
-        <v>1.016768688128579</v>
+        <v>1.967757197325</v>
       </c>
       <c r="V15">
-        <v>1.070138549098492</v>
+        <v>1.57456562252</v>
       </c>
       <c r="W15">
-        <v>1.005611521798114</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33">
+        <v>1.4994062809125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1594,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.00068550134009</v>
+        <v>0.7731529700000001</v>
       </c>
       <c r="D16">
-        <v>1.0018436330389</v>
+        <v>6.8875632</v>
       </c>
       <c r="E16">
-        <v>0.9989069993924753</v>
+        <v>6.8875632</v>
       </c>
       <c r="F16">
-        <v>1.00068550134009</v>
+        <v>0.023300756</v>
       </c>
       <c r="G16">
-        <v>0.9999584014842345</v>
+        <v>0.0017993233</v>
       </c>
       <c r="H16">
-        <v>0.99974584379356</v>
+        <v>0.0017993233</v>
       </c>
       <c r="I16">
-        <v>1.00068550134009</v>
+        <v>0.0017993233</v>
       </c>
       <c r="J16">
-        <v>1.0018436330389</v>
+        <v>0.014853478</v>
       </c>
       <c r="K16">
-        <v>0.9994051235964365</v>
+        <v>0.95836551</v>
       </c>
       <c r="L16">
-        <v>1.000383895056545</v>
+        <v>0.14230601</v>
       </c>
       <c r="M16">
-        <v>1.000232967002155</v>
+        <v>3.193909</v>
       </c>
       <c r="N16">
-        <v>1.00068550134009</v>
+        <v>0.0017993233</v>
       </c>
       <c r="O16">
-        <v>0.9989069993924753</v>
+        <v>0.023300756</v>
       </c>
       <c r="P16">
-        <v>1.000375316215687</v>
+        <v>3.455431978</v>
       </c>
       <c r="Q16">
-        <v>0.999432700438355</v>
+        <v>0.490833133</v>
       </c>
       <c r="R16">
-        <v>1.000478711257155</v>
+        <v>2.3042210931</v>
       </c>
       <c r="S16">
-        <v>1.000236344638537</v>
+        <v>2.623076488666667</v>
       </c>
       <c r="T16">
-        <v>1.000478711257155</v>
+        <v>2.3042210931</v>
       </c>
       <c r="U16">
-        <v>1.000348633813925</v>
+        <v>1.967757197325</v>
       </c>
       <c r="V16">
-        <v>1.000416007319158</v>
+        <v>1.57456562252</v>
       </c>
       <c r="W16">
-        <v>1.000145295588049</v>
+        <v>1.4994062809125</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1665,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9974922504345053</v>
+        <v>1.7409778</v>
       </c>
       <c r="D17">
-        <v>1.00693016190881</v>
+        <v>0.42089376</v>
       </c>
       <c r="E17">
-        <v>1.000025015734573</v>
+        <v>0.42089376</v>
       </c>
       <c r="F17">
-        <v>0.9974922504345053</v>
+        <v>1.724617</v>
       </c>
       <c r="G17">
-        <v>0.9998558204311196</v>
+        <v>0.11338327</v>
       </c>
       <c r="H17">
-        <v>0.9990840094100132</v>
+        <v>0.11338327</v>
       </c>
       <c r="I17">
-        <v>0.9974922504345053</v>
+        <v>0.11338327</v>
       </c>
       <c r="J17">
-        <v>1.00693016190881</v>
+        <v>1.0171786</v>
       </c>
       <c r="K17">
-        <v>1.0000408271084</v>
+        <v>0.89896126</v>
       </c>
       <c r="L17">
-        <v>0.9982650620352568</v>
+        <v>0.57191138</v>
       </c>
       <c r="M17">
-        <v>1.003126942127246</v>
+        <v>0.82397437</v>
       </c>
       <c r="N17">
-        <v>0.9974922504345053</v>
+        <v>0.11338327</v>
       </c>
       <c r="O17">
-        <v>1.000025015734573</v>
+        <v>1.724617</v>
       </c>
       <c r="P17">
-        <v>1.003477588821691</v>
+        <v>1.07275538</v>
       </c>
       <c r="Q17">
-        <v>0.9999404180828462</v>
+        <v>1.31178913</v>
       </c>
       <c r="R17">
-        <v>1.001482476025963</v>
+        <v>0.7529646766666667</v>
       </c>
       <c r="S17">
-        <v>1.002270332691501</v>
+        <v>1.014824006666667</v>
       </c>
       <c r="T17">
-        <v>1.001482476025963</v>
+        <v>0.7529646766666667</v>
       </c>
       <c r="U17">
-        <v>1.001075812127252</v>
+        <v>0.7894638225</v>
       </c>
       <c r="V17">
-        <v>1.000359099788703</v>
+        <v>0.654247712</v>
       </c>
       <c r="W17">
-        <v>1.00060251114874</v>
+        <v>0.9139871799999999</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1736,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9879863627530868</v>
+        <v>1.353124694383562</v>
       </c>
       <c r="D18">
-        <v>1.022745681225502</v>
+        <v>2.501592980931508</v>
       </c>
       <c r="E18">
-        <v>0.9993626636357725</v>
+        <v>2.501592980931508</v>
       </c>
       <c r="F18">
-        <v>0.9879863627530868</v>
+        <v>1.208304217260274</v>
       </c>
       <c r="G18">
-        <v>0.9993481099725464</v>
+        <v>0.07843166245068492</v>
       </c>
       <c r="H18">
-        <v>0.9948639636180232</v>
+        <v>0.07843166245068492</v>
       </c>
       <c r="I18">
-        <v>0.9879863627530868</v>
+        <v>0.07843166245068492</v>
       </c>
       <c r="J18">
-        <v>1.022745681225502</v>
+        <v>0.7121660461095892</v>
       </c>
       <c r="K18">
-        <v>1.005146319347008</v>
+        <v>0.9556766579452053</v>
       </c>
       <c r="L18">
-        <v>0.9939809623491633</v>
+        <v>0.4107413080821917</v>
       </c>
       <c r="M18">
-        <v>1.007958557028641</v>
+        <v>1.699861447123288</v>
       </c>
       <c r="N18">
-        <v>0.9879863627530868</v>
+        <v>0.07843166245068492</v>
       </c>
       <c r="O18">
-        <v>0.9993626636357725</v>
+        <v>1.208304217260274</v>
       </c>
       <c r="P18">
-        <v>1.011054172430637</v>
+        <v>1.854948599095891</v>
       </c>
       <c r="Q18">
-        <v>0.9993553868041595</v>
+        <v>1.08199043760274</v>
       </c>
       <c r="R18">
-        <v>1.00336490253812</v>
+        <v>1.262776286880822</v>
       </c>
       <c r="S18">
-        <v>1.007152151611274</v>
+        <v>1.555191285378996</v>
       </c>
       <c r="T18">
-        <v>1.00336490253812</v>
+        <v>1.262776286880822</v>
       </c>
       <c r="U18">
-        <v>1.002360704396727</v>
+        <v>1.186001379646918</v>
       </c>
       <c r="V18">
-        <v>0.9994858360679988</v>
+        <v>0.9644874362076713</v>
       </c>
       <c r="W18">
-        <v>1.001424077491218</v>
+        <v>1.114987376785788</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,67 +1807,777 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9704313585075202</v>
+        <v>1.330231073684211</v>
       </c>
       <c r="D19">
-        <v>1.047244447809101</v>
+        <v>2.674723384315788</v>
       </c>
       <c r="E19">
-        <v>1.005935758950775</v>
+        <v>2.674723384315788</v>
       </c>
       <c r="F19">
-        <v>0.9704313585075202</v>
+        <v>1.161527764842105</v>
       </c>
       <c r="G19">
-        <v>0.9980641635879599</v>
+        <v>0.07540670168947368</v>
       </c>
       <c r="H19">
-        <v>0.9906407366798027</v>
+        <v>0.07540670168947368</v>
       </c>
       <c r="I19">
-        <v>0.9704313585075202</v>
+        <v>0.07540670168947368</v>
       </c>
       <c r="J19">
-        <v>1.047244447809101</v>
+        <v>0.68464055</v>
       </c>
       <c r="K19">
-        <v>1.011819678338782</v>
+        <v>0.9557827968421051</v>
       </c>
       <c r="L19">
-        <v>0.9827101929799996</v>
+        <v>0.4001451778947369</v>
       </c>
       <c r="M19">
-        <v>1.020276308839699</v>
+        <v>1.758837008421053</v>
       </c>
       <c r="N19">
-        <v>0.9704313585075202</v>
+        <v>0.07540670168947368</v>
       </c>
       <c r="O19">
-        <v>1.005935758950775</v>
+        <v>1.161527764842105</v>
       </c>
       <c r="P19">
-        <v>1.026590103379938</v>
+        <v>1.918125574578947</v>
       </c>
       <c r="Q19">
-        <v>1.001999961269367</v>
+        <v>1.058655280842105</v>
       </c>
       <c r="R19">
-        <v>1.007870521755799</v>
+        <v>1.303885950282456</v>
       </c>
       <c r="S19">
-        <v>1.017081456782612</v>
+        <v>1.597344648666666</v>
       </c>
       <c r="T19">
-        <v>1.007870521755799</v>
+        <v>1.303885950282456</v>
       </c>
       <c r="U19">
-        <v>1.005418932213839</v>
+        <v>1.216860161922368</v>
       </c>
       <c r="V19">
-        <v>0.9984214174725754</v>
+        <v>0.9885694698757892</v>
       </c>
       <c r="W19">
-        <v>1.003390330711705</v>
+        <v>1.130161807211184</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.330231073684211</v>
+      </c>
+      <c r="D20">
+        <v>2.674723384315788</v>
+      </c>
+      <c r="E20">
+        <v>2.674723384315788</v>
+      </c>
+      <c r="F20">
+        <v>1.161527764842105</v>
+      </c>
+      <c r="G20">
+        <v>0.07540670168947368</v>
+      </c>
+      <c r="H20">
+        <v>0.07540670168947368</v>
+      </c>
+      <c r="I20">
+        <v>0.07540670168947368</v>
+      </c>
+      <c r="J20">
+        <v>0.68464055</v>
+      </c>
+      <c r="K20">
+        <v>0.9557827968421051</v>
+      </c>
+      <c r="L20">
+        <v>0.4001451778947369</v>
+      </c>
+      <c r="M20">
+        <v>1.758837008421053</v>
+      </c>
+      <c r="N20">
+        <v>0.07540670168947368</v>
+      </c>
+      <c r="O20">
+        <v>1.161527764842105</v>
+      </c>
+      <c r="P20">
+        <v>1.918125574578947</v>
+      </c>
+      <c r="Q20">
+        <v>1.058655280842105</v>
+      </c>
+      <c r="R20">
+        <v>1.303885950282456</v>
+      </c>
+      <c r="S20">
+        <v>1.597344648666666</v>
+      </c>
+      <c r="T20">
+        <v>1.303885950282456</v>
+      </c>
+      <c r="U20">
+        <v>1.216860161922368</v>
+      </c>
+      <c r="V20">
+        <v>0.9885694698757892</v>
+      </c>
+      <c r="W20">
+        <v>1.130161807211184</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.236674189962504</v>
+      </c>
+      <c r="D21">
+        <v>0.3862134170529797</v>
+      </c>
+      <c r="E21">
+        <v>0.3862134170529797</v>
+      </c>
+      <c r="F21">
+        <v>1.823256695440803</v>
+      </c>
+      <c r="G21">
+        <v>0.4366272723675221</v>
+      </c>
+      <c r="H21">
+        <v>0.4366272723675221</v>
+      </c>
+      <c r="I21">
+        <v>0.4366272723675221</v>
+      </c>
+      <c r="J21">
+        <v>1.355492994251532</v>
+      </c>
+      <c r="K21">
+        <v>0.8267191513022921</v>
+      </c>
+      <c r="L21">
+        <v>0.7841456189156453</v>
+      </c>
+      <c r="M21">
+        <v>0.6567729082941093</v>
+      </c>
+      <c r="N21">
+        <v>0.4366272723675221</v>
+      </c>
+      <c r="O21">
+        <v>1.823256695440803</v>
+      </c>
+      <c r="P21">
+        <v>1.104735056246891</v>
+      </c>
+      <c r="Q21">
+        <v>1.324987923371548</v>
+      </c>
+      <c r="R21">
+        <v>0.8820324616204349</v>
+      </c>
+      <c r="S21">
+        <v>1.012063087932025</v>
+      </c>
+      <c r="T21">
+        <v>0.8820324616204349</v>
+      </c>
+      <c r="U21">
+        <v>0.8682041340408992</v>
+      </c>
+      <c r="V21">
+        <v>0.7818887617062238</v>
+      </c>
+      <c r="W21">
+        <v>0.9382377809484235</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.8541392098058019</v>
+      </c>
+      <c r="D22">
+        <v>1.039018288742479</v>
+      </c>
+      <c r="E22">
+        <v>1.039018288742479</v>
+      </c>
+      <c r="F22">
+        <v>0.6535133014708883</v>
+      </c>
+      <c r="G22">
+        <v>1.283617992978144</v>
+      </c>
+      <c r="H22">
+        <v>1.283617992978144</v>
+      </c>
+      <c r="I22">
+        <v>1.283617992978144</v>
+      </c>
+      <c r="J22">
+        <v>0.9027953238081448</v>
+      </c>
+      <c r="K22">
+        <v>1.090925169322804</v>
+      </c>
+      <c r="L22">
+        <v>1.186105343260666</v>
+      </c>
+      <c r="M22">
+        <v>1.034777544995982</v>
+      </c>
+      <c r="N22">
+        <v>1.283617992978144</v>
+      </c>
+      <c r="O22">
+        <v>0.6535133014708883</v>
+      </c>
+      <c r="P22">
+        <v>0.8462657951066834</v>
+      </c>
+      <c r="Q22">
+        <v>0.872219235396846</v>
+      </c>
+      <c r="R22">
+        <v>0.9920498610638372</v>
+      </c>
+      <c r="S22">
+        <v>0.9278189198453902</v>
+      </c>
+      <c r="T22">
+        <v>0.9920498610638372</v>
+      </c>
+      <c r="U22">
+        <v>1.016768688128579</v>
+      </c>
+      <c r="V22">
+        <v>1.070138549098492</v>
+      </c>
+      <c r="W22">
+        <v>1.005611521798114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.7906552528753793</v>
+      </c>
+      <c r="D23">
+        <v>0.3813712719179747</v>
+      </c>
+      <c r="E23">
+        <v>0.3813712719179747</v>
+      </c>
+      <c r="F23">
+        <v>0.7520861600358772</v>
+      </c>
+      <c r="G23">
+        <v>1.604221700991157</v>
+      </c>
+      <c r="H23">
+        <v>1.604221700991157</v>
+      </c>
+      <c r="I23">
+        <v>1.604221700991157</v>
+      </c>
+      <c r="J23">
+        <v>1.086157487724175</v>
+      </c>
+      <c r="K23">
+        <v>1.022823215719612</v>
+      </c>
+      <c r="L23">
+        <v>1.320078409666073</v>
+      </c>
+      <c r="M23">
+        <v>0.6874346321174459</v>
+      </c>
+      <c r="N23">
+        <v>1.604221700991157</v>
+      </c>
+      <c r="O23">
+        <v>0.7520861600358772</v>
+      </c>
+      <c r="P23">
+        <v>0.566728715976926</v>
+      </c>
+      <c r="Q23">
+        <v>0.8874546878777445</v>
+      </c>
+      <c r="R23">
+        <v>0.9125597109816695</v>
+      </c>
+      <c r="S23">
+        <v>0.7187602158911547</v>
+      </c>
+      <c r="T23">
+        <v>0.9125597109816695</v>
+      </c>
+      <c r="U23">
+        <v>0.9401255871661551</v>
+      </c>
+      <c r="V23">
+        <v>1.072944809931155</v>
+      </c>
+      <c r="W23">
+        <v>0.9556035163809617</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.014759350725453</v>
+      </c>
+      <c r="D24">
+        <v>0.9779470090928971</v>
+      </c>
+      <c r="E24">
+        <v>0.9779470090928971</v>
+      </c>
+      <c r="F24">
+        <v>1.299517487579263</v>
+      </c>
+      <c r="G24">
+        <v>1.131824778943258</v>
+      </c>
+      <c r="H24">
+        <v>1.131824778943258</v>
+      </c>
+      <c r="I24">
+        <v>1.131824778943258</v>
+      </c>
+      <c r="J24">
+        <v>1.146265573757279</v>
+      </c>
+      <c r="K24">
+        <v>0.787095813356969</v>
+      </c>
+      <c r="L24">
+        <v>0.868430043618947</v>
+      </c>
+      <c r="M24">
+        <v>0.8676690751601859</v>
+      </c>
+      <c r="N24">
+        <v>1.131824778943258</v>
+      </c>
+      <c r="O24">
+        <v>1.299517487579263</v>
+      </c>
+      <c r="P24">
+        <v>1.13873224833608</v>
+      </c>
+      <c r="Q24">
+        <v>1.043306650468116</v>
+      </c>
+      <c r="R24">
+        <v>1.136429758538473</v>
+      </c>
+      <c r="S24">
+        <v>1.021520103343043</v>
+      </c>
+      <c r="T24">
+        <v>1.136429758538473</v>
+      </c>
+      <c r="U24">
+        <v>1.049096272243097</v>
+      </c>
+      <c r="V24">
+        <v>1.065641973583129</v>
+      </c>
+      <c r="W24">
+        <v>1.011688641529282</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.236674189962504</v>
+      </c>
+      <c r="D25">
+        <v>0.3862134170529797</v>
+      </c>
+      <c r="E25">
+        <v>0.3862134170529797</v>
+      </c>
+      <c r="F25">
+        <v>1.823256695440804</v>
+      </c>
+      <c r="G25">
+        <v>0.4366272723675219</v>
+      </c>
+      <c r="H25">
+        <v>0.4366272723675219</v>
+      </c>
+      <c r="I25">
+        <v>0.4366272723675219</v>
+      </c>
+      <c r="J25">
+        <v>1.355492994251532</v>
+      </c>
+      <c r="K25">
+        <v>0.8267191513022921</v>
+      </c>
+      <c r="L25">
+        <v>0.7841456189156453</v>
+      </c>
+      <c r="M25">
+        <v>0.6567729082941093</v>
+      </c>
+      <c r="N25">
+        <v>0.4366272723675219</v>
+      </c>
+      <c r="O25">
+        <v>1.823256695440804</v>
+      </c>
+      <c r="P25">
+        <v>1.104735056246892</v>
+      </c>
+      <c r="Q25">
+        <v>1.324987923371548</v>
+      </c>
+      <c r="R25">
+        <v>0.882032461620435</v>
+      </c>
+      <c r="S25">
+        <v>1.012063087932025</v>
+      </c>
+      <c r="T25">
+        <v>0.882032461620435</v>
+      </c>
+      <c r="U25">
+        <v>0.8682041340408994</v>
+      </c>
+      <c r="V25">
+        <v>0.7818887617062239</v>
+      </c>
+      <c r="W25">
+        <v>0.9382377809484235</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.8541392098058022</v>
+      </c>
+      <c r="D26">
+        <v>1.039018288742479</v>
+      </c>
+      <c r="E26">
+        <v>1.039018288742479</v>
+      </c>
+      <c r="F26">
+        <v>0.6535133014708882</v>
+      </c>
+      <c r="G26">
+        <v>1.283617992978144</v>
+      </c>
+      <c r="H26">
+        <v>1.283617992978144</v>
+      </c>
+      <c r="I26">
+        <v>1.283617992978144</v>
+      </c>
+      <c r="J26">
+        <v>0.902795323808145</v>
+      </c>
+      <c r="K26">
+        <v>1.090925169322804</v>
+      </c>
+      <c r="L26">
+        <v>1.186105343260665</v>
+      </c>
+      <c r="M26">
+        <v>1.034777544995982</v>
+      </c>
+      <c r="N26">
+        <v>1.283617992978144</v>
+      </c>
+      <c r="O26">
+        <v>0.6535133014708882</v>
+      </c>
+      <c r="P26">
+        <v>0.8462657951066834</v>
+      </c>
+      <c r="Q26">
+        <v>0.8722192353968459</v>
+      </c>
+      <c r="R26">
+        <v>0.9920498610638372</v>
+      </c>
+      <c r="S26">
+        <v>0.9278189198453902</v>
+      </c>
+      <c r="T26">
+        <v>0.992049861063837</v>
+      </c>
+      <c r="U26">
+        <v>1.016768688128579</v>
+      </c>
+      <c r="V26">
+        <v>1.070138549098492</v>
+      </c>
+      <c r="W26">
+        <v>1.005611521798114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.121226390920556</v>
+      </c>
+      <c r="D27">
+        <v>1.071443645091521</v>
+      </c>
+      <c r="E27">
+        <v>1.071443645091521</v>
+      </c>
+      <c r="F27">
+        <v>0.8799281229627143</v>
+      </c>
+      <c r="G27">
+        <v>0.8265228570921981</v>
+      </c>
+      <c r="H27">
+        <v>0.8265228570921981</v>
+      </c>
+      <c r="I27">
+        <v>0.8265228570921981</v>
+      </c>
+      <c r="J27">
+        <v>0.8909788351126369</v>
+      </c>
+      <c r="K27">
+        <v>1.067215321433336</v>
+      </c>
+      <c r="L27">
+        <v>0.9686420298896147</v>
+      </c>
+      <c r="M27">
+        <v>1.099460130564432</v>
+      </c>
+      <c r="N27">
+        <v>0.8265228570921981</v>
+      </c>
+      <c r="O27">
+        <v>0.8799281229627143</v>
+      </c>
+      <c r="P27">
+        <v>0.9756858840271174</v>
+      </c>
+      <c r="Q27">
+        <v>0.973571722198025</v>
+      </c>
+      <c r="R27">
+        <v>0.9259648750488111</v>
+      </c>
+      <c r="S27">
+        <v>1.006195696495857</v>
+      </c>
+      <c r="T27">
+        <v>0.9259648750488111</v>
+      </c>
+      <c r="U27">
+        <v>0.9612774866449423</v>
+      </c>
+      <c r="V27">
+        <v>0.9343265607343934</v>
+      </c>
+      <c r="W27">
+        <v>0.990677166633376</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.180149494382773</v>
+      </c>
+      <c r="D28">
+        <v>0.9582265312169198</v>
+      </c>
+      <c r="E28">
+        <v>0.9582265312169198</v>
+      </c>
+      <c r="F28">
+        <v>1.233877211760958</v>
+      </c>
+      <c r="G28">
+        <v>0.7785983686973932</v>
+      </c>
+      <c r="H28">
+        <v>0.7785983686973932</v>
+      </c>
+      <c r="I28">
+        <v>0.7785983686973932</v>
+      </c>
+      <c r="J28">
+        <v>1.000342938832736</v>
+      </c>
+      <c r="K28">
+        <v>0.9427388541920635</v>
+      </c>
+      <c r="L28">
+        <v>0.8610225859359261</v>
+      </c>
+      <c r="M28">
+        <v>0.9845734689644473</v>
+      </c>
+      <c r="N28">
+        <v>0.7785983686973932</v>
+      </c>
+      <c r="O28">
+        <v>1.233877211760958</v>
+      </c>
+      <c r="P28">
+        <v>1.096051871488939</v>
+      </c>
+      <c r="Q28">
+        <v>1.088308032976511</v>
+      </c>
+      <c r="R28">
+        <v>0.9902340372250903</v>
+      </c>
+      <c r="S28">
+        <v>1.04494753238998</v>
+      </c>
+      <c r="T28">
+        <v>0.9902340372250903</v>
+      </c>
+      <c r="U28">
+        <v>0.9783602414668336</v>
+      </c>
+      <c r="V28">
+        <v>0.9384078669129454</v>
+      </c>
+      <c r="W28">
+        <v>0.9924411817479022</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.136648369351586</v>
+      </c>
+      <c r="D29">
+        <v>0.2361655954886119</v>
+      </c>
+      <c r="E29">
+        <v>0.2361655954886119</v>
+      </c>
+      <c r="F29">
+        <v>1.435195048962009</v>
+      </c>
+      <c r="G29">
+        <v>1.032695940972739</v>
+      </c>
+      <c r="H29">
+        <v>1.032695940972739</v>
+      </c>
+      <c r="I29">
+        <v>1.032695940972739</v>
+      </c>
+      <c r="J29">
+        <v>1.216383614942301</v>
+      </c>
+      <c r="K29">
+        <v>0.8575478142893345</v>
+      </c>
+      <c r="L29">
+        <v>1.005227384721612</v>
+      </c>
+      <c r="M29">
+        <v>0.5643051768892654</v>
+      </c>
+      <c r="N29">
+        <v>1.032695940972739</v>
+      </c>
+      <c r="O29">
+        <v>1.435195048962009</v>
+      </c>
+      <c r="P29">
+        <v>0.8356803222253106</v>
+      </c>
+      <c r="Q29">
+        <v>1.146371431625672</v>
+      </c>
+      <c r="R29">
+        <v>0.90135219514112</v>
+      </c>
+      <c r="S29">
+        <v>0.8429694862466519</v>
+      </c>
+      <c r="T29">
+        <v>0.90135219514112</v>
+      </c>
+      <c r="U29">
+        <v>0.8904010999281736</v>
+      </c>
+      <c r="V29">
+        <v>0.9188600681370866</v>
+      </c>
+      <c r="W29">
+        <v>0.9355211182021823</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/CubeA-HW15.xlsx
+++ b/JupyterNotebooks/AvgHW/CubeA-HW15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,67 +606,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -742,67 +748,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.030796755464435</v>
+        <v>1.018798200344568</v>
       </c>
       <c r="D4">
-        <v>1.634129755512775</v>
+        <v>1.652077867493827</v>
       </c>
       <c r="E4">
-        <v>1.634129755512775</v>
+        <v>1.652077867493827</v>
       </c>
       <c r="F4">
-        <v>0.8662962979110247</v>
+        <v>0.8577633827066675</v>
       </c>
       <c r="G4">
-        <v>0.794435137251811</v>
+        <v>0.8099589429048737</v>
       </c>
       <c r="H4">
-        <v>0.794435137251811</v>
+        <v>0.8099589429048737</v>
       </c>
       <c r="I4">
-        <v>0.794435137251811</v>
+        <v>0.8099589429048737</v>
       </c>
       <c r="J4">
-        <v>0.8413621255558192</v>
+        <v>0.843058442093925</v>
       </c>
       <c r="K4">
-        <v>1.045703830660214</v>
+        <v>1.042508557278405</v>
       </c>
       <c r="L4">
-        <v>0.8778049674681087</v>
+        <v>0.8846410477086178</v>
       </c>
       <c r="M4">
-        <v>1.311575045434492</v>
+        <v>1.309011133879807</v>
       </c>
       <c r="N4">
-        <v>0.794435137251811</v>
+        <v>0.8099589429048737</v>
       </c>
       <c r="O4">
-        <v>0.8662962979110247</v>
+        <v>0.8577633827066675</v>
       </c>
       <c r="P4">
-        <v>1.2502130267119</v>
+        <v>1.254920625100247</v>
       </c>
       <c r="Q4">
-        <v>0.9560000642856196</v>
+        <v>0.9501359699925362</v>
       </c>
       <c r="R4">
-        <v>1.098287063558537</v>
+        <v>1.106600064368456</v>
       </c>
       <c r="S4">
-        <v>1.182043294694671</v>
+        <v>1.184116602492966</v>
       </c>
       <c r="T4">
-        <v>1.098287063558537</v>
+        <v>1.106600064368456</v>
       </c>
       <c r="U4">
-        <v>1.085141255333956</v>
+        <v>1.090577187595943</v>
       </c>
       <c r="V4">
-        <v>1.027000031717527</v>
+        <v>1.03445353865773</v>
       </c>
       <c r="W4">
-        <v>1.050262989407335</v>
+        <v>1.052227196801336</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -813,67 +819,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.024319525240635</v>
+        <v>1.386553364468734</v>
       </c>
       <c r="D5">
-        <v>1.829059346992501</v>
+        <v>2.246665001627707</v>
       </c>
       <c r="E5">
-        <v>1.829059346992501</v>
+        <v>2.246665001627707</v>
       </c>
       <c r="F5">
-        <v>0.8453080953919297</v>
+        <v>1.28104756183628</v>
       </c>
       <c r="G5">
-        <v>0.7607409781398464</v>
+        <v>0.08312718855682144</v>
       </c>
       <c r="H5">
-        <v>0.7607409781398464</v>
+        <v>0.08312718855682144</v>
       </c>
       <c r="I5">
-        <v>0.7607409781398464</v>
+        <v>0.08312718855682144</v>
       </c>
       <c r="J5">
-        <v>0.8141008487665685</v>
+        <v>0.7549358053961759</v>
       </c>
       <c r="K5">
-        <v>1.037995207701722</v>
+        <v>0.9533909193456067</v>
       </c>
       <c r="L5">
-        <v>0.84679336428674</v>
+        <v>0.426263912799465</v>
       </c>
       <c r="M5">
-        <v>1.377267707412106</v>
+        <v>1.609639936133455</v>
       </c>
       <c r="N5">
-        <v>0.7607409781398464</v>
+        <v>0.08312718855682144</v>
       </c>
       <c r="O5">
-        <v>0.8453080953919297</v>
+        <v>1.28104756183628</v>
       </c>
       <c r="P5">
-        <v>1.337183721192216</v>
+        <v>1.763856281731993</v>
       </c>
       <c r="Q5">
-        <v>0.9416516515468258</v>
+        <v>1.117219240590943</v>
       </c>
       <c r="R5">
-        <v>1.145036140174759</v>
+        <v>1.203613250673603</v>
       </c>
       <c r="S5">
-        <v>1.237454216695384</v>
+        <v>1.493701160936531</v>
       </c>
       <c r="T5">
-        <v>1.145036140174759</v>
+        <v>1.203613250673603</v>
       </c>
       <c r="U5">
-        <v>1.1182759070565</v>
+        <v>1.141057667841604</v>
       </c>
       <c r="V5">
-        <v>1.046768921273169</v>
+        <v>0.9294715719846472</v>
       </c>
       <c r="W5">
-        <v>1.066948134241506</v>
+        <v>1.092702961270531</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -884,67 +890,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.8954225241908778</v>
+        <v>1.030796755464435</v>
       </c>
       <c r="D6">
-        <v>4.271414986509573</v>
+        <v>1.634129755512775</v>
       </c>
       <c r="E6">
-        <v>4.271414986509573</v>
+        <v>1.634129755512775</v>
       </c>
       <c r="F6">
-        <v>0.4384640646596528</v>
+        <v>0.8662962979110247</v>
       </c>
       <c r="G6">
-        <v>0.406588171461148</v>
+        <v>0.794435137251811</v>
       </c>
       <c r="H6">
-        <v>0.406588171461148</v>
+        <v>0.794435137251811</v>
       </c>
       <c r="I6">
-        <v>0.406588171461148</v>
+        <v>0.794435137251811</v>
       </c>
       <c r="J6">
-        <v>0.4281093645249632</v>
+        <v>0.8413621255558192</v>
       </c>
       <c r="K6">
-        <v>1.001055937602813</v>
+        <v>1.045703830660214</v>
       </c>
       <c r="L6">
-        <v>0.5138550667918603</v>
+        <v>0.8778049674681087</v>
       </c>
       <c r="M6">
-        <v>2.252682790481943</v>
+        <v>1.311575045434492</v>
       </c>
       <c r="N6">
-        <v>0.406588171461148</v>
+        <v>0.794435137251811</v>
       </c>
       <c r="O6">
-        <v>0.4384640646596528</v>
+        <v>0.8662962979110247</v>
       </c>
       <c r="P6">
-        <v>2.354939525584613</v>
+        <v>1.2502130267119</v>
       </c>
       <c r="Q6">
-        <v>0.7197600011312328</v>
+        <v>0.9560000642856196</v>
       </c>
       <c r="R6">
-        <v>1.705489074210124</v>
+        <v>1.098287063558537</v>
       </c>
       <c r="S6">
-        <v>1.903644996257346</v>
+        <v>1.182043294694671</v>
       </c>
       <c r="T6">
-        <v>1.705489074210124</v>
+        <v>1.098287063558537</v>
       </c>
       <c r="U6">
-        <v>1.529380790058297</v>
+        <v>1.085141255333956</v>
       </c>
       <c r="V6">
-        <v>1.304822266338867</v>
+        <v>1.027000031717527</v>
       </c>
       <c r="W6">
-        <v>1.275949113277854</v>
+        <v>1.050262989407335</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -955,67 +961,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.017402286266812</v>
+        <v>1.024319525240635</v>
       </c>
       <c r="D7">
-        <v>1.070508679304044</v>
+        <v>1.829059346992501</v>
       </c>
       <c r="E7">
-        <v>1.070508679304044</v>
+        <v>1.829059346992501</v>
       </c>
       <c r="F7">
-        <v>1.007928892386847</v>
+        <v>0.8453080953919297</v>
       </c>
       <c r="G7">
-        <v>0.9556411688672538</v>
+        <v>0.7607409781398464</v>
       </c>
       <c r="H7">
-        <v>0.9556411688672538</v>
+        <v>0.7607409781398464</v>
       </c>
       <c r="I7">
-        <v>0.9556411688672538</v>
+        <v>0.7607409781398464</v>
       </c>
       <c r="J7">
-        <v>0.9851139714954595</v>
+        <v>0.8141008487665685</v>
       </c>
       <c r="K7">
-        <v>0.9991874972447402</v>
+        <v>1.037995207701722</v>
       </c>
       <c r="L7">
-        <v>0.9721052784245563</v>
+        <v>0.84679336428674</v>
       </c>
       <c r="M7">
-        <v>1.034649911139624</v>
+        <v>1.377267707412106</v>
       </c>
       <c r="N7">
-        <v>0.9556411688672538</v>
+        <v>0.7607409781398464</v>
       </c>
       <c r="O7">
-        <v>1.007928892386847</v>
+        <v>0.8453080953919297</v>
       </c>
       <c r="P7">
-        <v>1.039218785845445</v>
+        <v>1.337183721192216</v>
       </c>
       <c r="Q7">
-        <v>1.003558194815793</v>
+        <v>0.9416516515468258</v>
       </c>
       <c r="R7">
-        <v>1.011359580186048</v>
+        <v>1.145036140174759</v>
       </c>
       <c r="S7">
-        <v>1.025875022978543</v>
+        <v>1.237454216695384</v>
       </c>
       <c r="T7">
-        <v>1.011359580186048</v>
+        <v>1.145036140174759</v>
       </c>
       <c r="U7">
-        <v>1.008316559450721</v>
+        <v>1.1182759070565</v>
       </c>
       <c r="V7">
-        <v>0.9977814813340276</v>
+        <v>1.046768921273169</v>
       </c>
       <c r="W7">
-        <v>1.005317210641167</v>
+        <v>1.066948134241506</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1026,67 +1032,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.0000408271084</v>
+        <v>0.8954225241908778</v>
       </c>
       <c r="D8">
-        <v>1.00693016190881</v>
+        <v>4.271414986509573</v>
       </c>
       <c r="E8">
-        <v>1.00693016190881</v>
+        <v>4.271414986509573</v>
       </c>
       <c r="F8">
-        <v>1.000025015734572</v>
+        <v>0.4384640646596528</v>
       </c>
       <c r="G8">
-        <v>0.9974922504345047</v>
+        <v>0.406588171461148</v>
       </c>
       <c r="H8">
-        <v>0.9974922504345047</v>
+        <v>0.406588171461148</v>
       </c>
       <c r="I8">
-        <v>0.9974922504345047</v>
+        <v>0.406588171461148</v>
       </c>
       <c r="J8">
-        <v>0.9990840094100132</v>
+        <v>0.4281093645249632</v>
       </c>
       <c r="K8">
-        <v>0.9998558204311196</v>
+        <v>1.001055937602813</v>
       </c>
       <c r="L8">
-        <v>0.9982650620352568</v>
+        <v>0.5138550667918603</v>
       </c>
       <c r="M8">
-        <v>1.003126942127246</v>
+        <v>2.252682790481943</v>
       </c>
       <c r="N8">
-        <v>0.9974922504345047</v>
+        <v>0.406588171461148</v>
       </c>
       <c r="O8">
-        <v>1.000025015734572</v>
+        <v>0.4384640646596528</v>
       </c>
       <c r="P8">
-        <v>1.003477588821691</v>
+        <v>2.354939525584613</v>
       </c>
       <c r="Q8">
-        <v>0.9999404180828457</v>
+        <v>0.7197600011312328</v>
       </c>
       <c r="R8">
-        <v>1.001482476025962</v>
+        <v>1.705489074210124</v>
       </c>
       <c r="S8">
-        <v>1.002270332691501</v>
+        <v>1.903644996257346</v>
       </c>
       <c r="T8">
-        <v>1.001482476025962</v>
+        <v>1.705489074210124</v>
       </c>
       <c r="U8">
-        <v>1.001075812127252</v>
+        <v>1.529380790058297</v>
       </c>
       <c r="V8">
-        <v>1.000359099788702</v>
+        <v>1.304822266338867</v>
       </c>
       <c r="W8">
-        <v>1.00060251114874</v>
+        <v>1.275949113277854</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1097,67 +1103,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.029011019519943</v>
+        <v>1.017402286266812</v>
       </c>
       <c r="D9">
-        <v>1.124637345903445</v>
+        <v>1.070508679304044</v>
       </c>
       <c r="E9">
-        <v>1.124637345903445</v>
+        <v>1.070508679304044</v>
       </c>
       <c r="F9">
-        <v>1.016948632859245</v>
+        <v>1.007928892386847</v>
       </c>
       <c r="G9">
-        <v>0.9255728080078336</v>
+        <v>0.9556411688672538</v>
       </c>
       <c r="H9">
-        <v>0.9255728080078336</v>
+        <v>0.9556411688672538</v>
       </c>
       <c r="I9">
-        <v>0.9255728080078336</v>
+        <v>0.9556411688672538</v>
       </c>
       <c r="J9">
-        <v>0.9761715699104521</v>
+        <v>0.9851139714954595</v>
       </c>
       <c r="K9">
-        <v>0.9953828218048593</v>
+        <v>0.9991874972447402</v>
       </c>
       <c r="L9">
-        <v>0.9517635429038405</v>
+        <v>0.9721052784245563</v>
       </c>
       <c r="M9">
-        <v>1.056902239544269</v>
+        <v>1.034649911139624</v>
       </c>
       <c r="N9">
-        <v>0.9255728080078336</v>
+        <v>0.9556411688672538</v>
       </c>
       <c r="O9">
-        <v>1.016948632859245</v>
+        <v>1.007928892386847</v>
       </c>
       <c r="P9">
-        <v>1.070792989381345</v>
+        <v>1.039218785845445</v>
       </c>
       <c r="Q9">
-        <v>1.006165727332052</v>
+        <v>1.003558194815793</v>
       </c>
       <c r="R9">
-        <v>1.022386262256841</v>
+        <v>1.011359580186048</v>
       </c>
       <c r="S9">
-        <v>1.04565626685585</v>
+        <v>1.025875022978543</v>
       </c>
       <c r="T9">
-        <v>1.022386262256841</v>
+        <v>1.011359580186048</v>
       </c>
       <c r="U9">
-        <v>1.015635402143846</v>
+        <v>1.008316559450721</v>
       </c>
       <c r="V9">
-        <v>0.9976228833166434</v>
+        <v>0.9977814813340276</v>
       </c>
       <c r="W9">
-        <v>1.009548747556736</v>
+        <v>1.005317210641167</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1168,67 +1174,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.882050976651139</v>
+        <v>1.0000408271084</v>
       </c>
       <c r="D10">
-        <v>4.365436990060756</v>
+        <v>1.00693016190881</v>
       </c>
       <c r="E10">
-        <v>4.365436990060756</v>
+        <v>1.00693016190881</v>
       </c>
       <c r="F10">
-        <v>0.4433721930565363</v>
+        <v>1.000025015734572</v>
       </c>
       <c r="G10">
-        <v>0.4191384526098863</v>
+        <v>0.9974922504345047</v>
       </c>
       <c r="H10">
-        <v>0.4191384526098863</v>
+        <v>0.9974922504345047</v>
       </c>
       <c r="I10">
-        <v>0.4191384526098863</v>
+        <v>0.9974922504345047</v>
       </c>
       <c r="J10">
-        <v>0.4299124682335906</v>
+        <v>0.9990840094100132</v>
       </c>
       <c r="K10">
-        <v>0.9791577300431825</v>
+        <v>0.9998558204311196</v>
       </c>
       <c r="L10">
-        <v>0.493517537066579</v>
+        <v>0.9982650620352568</v>
       </c>
       <c r="M10">
-        <v>2.272867511980373</v>
+        <v>1.003126942127246</v>
       </c>
       <c r="N10">
-        <v>0.4191384526098863</v>
+        <v>0.9974922504345047</v>
       </c>
       <c r="O10">
-        <v>0.4433721930565363</v>
+        <v>1.000025015734572</v>
       </c>
       <c r="P10">
-        <v>2.404404591558646</v>
+        <v>1.003477588821691</v>
       </c>
       <c r="Q10">
-        <v>0.7112649615498594</v>
+        <v>0.9999404180828457</v>
       </c>
       <c r="R10">
-        <v>1.74264921190906</v>
+        <v>1.001482476025962</v>
       </c>
       <c r="S10">
-        <v>1.929322304386825</v>
+        <v>1.002270332691501</v>
       </c>
       <c r="T10">
-        <v>1.74264921190906</v>
+        <v>1.001482476025962</v>
       </c>
       <c r="U10">
-        <v>1.55177634144259</v>
+        <v>1.001075812127252</v>
       </c>
       <c r="V10">
-        <v>1.325248763676049</v>
+        <v>1.000359099788702</v>
       </c>
       <c r="W10">
-        <v>1.285681732462755</v>
+        <v>1.00060251114874</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1239,67 +1245,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9543021469124061</v>
+        <v>1.029011019519943</v>
       </c>
       <c r="D11">
-        <v>1.501514816175745</v>
+        <v>1.124637345903445</v>
       </c>
       <c r="E11">
-        <v>1.501514816175745</v>
+        <v>1.124637345903445</v>
       </c>
       <c r="F11">
-        <v>0.8195554121277169</v>
+        <v>1.016948632859245</v>
       </c>
       <c r="G11">
-        <v>1.002440205197953</v>
+        <v>0.9255728080078336</v>
       </c>
       <c r="H11">
-        <v>1.002440205197953</v>
+        <v>0.9255728080078336</v>
       </c>
       <c r="I11">
-        <v>1.002440205197953</v>
+        <v>0.9255728080078336</v>
       </c>
       <c r="J11">
-        <v>0.8775120294300615</v>
+        <v>0.9761715699104521</v>
       </c>
       <c r="K11">
-        <v>1.024653835161453</v>
+        <v>0.9953828218048593</v>
       </c>
       <c r="L11">
-        <v>0.9586548285652998</v>
+        <v>0.9517635429038405</v>
       </c>
       <c r="M11">
-        <v>1.21893209525095</v>
+        <v>1.056902239544269</v>
       </c>
       <c r="N11">
-        <v>1.002440205197953</v>
+        <v>0.9255728080078336</v>
       </c>
       <c r="O11">
-        <v>0.8195554121277169</v>
+        <v>1.016948632859245</v>
       </c>
       <c r="P11">
-        <v>1.160535114151731</v>
+        <v>1.070792989381345</v>
       </c>
       <c r="Q11">
-        <v>0.9221046236445851</v>
+        <v>1.006165727332052</v>
       </c>
       <c r="R11">
-        <v>1.107836811167138</v>
+        <v>1.022386262256841</v>
       </c>
       <c r="S11">
-        <v>1.115241354488305</v>
+        <v>1.04565626685585</v>
       </c>
       <c r="T11">
-        <v>1.107836811167138</v>
+        <v>1.022386262256841</v>
       </c>
       <c r="U11">
-        <v>1.087041067165717</v>
+        <v>1.015635402143846</v>
       </c>
       <c r="V11">
-        <v>1.070120894772164</v>
+        <v>0.9976228833166434</v>
       </c>
       <c r="W11">
-        <v>1.044695671102698</v>
+        <v>1.009548747556736</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1310,67 +1316,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9795022107410517</v>
+        <v>0.882050976651139</v>
       </c>
       <c r="D12">
-        <v>1.977961501645889</v>
+        <v>4.365436990060756</v>
       </c>
       <c r="E12">
-        <v>1.977961501645889</v>
+        <v>4.365436990060756</v>
       </c>
       <c r="F12">
-        <v>0.8397026026505284</v>
+        <v>0.4433721930565363</v>
       </c>
       <c r="G12">
-        <v>0.8381446943928436</v>
+        <v>0.4191384526098863</v>
       </c>
       <c r="H12">
-        <v>0.8381446943928436</v>
+        <v>0.4191384526098863</v>
       </c>
       <c r="I12">
-        <v>0.8381446943928436</v>
+        <v>0.4191384526098863</v>
       </c>
       <c r="J12">
-        <v>0.8253020667063146</v>
+        <v>0.4299124682335906</v>
       </c>
       <c r="K12">
-        <v>0.9908106179999984</v>
+        <v>0.9791577300431825</v>
       </c>
       <c r="L12">
-        <v>0.831240452915789</v>
+        <v>0.493517537066579</v>
       </c>
       <c r="M12">
-        <v>1.389834543545267</v>
+        <v>2.272867511980373</v>
       </c>
       <c r="N12">
-        <v>0.8381446943928436</v>
+        <v>0.4191384526098863</v>
       </c>
       <c r="O12">
-        <v>0.8397026026505284</v>
+        <v>0.4433721930565363</v>
       </c>
       <c r="P12">
-        <v>1.408832052148209</v>
+        <v>2.404404591558646</v>
       </c>
       <c r="Q12">
-        <v>0.9152566103252634</v>
+        <v>0.7112649615498594</v>
       </c>
       <c r="R12">
-        <v>1.21860293289642</v>
+        <v>1.74264921190906</v>
       </c>
       <c r="S12">
-        <v>1.269491574098805</v>
+        <v>1.929322304386825</v>
       </c>
       <c r="T12">
-        <v>1.21860293289642</v>
+        <v>1.74264921190906</v>
       </c>
       <c r="U12">
-        <v>1.161654854172315</v>
+        <v>1.55177634144259</v>
       </c>
       <c r="V12">
-        <v>1.096952822216421</v>
+        <v>1.325248763676049</v>
       </c>
       <c r="W12">
-        <v>1.08406233632471</v>
+        <v>1.285681732462755</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1381,67 +1387,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9210360183681268</v>
+        <v>0.9543021469124061</v>
       </c>
       <c r="D13">
-        <v>0.7005492021098065</v>
+        <v>1.501514816175745</v>
       </c>
       <c r="E13">
-        <v>0.7005492021098065</v>
+        <v>1.501514816175745</v>
       </c>
       <c r="F13">
-        <v>1.159672416934001</v>
+        <v>0.8195554121277169</v>
       </c>
       <c r="G13">
-        <v>1.261769233970184</v>
+        <v>1.002440205197953</v>
       </c>
       <c r="H13">
-        <v>1.261769233970184</v>
+        <v>1.002440205197953</v>
       </c>
       <c r="I13">
-        <v>1.261769233970184</v>
+        <v>1.002440205197953</v>
       </c>
       <c r="J13">
-        <v>1.169664362235142</v>
+        <v>0.8775120294300615</v>
       </c>
       <c r="K13">
-        <v>0.8670037508302717</v>
+        <v>1.024653835161453</v>
       </c>
       <c r="L13">
-        <v>1.044840808234665</v>
+        <v>0.9586548285652998</v>
       </c>
       <c r="M13">
-        <v>0.7562594439224797</v>
+        <v>1.21893209525095</v>
       </c>
       <c r="N13">
-        <v>1.261769233970184</v>
+        <v>1.002440205197953</v>
       </c>
       <c r="O13">
-        <v>1.159672416934001</v>
+        <v>0.8195554121277169</v>
       </c>
       <c r="P13">
-        <v>0.9301108095219038</v>
+        <v>1.160535114151731</v>
       </c>
       <c r="Q13">
-        <v>1.013338083882136</v>
+        <v>0.9221046236445851</v>
       </c>
       <c r="R13">
-        <v>1.040663617671331</v>
+        <v>1.107836811167138</v>
       </c>
       <c r="S13">
-        <v>0.9090751232913599</v>
+        <v>1.115241354488305</v>
       </c>
       <c r="T13">
-        <v>1.040663617671331</v>
+        <v>1.107836811167138</v>
       </c>
       <c r="U13">
-        <v>0.997248650961066</v>
+        <v>1.087041067165717</v>
       </c>
       <c r="V13">
-        <v>1.05015276756289</v>
+        <v>1.070120894772164</v>
       </c>
       <c r="W13">
-        <v>0.9850994045755845</v>
+        <v>1.044695671102698</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1452,67 +1458,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.7731529699999997</v>
+        <v>0.9795022107410517</v>
       </c>
       <c r="D14">
-        <v>6.887563199999992</v>
+        <v>1.977961501645889</v>
       </c>
       <c r="E14">
-        <v>6.887563199999992</v>
+        <v>1.977961501645889</v>
       </c>
       <c r="F14">
-        <v>0.02330075600000002</v>
+        <v>0.8397026026505284</v>
       </c>
       <c r="G14">
-        <v>0.001799323199999997</v>
+        <v>0.8381446943928436</v>
       </c>
       <c r="H14">
-        <v>0.001799323199999997</v>
+        <v>0.8381446943928436</v>
       </c>
       <c r="I14">
-        <v>0.001799323199999997</v>
+        <v>0.8381446943928436</v>
       </c>
       <c r="J14">
-        <v>0.01485347800000001</v>
+        <v>0.8253020667063146</v>
       </c>
       <c r="K14">
-        <v>0.9583655099999996</v>
+        <v>0.9908106179999984</v>
       </c>
       <c r="L14">
-        <v>0.1423060100000003</v>
+        <v>0.831240452915789</v>
       </c>
       <c r="M14">
-        <v>3.193908999999997</v>
+        <v>1.389834543545267</v>
       </c>
       <c r="N14">
-        <v>0.001799323199999997</v>
+        <v>0.8381446943928436</v>
       </c>
       <c r="O14">
-        <v>0.02330075600000002</v>
+        <v>0.8397026026505284</v>
       </c>
       <c r="P14">
-        <v>3.455431977999996</v>
+        <v>1.408832052148209</v>
       </c>
       <c r="Q14">
-        <v>0.4908331329999998</v>
+        <v>0.9152566103252634</v>
       </c>
       <c r="R14">
-        <v>2.304221093066664</v>
+        <v>1.21860293289642</v>
       </c>
       <c r="S14">
-        <v>2.623076488666664</v>
+        <v>1.269491574098805</v>
       </c>
       <c r="T14">
-        <v>2.304221093066664</v>
+        <v>1.21860293289642</v>
       </c>
       <c r="U14">
-        <v>1.967757197299998</v>
+        <v>1.161654854172315</v>
       </c>
       <c r="V14">
-        <v>1.574565622479998</v>
+        <v>1.096952822216421</v>
       </c>
       <c r="W14">
-        <v>1.499406280899999</v>
+        <v>1.08406233632471</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1523,67 +1529,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.7731529700000001</v>
+        <v>0.9210360183681268</v>
       </c>
       <c r="D15">
-        <v>6.8875632</v>
+        <v>0.7005492021098065</v>
       </c>
       <c r="E15">
-        <v>6.8875632</v>
+        <v>0.7005492021098065</v>
       </c>
       <c r="F15">
-        <v>0.023300756</v>
+        <v>1.159672416934001</v>
       </c>
       <c r="G15">
-        <v>0.0017993233</v>
+        <v>1.261769233970184</v>
       </c>
       <c r="H15">
-        <v>0.0017993233</v>
+        <v>1.261769233970184</v>
       </c>
       <c r="I15">
-        <v>0.0017993233</v>
+        <v>1.261769233970184</v>
       </c>
       <c r="J15">
-        <v>0.014853478</v>
+        <v>1.169664362235142</v>
       </c>
       <c r="K15">
-        <v>0.95836551</v>
+        <v>0.8670037508302717</v>
       </c>
       <c r="L15">
-        <v>0.14230601</v>
+        <v>1.044840808234665</v>
       </c>
       <c r="M15">
-        <v>3.193909</v>
+        <v>0.7562594439224797</v>
       </c>
       <c r="N15">
-        <v>0.0017993233</v>
+        <v>1.261769233970184</v>
       </c>
       <c r="O15">
-        <v>0.023300756</v>
+        <v>1.159672416934001</v>
       </c>
       <c r="P15">
-        <v>3.455431978</v>
+        <v>0.9301108095219038</v>
       </c>
       <c r="Q15">
-        <v>0.490833133</v>
+        <v>1.013338083882136</v>
       </c>
       <c r="R15">
-        <v>2.3042210931</v>
+        <v>1.040663617671331</v>
       </c>
       <c r="S15">
-        <v>2.623076488666667</v>
+        <v>0.9090751232913599</v>
       </c>
       <c r="T15">
-        <v>2.3042210931</v>
+        <v>1.040663617671331</v>
       </c>
       <c r="U15">
-        <v>1.967757197325</v>
+        <v>0.997248650961066</v>
       </c>
       <c r="V15">
-        <v>1.57456562252</v>
+        <v>1.05015276756289</v>
       </c>
       <c r="W15">
-        <v>1.4994062809125</v>
+        <v>0.9850994045755845</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1594,67 +1600,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.7731529700000001</v>
+        <v>0.7731529699999997</v>
       </c>
       <c r="D16">
-        <v>6.8875632</v>
+        <v>6.887563199999992</v>
       </c>
       <c r="E16">
-        <v>6.8875632</v>
+        <v>6.887563199999992</v>
       </c>
       <c r="F16">
-        <v>0.023300756</v>
+        <v>0.02330075600000002</v>
       </c>
       <c r="G16">
-        <v>0.0017993233</v>
+        <v>0.001799323199999997</v>
       </c>
       <c r="H16">
-        <v>0.0017993233</v>
+        <v>0.001799323199999997</v>
       </c>
       <c r="I16">
-        <v>0.0017993233</v>
+        <v>0.001799323199999997</v>
       </c>
       <c r="J16">
-        <v>0.014853478</v>
+        <v>0.01485347800000001</v>
       </c>
       <c r="K16">
-        <v>0.95836551</v>
+        <v>0.9583655099999996</v>
       </c>
       <c r="L16">
-        <v>0.14230601</v>
+        <v>0.1423060100000003</v>
       </c>
       <c r="M16">
-        <v>3.193909</v>
+        <v>3.193908999999997</v>
       </c>
       <c r="N16">
-        <v>0.0017993233</v>
+        <v>0.001799323199999997</v>
       </c>
       <c r="O16">
-        <v>0.023300756</v>
+        <v>0.02330075600000002</v>
       </c>
       <c r="P16">
-        <v>3.455431978</v>
+        <v>3.455431977999996</v>
       </c>
       <c r="Q16">
-        <v>0.490833133</v>
+        <v>0.4908331329999998</v>
       </c>
       <c r="R16">
-        <v>2.3042210931</v>
+        <v>2.304221093066664</v>
       </c>
       <c r="S16">
-        <v>2.623076488666667</v>
+        <v>2.623076488666664</v>
       </c>
       <c r="T16">
-        <v>2.3042210931</v>
+        <v>2.304221093066664</v>
       </c>
       <c r="U16">
-        <v>1.967757197325</v>
+        <v>1.967757197299998</v>
       </c>
       <c r="V16">
-        <v>1.57456562252</v>
+        <v>1.574565622479998</v>
       </c>
       <c r="W16">
-        <v>1.4994062809125</v>
+        <v>1.499406280899999</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1665,67 +1671,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.7409778</v>
+        <v>0.7731529700000001</v>
       </c>
       <c r="D17">
-        <v>0.42089376</v>
+        <v>6.8875632</v>
       </c>
       <c r="E17">
-        <v>0.42089376</v>
+        <v>6.8875632</v>
       </c>
       <c r="F17">
-        <v>1.724617</v>
+        <v>0.023300756</v>
       </c>
       <c r="G17">
-        <v>0.11338327</v>
+        <v>0.0017993233</v>
       </c>
       <c r="H17">
-        <v>0.11338327</v>
+        <v>0.0017993233</v>
       </c>
       <c r="I17">
-        <v>0.11338327</v>
+        <v>0.0017993233</v>
       </c>
       <c r="J17">
-        <v>1.0171786</v>
+        <v>0.014853478</v>
       </c>
       <c r="K17">
-        <v>0.89896126</v>
+        <v>0.95836551</v>
       </c>
       <c r="L17">
-        <v>0.57191138</v>
+        <v>0.14230601</v>
       </c>
       <c r="M17">
-        <v>0.82397437</v>
+        <v>3.193909</v>
       </c>
       <c r="N17">
-        <v>0.11338327</v>
+        <v>0.0017993233</v>
       </c>
       <c r="O17">
-        <v>1.724617</v>
+        <v>0.023300756</v>
       </c>
       <c r="P17">
-        <v>1.07275538</v>
+        <v>3.455431978</v>
       </c>
       <c r="Q17">
-        <v>1.31178913</v>
+        <v>0.490833133</v>
       </c>
       <c r="R17">
-        <v>0.7529646766666667</v>
+        <v>2.3042210931</v>
       </c>
       <c r="S17">
-        <v>1.014824006666667</v>
+        <v>2.623076488666667</v>
       </c>
       <c r="T17">
-        <v>0.7529646766666667</v>
+        <v>2.3042210931</v>
       </c>
       <c r="U17">
-        <v>0.7894638225</v>
+        <v>1.967757197325</v>
       </c>
       <c r="V17">
-        <v>0.654247712</v>
+        <v>1.57456562252</v>
       </c>
       <c r="W17">
-        <v>0.9139871799999999</v>
+        <v>1.4994062809125</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1736,67 +1742,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.353124694383562</v>
+        <v>0.7731529700000001</v>
       </c>
       <c r="D18">
-        <v>2.501592980931508</v>
+        <v>6.8875632</v>
       </c>
       <c r="E18">
-        <v>2.501592980931508</v>
+        <v>6.8875632</v>
       </c>
       <c r="F18">
-        <v>1.208304217260274</v>
+        <v>0.023300756</v>
       </c>
       <c r="G18">
-        <v>0.07843166245068492</v>
+        <v>0.0017993233</v>
       </c>
       <c r="H18">
-        <v>0.07843166245068492</v>
+        <v>0.0017993233</v>
       </c>
       <c r="I18">
-        <v>0.07843166245068492</v>
+        <v>0.0017993233</v>
       </c>
       <c r="J18">
-        <v>0.7121660461095892</v>
+        <v>0.014853478</v>
       </c>
       <c r="K18">
-        <v>0.9556766579452053</v>
+        <v>0.95836551</v>
       </c>
       <c r="L18">
-        <v>0.4107413080821917</v>
+        <v>0.14230601</v>
       </c>
       <c r="M18">
-        <v>1.699861447123288</v>
+        <v>3.193909</v>
       </c>
       <c r="N18">
-        <v>0.07843166245068492</v>
+        <v>0.0017993233</v>
       </c>
       <c r="O18">
-        <v>1.208304217260274</v>
+        <v>0.023300756</v>
       </c>
       <c r="P18">
-        <v>1.854948599095891</v>
+        <v>3.455431978</v>
       </c>
       <c r="Q18">
-        <v>1.08199043760274</v>
+        <v>0.490833133</v>
       </c>
       <c r="R18">
-        <v>1.262776286880822</v>
+        <v>2.3042210931</v>
       </c>
       <c r="S18">
-        <v>1.555191285378996</v>
+        <v>2.623076488666667</v>
       </c>
       <c r="T18">
-        <v>1.262776286880822</v>
+        <v>2.3042210931</v>
       </c>
       <c r="U18">
-        <v>1.186001379646918</v>
+        <v>1.967757197325</v>
       </c>
       <c r="V18">
-        <v>0.9644874362076713</v>
+        <v>1.57456562252</v>
       </c>
       <c r="W18">
-        <v>1.114987376785788</v>
+        <v>1.4994062809125</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1807,67 +1813,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.330231073684211</v>
+        <v>1.7409778</v>
       </c>
       <c r="D19">
-        <v>2.674723384315788</v>
+        <v>0.42089376</v>
       </c>
       <c r="E19">
-        <v>2.674723384315788</v>
+        <v>0.42089376</v>
       </c>
       <c r="F19">
-        <v>1.161527764842105</v>
+        <v>1.724617</v>
       </c>
       <c r="G19">
-        <v>0.07540670168947368</v>
+        <v>0.11338327</v>
       </c>
       <c r="H19">
-        <v>0.07540670168947368</v>
+        <v>0.11338327</v>
       </c>
       <c r="I19">
-        <v>0.07540670168947368</v>
+        <v>0.11338327</v>
       </c>
       <c r="J19">
-        <v>0.68464055</v>
+        <v>1.0171786</v>
       </c>
       <c r="K19">
-        <v>0.9557827968421051</v>
+        <v>0.89896126</v>
       </c>
       <c r="L19">
-        <v>0.4001451778947369</v>
+        <v>0.57191138</v>
       </c>
       <c r="M19">
-        <v>1.758837008421053</v>
+        <v>0.82397437</v>
       </c>
       <c r="N19">
-        <v>0.07540670168947368</v>
+        <v>0.11338327</v>
       </c>
       <c r="O19">
-        <v>1.161527764842105</v>
+        <v>1.724617</v>
       </c>
       <c r="P19">
-        <v>1.918125574578947</v>
+        <v>1.07275538</v>
       </c>
       <c r="Q19">
-        <v>1.058655280842105</v>
+        <v>1.31178913</v>
       </c>
       <c r="R19">
-        <v>1.303885950282456</v>
+        <v>0.7529646766666667</v>
       </c>
       <c r="S19">
-        <v>1.597344648666666</v>
+        <v>1.014824006666667</v>
       </c>
       <c r="T19">
-        <v>1.303885950282456</v>
+        <v>0.7529646766666667</v>
       </c>
       <c r="U19">
-        <v>1.216860161922368</v>
+        <v>0.7894638225</v>
       </c>
       <c r="V19">
-        <v>0.9885694698757892</v>
+        <v>0.654247712</v>
       </c>
       <c r="W19">
-        <v>1.130161807211184</v>
+        <v>0.9139871799999999</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1878,67 +1884,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.330231073684211</v>
+        <v>1.353124694383562</v>
       </c>
       <c r="D20">
-        <v>2.674723384315788</v>
+        <v>2.501592980931508</v>
       </c>
       <c r="E20">
-        <v>2.674723384315788</v>
+        <v>2.501592980931508</v>
       </c>
       <c r="F20">
-        <v>1.161527764842105</v>
+        <v>1.208304217260274</v>
       </c>
       <c r="G20">
-        <v>0.07540670168947368</v>
+        <v>0.07843166245068492</v>
       </c>
       <c r="H20">
-        <v>0.07540670168947368</v>
+        <v>0.07843166245068492</v>
       </c>
       <c r="I20">
-        <v>0.07540670168947368</v>
+        <v>0.07843166245068492</v>
       </c>
       <c r="J20">
-        <v>0.68464055</v>
+        <v>0.7121660461095892</v>
       </c>
       <c r="K20">
-        <v>0.9557827968421051</v>
+        <v>0.9556766579452053</v>
       </c>
       <c r="L20">
-        <v>0.4001451778947369</v>
+        <v>0.4107413080821917</v>
       </c>
       <c r="M20">
-        <v>1.758837008421053</v>
+        <v>1.699861447123288</v>
       </c>
       <c r="N20">
-        <v>0.07540670168947368</v>
+        <v>0.07843166245068492</v>
       </c>
       <c r="O20">
-        <v>1.161527764842105</v>
+        <v>1.208304217260274</v>
       </c>
       <c r="P20">
-        <v>1.918125574578947</v>
+        <v>1.854948599095891</v>
       </c>
       <c r="Q20">
-        <v>1.058655280842105</v>
+        <v>1.08199043760274</v>
       </c>
       <c r="R20">
-        <v>1.303885950282456</v>
+        <v>1.262776286880822</v>
       </c>
       <c r="S20">
-        <v>1.597344648666666</v>
+        <v>1.555191285378996</v>
       </c>
       <c r="T20">
-        <v>1.303885950282456</v>
+        <v>1.262776286880822</v>
       </c>
       <c r="U20">
-        <v>1.216860161922368</v>
+        <v>1.186001379646918</v>
       </c>
       <c r="V20">
-        <v>0.9885694698757892</v>
+        <v>0.9644874362076713</v>
       </c>
       <c r="W20">
-        <v>1.130161807211184</v>
+        <v>1.114987376785788</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1949,67 +1955,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.236674189962504</v>
+        <v>1.330231073684211</v>
       </c>
       <c r="D21">
-        <v>0.3862134170529797</v>
+        <v>2.674723384315788</v>
       </c>
       <c r="E21">
-        <v>0.3862134170529797</v>
+        <v>2.674723384315788</v>
       </c>
       <c r="F21">
-        <v>1.823256695440803</v>
+        <v>1.161527764842105</v>
       </c>
       <c r="G21">
-        <v>0.4366272723675221</v>
+        <v>0.07540670168947368</v>
       </c>
       <c r="H21">
-        <v>0.4366272723675221</v>
+        <v>0.07540670168947368</v>
       </c>
       <c r="I21">
-        <v>0.4366272723675221</v>
+        <v>0.07540670168947368</v>
       </c>
       <c r="J21">
-        <v>1.355492994251532</v>
+        <v>0.68464055</v>
       </c>
       <c r="K21">
-        <v>0.8267191513022921</v>
+        <v>0.9557827968421051</v>
       </c>
       <c r="L21">
-        <v>0.7841456189156453</v>
+        <v>0.4001451778947369</v>
       </c>
       <c r="M21">
-        <v>0.6567729082941093</v>
+        <v>1.758837008421053</v>
       </c>
       <c r="N21">
-        <v>0.4366272723675221</v>
+        <v>0.07540670168947368</v>
       </c>
       <c r="O21">
-        <v>1.823256695440803</v>
+        <v>1.161527764842105</v>
       </c>
       <c r="P21">
-        <v>1.104735056246891</v>
+        <v>1.918125574578947</v>
       </c>
       <c r="Q21">
-        <v>1.324987923371548</v>
+        <v>1.058655280842105</v>
       </c>
       <c r="R21">
-        <v>0.8820324616204349</v>
+        <v>1.303885950282456</v>
       </c>
       <c r="S21">
-        <v>1.012063087932025</v>
+        <v>1.597344648666666</v>
       </c>
       <c r="T21">
-        <v>0.8820324616204349</v>
+        <v>1.303885950282456</v>
       </c>
       <c r="U21">
-        <v>0.8682041340408992</v>
+        <v>1.216860161922368</v>
       </c>
       <c r="V21">
-        <v>0.7818887617062238</v>
+        <v>0.9885694698757892</v>
       </c>
       <c r="W21">
-        <v>0.9382377809484235</v>
+        <v>1.130161807211184</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2020,67 +2026,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.8541392098058019</v>
+        <v>1.330231073684211</v>
       </c>
       <c r="D22">
-        <v>1.039018288742479</v>
+        <v>2.674723384315788</v>
       </c>
       <c r="E22">
-        <v>1.039018288742479</v>
+        <v>2.674723384315788</v>
       </c>
       <c r="F22">
-        <v>0.6535133014708883</v>
+        <v>1.161527764842105</v>
       </c>
       <c r="G22">
-        <v>1.283617992978144</v>
+        <v>0.07540670168947368</v>
       </c>
       <c r="H22">
-        <v>1.283617992978144</v>
+        <v>0.07540670168947368</v>
       </c>
       <c r="I22">
-        <v>1.283617992978144</v>
+        <v>0.07540670168947368</v>
       </c>
       <c r="J22">
-        <v>0.9027953238081448</v>
+        <v>0.68464055</v>
       </c>
       <c r="K22">
-        <v>1.090925169322804</v>
+        <v>0.9557827968421051</v>
       </c>
       <c r="L22">
-        <v>1.186105343260666</v>
+        <v>0.4001451778947369</v>
       </c>
       <c r="M22">
-        <v>1.034777544995982</v>
+        <v>1.758837008421053</v>
       </c>
       <c r="N22">
-        <v>1.283617992978144</v>
+        <v>0.07540670168947368</v>
       </c>
       <c r="O22">
-        <v>0.6535133014708883</v>
+        <v>1.161527764842105</v>
       </c>
       <c r="P22">
-        <v>0.8462657951066834</v>
+        <v>1.918125574578947</v>
       </c>
       <c r="Q22">
-        <v>0.872219235396846</v>
+        <v>1.058655280842105</v>
       </c>
       <c r="R22">
-        <v>0.9920498610638372</v>
+        <v>1.303885950282456</v>
       </c>
       <c r="S22">
-        <v>0.9278189198453902</v>
+        <v>1.597344648666666</v>
       </c>
       <c r="T22">
-        <v>0.9920498610638372</v>
+        <v>1.303885950282456</v>
       </c>
       <c r="U22">
-        <v>1.016768688128579</v>
+        <v>1.216860161922368</v>
       </c>
       <c r="V22">
-        <v>1.070138549098492</v>
+        <v>0.9885694698757892</v>
       </c>
       <c r="W22">
-        <v>1.005611521798114</v>
+        <v>1.130161807211184</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2091,67 +2097,67 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.7906552528753793</v>
+        <v>1.236674189962504</v>
       </c>
       <c r="D23">
-        <v>0.3813712719179747</v>
+        <v>0.3862134170529797</v>
       </c>
       <c r="E23">
-        <v>0.3813712719179747</v>
+        <v>0.3862134170529797</v>
       </c>
       <c r="F23">
-        <v>0.7520861600358772</v>
+        <v>1.823256695440803</v>
       </c>
       <c r="G23">
-        <v>1.604221700991157</v>
+        <v>0.4366272723675221</v>
       </c>
       <c r="H23">
-        <v>1.604221700991157</v>
+        <v>0.4366272723675221</v>
       </c>
       <c r="I23">
-        <v>1.604221700991157</v>
+        <v>0.4366272723675221</v>
       </c>
       <c r="J23">
-        <v>1.086157487724175</v>
+        <v>1.355492994251532</v>
       </c>
       <c r="K23">
-        <v>1.022823215719612</v>
+        <v>0.8267191513022921</v>
       </c>
       <c r="L23">
-        <v>1.320078409666073</v>
+        <v>0.7841456189156453</v>
       </c>
       <c r="M23">
-        <v>0.6874346321174459</v>
+        <v>0.6567729082941093</v>
       </c>
       <c r="N23">
-        <v>1.604221700991157</v>
+        <v>0.4366272723675221</v>
       </c>
       <c r="O23">
-        <v>0.7520861600358772</v>
+        <v>1.823256695440803</v>
       </c>
       <c r="P23">
-        <v>0.566728715976926</v>
+        <v>1.104735056246891</v>
       </c>
       <c r="Q23">
-        <v>0.8874546878777445</v>
+        <v>1.324987923371548</v>
       </c>
       <c r="R23">
-        <v>0.9125597109816695</v>
+        <v>0.8820324616204349</v>
       </c>
       <c r="S23">
-        <v>0.7187602158911547</v>
+        <v>1.012063087932025</v>
       </c>
       <c r="T23">
-        <v>0.9125597109816695</v>
+        <v>0.8820324616204349</v>
       </c>
       <c r="U23">
-        <v>0.9401255871661551</v>
+        <v>0.8682041340408992</v>
       </c>
       <c r="V23">
-        <v>1.072944809931155</v>
+        <v>0.7818887617062238</v>
       </c>
       <c r="W23">
-        <v>0.9556035163809617</v>
+        <v>0.9382377809484235</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2162,67 +2168,67 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.014759350725453</v>
+        <v>0.8541392098058019</v>
       </c>
       <c r="D24">
-        <v>0.9779470090928971</v>
+        <v>1.039018288742479</v>
       </c>
       <c r="E24">
-        <v>0.9779470090928971</v>
+        <v>1.039018288742479</v>
       </c>
       <c r="F24">
-        <v>1.299517487579263</v>
+        <v>0.6535133014708883</v>
       </c>
       <c r="G24">
-        <v>1.131824778943258</v>
+        <v>1.283617992978144</v>
       </c>
       <c r="H24">
-        <v>1.131824778943258</v>
+        <v>1.283617992978144</v>
       </c>
       <c r="I24">
-        <v>1.131824778943258</v>
+        <v>1.283617992978144</v>
       </c>
       <c r="J24">
-        <v>1.146265573757279</v>
+        <v>0.9027953238081448</v>
       </c>
       <c r="K24">
-        <v>0.787095813356969</v>
+        <v>1.090925169322804</v>
       </c>
       <c r="L24">
-        <v>0.868430043618947</v>
+        <v>1.186105343260666</v>
       </c>
       <c r="M24">
-        <v>0.8676690751601859</v>
+        <v>1.034777544995982</v>
       </c>
       <c r="N24">
-        <v>1.131824778943258</v>
+        <v>1.283617992978144</v>
       </c>
       <c r="O24">
-        <v>1.299517487579263</v>
+        <v>0.6535133014708883</v>
       </c>
       <c r="P24">
-        <v>1.13873224833608</v>
+        <v>0.8462657951066834</v>
       </c>
       <c r="Q24">
-        <v>1.043306650468116</v>
+        <v>0.872219235396846</v>
       </c>
       <c r="R24">
-        <v>1.136429758538473</v>
+        <v>0.9920498610638372</v>
       </c>
       <c r="S24">
-        <v>1.021520103343043</v>
+        <v>0.9278189198453902</v>
       </c>
       <c r="T24">
-        <v>1.136429758538473</v>
+        <v>0.9920498610638372</v>
       </c>
       <c r="U24">
-        <v>1.049096272243097</v>
+        <v>1.016768688128579</v>
       </c>
       <c r="V24">
-        <v>1.065641973583129</v>
+        <v>1.070138549098492</v>
       </c>
       <c r="W24">
-        <v>1.011688641529282</v>
+        <v>1.005611521798114</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2233,67 +2239,67 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.236674189962504</v>
+        <v>0.7906552528753793</v>
       </c>
       <c r="D25">
-        <v>0.3862134170529797</v>
+        <v>0.3813712719179747</v>
       </c>
       <c r="E25">
-        <v>0.3862134170529797</v>
+        <v>0.3813712719179747</v>
       </c>
       <c r="F25">
-        <v>1.823256695440804</v>
+        <v>0.7520861600358772</v>
       </c>
       <c r="G25">
-        <v>0.4366272723675219</v>
+        <v>1.604221700991157</v>
       </c>
       <c r="H25">
-        <v>0.4366272723675219</v>
+        <v>1.604221700991157</v>
       </c>
       <c r="I25">
-        <v>0.4366272723675219</v>
+        <v>1.604221700991157</v>
       </c>
       <c r="J25">
-        <v>1.355492994251532</v>
+        <v>1.086157487724175</v>
       </c>
       <c r="K25">
-        <v>0.8267191513022921</v>
+        <v>1.022823215719612</v>
       </c>
       <c r="L25">
-        <v>0.7841456189156453</v>
+        <v>1.320078409666073</v>
       </c>
       <c r="M25">
-        <v>0.6567729082941093</v>
+        <v>0.6874346321174459</v>
       </c>
       <c r="N25">
-        <v>0.4366272723675219</v>
+        <v>1.604221700991157</v>
       </c>
       <c r="O25">
-        <v>1.823256695440804</v>
+        <v>0.7520861600358772</v>
       </c>
       <c r="P25">
-        <v>1.104735056246892</v>
+        <v>0.566728715976926</v>
       </c>
       <c r="Q25">
-        <v>1.324987923371548</v>
+        <v>0.8874546878777445</v>
       </c>
       <c r="R25">
-        <v>0.882032461620435</v>
+        <v>0.9125597109816695</v>
       </c>
       <c r="S25">
-        <v>1.012063087932025</v>
+        <v>0.7187602158911547</v>
       </c>
       <c r="T25">
-        <v>0.882032461620435</v>
+        <v>0.9125597109816695</v>
       </c>
       <c r="U25">
-        <v>0.8682041340408994</v>
+        <v>0.9401255871661551</v>
       </c>
       <c r="V25">
-        <v>0.7818887617062239</v>
+        <v>1.072944809931155</v>
       </c>
       <c r="W25">
-        <v>0.9382377809484235</v>
+        <v>0.9556035163809617</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2304,67 +2310,67 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.8541392098058022</v>
+        <v>1.014759350725453</v>
       </c>
       <c r="D26">
-        <v>1.039018288742479</v>
+        <v>0.9779470090928971</v>
       </c>
       <c r="E26">
-        <v>1.039018288742479</v>
+        <v>0.9779470090928971</v>
       </c>
       <c r="F26">
-        <v>0.6535133014708882</v>
+        <v>1.299517487579263</v>
       </c>
       <c r="G26">
-        <v>1.283617992978144</v>
+        <v>1.131824778943258</v>
       </c>
       <c r="H26">
-        <v>1.283617992978144</v>
+        <v>1.131824778943258</v>
       </c>
       <c r="I26">
-        <v>1.283617992978144</v>
+        <v>1.131824778943258</v>
       </c>
       <c r="J26">
-        <v>0.902795323808145</v>
+        <v>1.146265573757279</v>
       </c>
       <c r="K26">
-        <v>1.090925169322804</v>
+        <v>0.787095813356969</v>
       </c>
       <c r="L26">
-        <v>1.186105343260665</v>
+        <v>0.868430043618947</v>
       </c>
       <c r="M26">
-        <v>1.034777544995982</v>
+        <v>0.8676690751601859</v>
       </c>
       <c r="N26">
-        <v>1.283617992978144</v>
+        <v>1.131824778943258</v>
       </c>
       <c r="O26">
-        <v>0.6535133014708882</v>
+        <v>1.299517487579263</v>
       </c>
       <c r="P26">
-        <v>0.8462657951066834</v>
+        <v>1.13873224833608</v>
       </c>
       <c r="Q26">
-        <v>0.8722192353968459</v>
+        <v>1.043306650468116</v>
       </c>
       <c r="R26">
-        <v>0.9920498610638372</v>
+        <v>1.136429758538473</v>
       </c>
       <c r="S26">
-        <v>0.9278189198453902</v>
+        <v>1.021520103343043</v>
       </c>
       <c r="T26">
-        <v>0.992049861063837</v>
+        <v>1.136429758538473</v>
       </c>
       <c r="U26">
-        <v>1.016768688128579</v>
+        <v>1.049096272243097</v>
       </c>
       <c r="V26">
-        <v>1.070138549098492</v>
+        <v>1.065641973583129</v>
       </c>
       <c r="W26">
-        <v>1.005611521798114</v>
+        <v>1.011688641529282</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2375,67 +2381,67 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.121226390920556</v>
+        <v>1.236674189962504</v>
       </c>
       <c r="D27">
-        <v>1.071443645091521</v>
+        <v>0.3862134170529797</v>
       </c>
       <c r="E27">
-        <v>1.071443645091521</v>
+        <v>0.3862134170529797</v>
       </c>
       <c r="F27">
-        <v>0.8799281229627143</v>
+        <v>1.823256695440804</v>
       </c>
       <c r="G27">
-        <v>0.8265228570921981</v>
+        <v>0.4366272723675219</v>
       </c>
       <c r="H27">
-        <v>0.8265228570921981</v>
+        <v>0.4366272723675219</v>
       </c>
       <c r="I27">
-        <v>0.8265228570921981</v>
+        <v>0.4366272723675219</v>
       </c>
       <c r="J27">
-        <v>0.8909788351126369</v>
+        <v>1.355492994251532</v>
       </c>
       <c r="K27">
-        <v>1.067215321433336</v>
+        <v>0.8267191513022921</v>
       </c>
       <c r="L27">
-        <v>0.9686420298896147</v>
+        <v>0.7841456189156453</v>
       </c>
       <c r="M27">
-        <v>1.099460130564432</v>
+        <v>0.6567729082941093</v>
       </c>
       <c r="N27">
-        <v>0.8265228570921981</v>
+        <v>0.4366272723675219</v>
       </c>
       <c r="O27">
-        <v>0.8799281229627143</v>
+        <v>1.823256695440804</v>
       </c>
       <c r="P27">
-        <v>0.9756858840271174</v>
+        <v>1.104735056246892</v>
       </c>
       <c r="Q27">
-        <v>0.973571722198025</v>
+        <v>1.324987923371548</v>
       </c>
       <c r="R27">
-        <v>0.9259648750488111</v>
+        <v>0.882032461620435</v>
       </c>
       <c r="S27">
-        <v>1.006195696495857</v>
+        <v>1.012063087932025</v>
       </c>
       <c r="T27">
-        <v>0.9259648750488111</v>
+        <v>0.882032461620435</v>
       </c>
       <c r="U27">
-        <v>0.9612774866449423</v>
+        <v>0.8682041340408994</v>
       </c>
       <c r="V27">
-        <v>0.9343265607343934</v>
+        <v>0.7818887617062239</v>
       </c>
       <c r="W27">
-        <v>0.990677166633376</v>
+        <v>0.9382377809484235</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2446,67 +2452,67 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.180149494382773</v>
+        <v>0.8541392098058022</v>
       </c>
       <c r="D28">
-        <v>0.9582265312169198</v>
+        <v>1.039018288742479</v>
       </c>
       <c r="E28">
-        <v>0.9582265312169198</v>
+        <v>1.039018288742479</v>
       </c>
       <c r="F28">
-        <v>1.233877211760958</v>
+        <v>0.6535133014708882</v>
       </c>
       <c r="G28">
-        <v>0.7785983686973932</v>
+        <v>1.283617992978144</v>
       </c>
       <c r="H28">
-        <v>0.7785983686973932</v>
+        <v>1.283617992978144</v>
       </c>
       <c r="I28">
-        <v>0.7785983686973932</v>
+        <v>1.283617992978144</v>
       </c>
       <c r="J28">
-        <v>1.000342938832736</v>
+        <v>0.902795323808145</v>
       </c>
       <c r="K28">
-        <v>0.9427388541920635</v>
+        <v>1.090925169322804</v>
       </c>
       <c r="L28">
-        <v>0.8610225859359261</v>
+        <v>1.186105343260665</v>
       </c>
       <c r="M28">
-        <v>0.9845734689644473</v>
+        <v>1.034777544995982</v>
       </c>
       <c r="N28">
-        <v>0.7785983686973932</v>
+        <v>1.283617992978144</v>
       </c>
       <c r="O28">
-        <v>1.233877211760958</v>
+        <v>0.6535133014708882</v>
       </c>
       <c r="P28">
-        <v>1.096051871488939</v>
+        <v>0.8462657951066834</v>
       </c>
       <c r="Q28">
-        <v>1.088308032976511</v>
+        <v>0.8722192353968459</v>
       </c>
       <c r="R28">
-        <v>0.9902340372250903</v>
+        <v>0.9920498610638372</v>
       </c>
       <c r="S28">
-        <v>1.04494753238998</v>
+        <v>0.9278189198453902</v>
       </c>
       <c r="T28">
-        <v>0.9902340372250903</v>
+        <v>0.992049861063837</v>
       </c>
       <c r="U28">
-        <v>0.9783602414668336</v>
+        <v>1.016768688128579</v>
       </c>
       <c r="V28">
-        <v>0.9384078669129454</v>
+        <v>1.070138549098492</v>
       </c>
       <c r="W28">
-        <v>0.9924411817479022</v>
+        <v>1.005611521798114</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2517,66 +2523,208 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.121226390920556</v>
+      </c>
+      <c r="D29">
+        <v>1.071443645091521</v>
+      </c>
+      <c r="E29">
+        <v>1.071443645091521</v>
+      </c>
+      <c r="F29">
+        <v>0.8799281229627143</v>
+      </c>
+      <c r="G29">
+        <v>0.8265228570921981</v>
+      </c>
+      <c r="H29">
+        <v>0.8265228570921981</v>
+      </c>
+      <c r="I29">
+        <v>0.8265228570921981</v>
+      </c>
+      <c r="J29">
+        <v>0.8909788351126369</v>
+      </c>
+      <c r="K29">
+        <v>1.067215321433336</v>
+      </c>
+      <c r="L29">
+        <v>0.9686420298896147</v>
+      </c>
+      <c r="M29">
+        <v>1.099460130564432</v>
+      </c>
+      <c r="N29">
+        <v>0.8265228570921981</v>
+      </c>
+      <c r="O29">
+        <v>0.8799281229627143</v>
+      </c>
+      <c r="P29">
+        <v>0.9756858840271174</v>
+      </c>
+      <c r="Q29">
+        <v>0.973571722198025</v>
+      </c>
+      <c r="R29">
+        <v>0.9259648750488111</v>
+      </c>
+      <c r="S29">
+        <v>1.006195696495857</v>
+      </c>
+      <c r="T29">
+        <v>0.9259648750488111</v>
+      </c>
+      <c r="U29">
+        <v>0.9612774866449423</v>
+      </c>
+      <c r="V29">
+        <v>0.9343265607343934</v>
+      </c>
+      <c r="W29">
+        <v>0.990677166633376</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.180149494382773</v>
+      </c>
+      <c r="D30">
+        <v>0.9582265312169198</v>
+      </c>
+      <c r="E30">
+        <v>0.9582265312169198</v>
+      </c>
+      <c r="F30">
+        <v>1.233877211760958</v>
+      </c>
+      <c r="G30">
+        <v>0.7785983686973932</v>
+      </c>
+      <c r="H30">
+        <v>0.7785983686973932</v>
+      </c>
+      <c r="I30">
+        <v>0.7785983686973932</v>
+      </c>
+      <c r="J30">
+        <v>1.000342938832736</v>
+      </c>
+      <c r="K30">
+        <v>0.9427388541920635</v>
+      </c>
+      <c r="L30">
+        <v>0.8610225859359261</v>
+      </c>
+      <c r="M30">
+        <v>0.9845734689644473</v>
+      </c>
+      <c r="N30">
+        <v>0.7785983686973932</v>
+      </c>
+      <c r="O30">
+        <v>1.233877211760958</v>
+      </c>
+      <c r="P30">
+        <v>1.096051871488939</v>
+      </c>
+      <c r="Q30">
+        <v>1.088308032976511</v>
+      </c>
+      <c r="R30">
+        <v>0.9902340372250903</v>
+      </c>
+      <c r="S30">
+        <v>1.04494753238998</v>
+      </c>
+      <c r="T30">
+        <v>0.9902340372250903</v>
+      </c>
+      <c r="U30">
+        <v>0.9783602414668336</v>
+      </c>
+      <c r="V30">
+        <v>0.9384078669129454</v>
+      </c>
+      <c r="W30">
+        <v>0.9924411817479022</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.136648369351586</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.2361655954886119</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.2361655954886119</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>1.435195048962009</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.032695940972739</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.032695940972739</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.032695940972739</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>1.216383614942301</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.8575478142893345</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>1.005227384721612</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.5643051768892654</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.032695940972739</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.435195048962009</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>0.8356803222253106</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.146371431625672</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>0.90135219514112</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>0.8429694862466519</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.90135219514112</v>
       </c>
-      <c r="U29">
+      <c r="U31">
         <v>0.8904010999281736</v>
       </c>
-      <c r="V29">
+      <c r="V31">
         <v>0.9188600681370866</v>
       </c>
-      <c r="W29">
+      <c r="W31">
         <v>0.9355211182021823</v>
       </c>
     </row>
